--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_255.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_255.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
   <si>
     <t>STR#</t>
   </si>
@@ -61,6 +61,15 @@
   </si>
   <si>
     <t>https://www.tripadvisor.com/Hotel_Review-g32580-d78393-Reviews-Extended_Stay_America_Los_Angeles_La_Mirada-La_Mirada_California.html</t>
+  </si>
+  <si>
+    <t>131</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>135</t>
   </si>
   <si>
     <t>https://www.orbitz.com/Los-Angeles-Hotels-Extended-Stay-America-Los-Angeles-La-Mirada.h104210.Hotel-Information</t>
@@ -532,11 +541,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +573,79 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_255.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_255.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="670">
   <si>
     <t>STR#</t>
   </si>
@@ -148,6 +148,1930 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>07/01/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32580-d78393-r571397082-Extended_Stay_America_Los_Angeles_La_Mirada-La_Mirada_California.html</t>
+  </si>
+  <si>
+    <t>32580</t>
+  </si>
+  <si>
+    <t>78393</t>
+  </si>
+  <si>
+    <t>571397082</t>
+  </si>
+  <si>
+    <t>01/12/2018</t>
+  </si>
+  <si>
+    <t>Extended Stay America La Mirada CA</t>
+  </si>
+  <si>
+    <t>Friendly staff, clean rooms.  Good location for working in both Los Angeles and Orange Counties.  4 out of 5 stars.  Price very fair.  Not real close to many grocery stores.  Plenty of restaurants near by.  Overall good place, I will stay here again in the opportunity comes up.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Los Angeles - La Mirada, responded to this reviewResponded April 14, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 14, 2018</t>
+  </si>
+  <si>
+    <t>Friendly staff, clean rooms.  Good location for working in both Los Angeles and Orange Counties.  4 out of 5 stars.  Price very fair.  Not real close to many grocery stores.  Plenty of restaurants near by.  Overall good place, I will stay here again in the opportunity comes up.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32580-d78393-r551992021-Extended_Stay_America_Los_Angeles_La_Mirada-La_Mirada_California.html</t>
+  </si>
+  <si>
+    <t>551992021</t>
+  </si>
+  <si>
+    <t>01/06/2018</t>
+  </si>
+  <si>
+    <t>Great staff great stay</t>
+  </si>
+  <si>
+    <t>I run back and forth from LA to Las Vegas and stay in this hotel 2 times a week and the staff are always amazing. They do a great job keeping the rooms clean and inviting. The front desk staff are really helpful and actually treat me like family not just a random person. MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Los Angeles - La Mirada, responded to this reviewResponded January 7, 2018</t>
+  </si>
+  <si>
+    <t>Responded January 7, 2018</t>
+  </si>
+  <si>
+    <t>I run back and forth from LA to Las Vegas and stay in this hotel 2 times a week and the staff are always amazing. They do a great job keeping the rooms clean and inviting. The front desk staff are really helpful and actually treat me like family not just a random person. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32580-d78393-r547516214-Extended_Stay_America_Los_Angeles_La_Mirada-La_Mirada_California.html</t>
+  </si>
+  <si>
+    <t>547516214</t>
+  </si>
+  <si>
+    <t>12/16/2017</t>
+  </si>
+  <si>
+    <t>Excellent hotel.we enjoyed the stay. But the reakfasts could have been better with more options. Other than that everyth</t>
+  </si>
+  <si>
+    <t>Excellent service..we enjoyed the stay. Staffs were good and nice. I was given some additional discount. Breakfast could have been better with more options. There were only some oats packets and some crackersMoreShow less</t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Los Angeles - La Mirada, responded to this reviewResponded December 16, 2017</t>
+  </si>
+  <si>
+    <t>Responded December 16, 2017</t>
+  </si>
+  <si>
+    <t>Excellent service..we enjoyed the stay. Staffs were good and nice. I was given some additional discount. Breakfast could have been better with more options. There were only some oats packets and some crackersMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32580-d78393-r506952077-Extended_Stay_America_Los_Angeles_La_Mirada-La_Mirada_California.html</t>
+  </si>
+  <si>
+    <t>506952077</t>
+  </si>
+  <si>
+    <t>07/29/2017</t>
+  </si>
+  <si>
+    <t>Great hotel for your weekly stay</t>
+  </si>
+  <si>
+    <t>Great hotel and service. very quite and easy to go to any type of Restaurants within 10 minutes drive. Free Wifi but speed is a little slow.  can buy more speedy internet. Overall, this hotel is valuable.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Los Angeles - La Mirada, responded to this reviewResponded July 30, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 30, 2017</t>
+  </si>
+  <si>
+    <t>Great hotel and service. very quite and easy to go to any type of Restaurants within 10 minutes drive. Free Wifi but speed is a little slow.  can buy more speedy internet. Overall, this hotel is valuable.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32580-d78393-r506090834-Extended_Stay_America_Los_Angeles_La_Mirada-La_Mirada_California.html</t>
+  </si>
+  <si>
+    <t>506090834</t>
+  </si>
+  <si>
+    <t>07/27/2017</t>
+  </si>
+  <si>
+    <t>Decent accommodation</t>
+  </si>
+  <si>
+    <t>Good location from Disneyland, average cleanness, over-zealous front office star, overall good value for money. Stove, oven, and full - size fridge provided.Particularly liked the recliner chair in the room.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Los Angeles - La Mirada, responded to this reviewResponded July 27, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 27, 2017</t>
+  </si>
+  <si>
+    <t>Good location from Disneyland, average cleanness, over-zealous front office star, overall good value for money. Stove, oven, and full - size fridge provided.Particularly liked the recliner chair in the room.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32580-d78393-r502514976-Extended_Stay_America_Los_Angeles_La_Mirada-La_Mirada_California.html</t>
+  </si>
+  <si>
+    <t>502514976</t>
+  </si>
+  <si>
+    <t>07/16/2017</t>
+  </si>
+  <si>
+    <t>I wouldn't extend my stay here</t>
+  </si>
+  <si>
+    <t>Rooms clean and comfortable beds. Towels were like sand paper and thin. Wifi worked 1/2 the time. No lobby or public restroom. No ice machine or coffee pot. No amenities at all! I will not recommend this place to anyone!MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Los Angeles - La Mirada, responded to this reviewResponded July 17, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 17, 2017</t>
+  </si>
+  <si>
+    <t>Rooms clean and comfortable beds. Towels were like sand paper and thin. Wifi worked 1/2 the time. No lobby or public restroom. No ice machine or coffee pot. No amenities at all! I will not recommend this place to anyone!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32580-d78393-r498441812-Extended_Stay_America_Los_Angeles_La_Mirada-La_Mirada_California.html</t>
+  </si>
+  <si>
+    <t>498441812</t>
+  </si>
+  <si>
+    <t>07/02/2017</t>
+  </si>
+  <si>
+    <t>If you are a light sleeper, this is not the place for you.</t>
+  </si>
+  <si>
+    <t>Paper thin walls mean you can hear conversations from nearby rooms, doors closing, shower, and toilet flushing.  I will say that the service was excellent but will not be back due to the noise issue.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Los Angeles - La Mirada, responded to this reviewResponded July 4, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 4, 2017</t>
+  </si>
+  <si>
+    <t>Paper thin walls mean you can hear conversations from nearby rooms, doors closing, shower, and toilet flushing.  I will say that the service was excellent but will not be back due to the noise issue.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32580-d78393-r497893756-Extended_Stay_America_Los_Angeles_La_Mirada-La_Mirada_California.html</t>
+  </si>
+  <si>
+    <t>497893756</t>
+  </si>
+  <si>
+    <t>Industrial location but Good</t>
+  </si>
+  <si>
+    <t>I was surprised to find this hotel in the industrial area. All around the location are warehouses and factories. But it is a good place to stay and the only reason I gave it less than a 5 is its location. The people, breakfast, beds, and rooms are all great for the price. It is not a far drive to the restaurants and shops but don't expect to walk to the local restaurant.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Los Angeles - La Mirada, responded to this reviewResponded July 2, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 2, 2017</t>
+  </si>
+  <si>
+    <t>I was surprised to find this hotel in the industrial area. All around the location are warehouses and factories. But it is a good place to stay and the only reason I gave it less than a 5 is its location. The people, breakfast, beds, and rooms are all great for the price. It is not a far drive to the restaurants and shops but don't expect to walk to the local restaurant.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32580-d78393-r496589482-Extended_Stay_America_Los_Angeles_La_Mirada-La_Mirada_California.html</t>
+  </si>
+  <si>
+    <t>496589482</t>
+  </si>
+  <si>
+    <t>06/27/2017</t>
+  </si>
+  <si>
+    <t>Great hotel for La Mirada</t>
+  </si>
+  <si>
+    <t>First off, this is La Mirada.  The selection is somewhat limited in terms of hotels.  Pretty much you are looking at the Holiday Inn and Marriot Residence Inn and Extended Stay America.  I was here for a college reunion.The staff is very friendly, the location is a little off the beaten path but close enough to everything.  And it is near In N Out, so there's that.The room was clean, had plenty of room, everything worked fine.  The air conditioner worked great (I'm used to a little cooler climate by the beach).  There is no restaurant, but they do have laundry facilities.  It exceeded my expectations but hey, it isn't a 5 star hotel, so set your expectations accordingly.  For me, it was a pleasant place to stay, and offer all that I needed plus a little more.  Nina at the front desk was especially helpful and I found the staff overall to be excellent.  Reading some of the other reviews who were fairly critical, this hotel did very well for it's class of hotel.  If you want better accommodations, you can find them closer to Anaheim but it will cost a lot more.MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Los Angeles - La Mirada, responded to this reviewResponded June 28, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 28, 2017</t>
+  </si>
+  <si>
+    <t>First off, this is La Mirada.  The selection is somewhat limited in terms of hotels.  Pretty much you are looking at the Holiday Inn and Marriot Residence Inn and Extended Stay America.  I was here for a college reunion.The staff is very friendly, the location is a little off the beaten path but close enough to everything.  And it is near In N Out, so there's that.The room was clean, had plenty of room, everything worked fine.  The air conditioner worked great (I'm used to a little cooler climate by the beach).  There is no restaurant, but they do have laundry facilities.  It exceeded my expectations but hey, it isn't a 5 star hotel, so set your expectations accordingly.  For me, it was a pleasant place to stay, and offer all that I needed plus a little more.  Nina at the front desk was especially helpful and I found the staff overall to be excellent.  Reading some of the other reviews who were fairly critical, this hotel did very well for it's class of hotel.  If you want better accommodations, you can find them closer to Anaheim but it will cost a lot more.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32580-d78393-r469613581-Extended_Stay_America_Los_Angeles_La_Mirada-La_Mirada_California.html</t>
+  </si>
+  <si>
+    <t>469613581</t>
+  </si>
+  <si>
+    <t>03/23/2017</t>
+  </si>
+  <si>
+    <t>Overall...</t>
+  </si>
+  <si>
+    <t>This is a good place to lay your head at night. There are lots of amenities I would prefer to have, but aren't non-negotiables for me.  I guess my biggest con to this hotel is that the hallways are dark and seem very enclosing.  Traveling in a group, I feel fine, but as a woman alone, I would feel very vulnerable. The coffee was weak, (often the case in hotels) and not available throughout the day, which I'm used to coffee being available on the fly in hotel lobbies. The rooms are ample and nice. Beds comfortable. The staff was REALLY nice and personable. Basically, for your money, this is the best you're gonna do in this area. MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Los Angeles - La Mirada, responded to this reviewResponded April 24, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 24, 2017</t>
+  </si>
+  <si>
+    <t>This is a good place to lay your head at night. There are lots of amenities I would prefer to have, but aren't non-negotiables for me.  I guess my biggest con to this hotel is that the hallways are dark and seem very enclosing.  Traveling in a group, I feel fine, but as a woman alone, I would feel very vulnerable. The coffee was weak, (often the case in hotels) and not available throughout the day, which I'm used to coffee being available on the fly in hotel lobbies. The rooms are ample and nice. Beds comfortable. The staff was REALLY nice and personable. Basically, for your money, this is the best you're gonna do in this area. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32580-d78393-r469127541-Extended_Stay_America_Los_Angeles_La_Mirada-La_Mirada_California.html</t>
+  </si>
+  <si>
+    <t>469127541</t>
+  </si>
+  <si>
+    <t>03/21/2017</t>
+  </si>
+  <si>
+    <t>Great Staff</t>
+  </si>
+  <si>
+    <t>The staff is great!!  They were helpful and friendly. We had our grandkids with us and th e staff added extra goodies to our kitchen package. The room was spacious and comfortable , the location convienent and quiet.  A great value for the price!MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>Manager_11525, Manager at Extended Stay America - Los Angeles - La Mirada, responded to this reviewResponded April 21, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 21, 2017</t>
+  </si>
+  <si>
+    <t>The staff is great!!  They were helpful and friendly. We had our grandkids with us and th e staff added extra goodies to our kitchen package. The room was spacious and comfortable , the location convienent and quiet.  A great value for the price!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32580-d78393-r465588270-Extended_Stay_America_Los_Angeles_La_Mirada-La_Mirada_California.html</t>
+  </si>
+  <si>
+    <t>465588270</t>
+  </si>
+  <si>
+    <t>03/08/2017</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>super nice and best one if been too but the food is nasty and the service is bad too but at the same time it is still good and there is alot of noisy kids so please try to make the hotel a adult only hotelMoreShow less</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t>Manager_11525, Manager at Extended Stay America - Los Angeles - La Mirada, responded to this reviewResponded April 6, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 6, 2017</t>
+  </si>
+  <si>
+    <t>super nice and best one if been too but the food is nasty and the service is bad too but at the same time it is still good and there is alot of noisy kids so please try to make the hotel a adult only hotelMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32580-d78393-r435967421-Extended_Stay_America_Los_Angeles_La_Mirada-La_Mirada_California.html</t>
+  </si>
+  <si>
+    <t>435967421</t>
+  </si>
+  <si>
+    <t>11/09/2016</t>
+  </si>
+  <si>
+    <t>Great location!</t>
+  </si>
+  <si>
+    <t>The location was exactly what we needed while visiting our Biola University student.  The property is clean and in good condition.  There is a kitchenette in each room, but you have to ask for dishware and cookware.  No perks are offered; it is a bare-bones property.  That means bring your own hair dryer!There is a drive-through Starbucks just around the corner which we made good use of.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32580-d78393-r427345831-Extended_Stay_America_Los_Angeles_La_Mirada-La_Mirada_California.html</t>
+  </si>
+  <si>
+    <t>427345831</t>
+  </si>
+  <si>
+    <t>10/12/2016</t>
+  </si>
+  <si>
+    <t>Represents The Brand Well!</t>
+  </si>
+  <si>
+    <t>I stayed at this hotel one night for a wedding nearby, and it was the perfect solution for me. Check-in was smooth, easy, and pleasant. Staff was very nice and accommodating. My room was clean and the bed was very comfortable. Though it's right off the freeway, I didn't notice any freeway noise in the room. When I woke up and realized I had overslept, I called the front desk and asked for a late checkout, and the attendant didn't hesitate to tell me it was no problem at all. I can't speak about the breakfast since I woke up too late to take advantage of it. Overall, I was very happy with my stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, Manager at Extended Stay America - Los Angeles - La Mirada, responded to this reviewResponded October 19, 2016</t>
+  </si>
+  <si>
+    <t>Responded October 19, 2016</t>
+  </si>
+  <si>
+    <t>I stayed at this hotel one night for a wedding nearby, and it was the perfect solution for me. Check-in was smooth, easy, and pleasant. Staff was very nice and accommodating. My room was clean and the bed was very comfortable. Though it's right off the freeway, I didn't notice any freeway noise in the room. When I woke up and realized I had overslept, I called the front desk and asked for a late checkout, and the attendant didn't hesitate to tell me it was no problem at all. I can't speak about the breakfast since I woke up too late to take advantage of it. Overall, I was very happy with my stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32580-d78393-r420175974-Extended_Stay_America_Los_Angeles_La_Mirada-La_Mirada_California.html</t>
+  </si>
+  <si>
+    <t>420175974</t>
+  </si>
+  <si>
+    <t>09/19/2016</t>
+  </si>
+  <si>
+    <t>Great place to stay</t>
+  </si>
+  <si>
+    <t>I loved it. No issues. Clean with friendly people. I would highly recommend it. You will not go wrong staying here. Small kitchen is nice. Easy access. Nice beds. First floor rooms are larger and nicer (not advertised as such). Great surprise.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>Manager_11525, Manager at Extended Stay America - Los Angeles - La Mirada, responded to this reviewResponded September 28, 2016</t>
+  </si>
+  <si>
+    <t>Responded September 28, 2016</t>
+  </si>
+  <si>
+    <t>I loved it. No issues. Clean with friendly people. I would highly recommend it. You will not go wrong staying here. Small kitchen is nice. Easy access. Nice beds. First floor rooms are larger and nicer (not advertised as such). Great surprise.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32580-d78393-r400111066-Extended_Stay_America_Los_Angeles_La_Mirada-La_Mirada_California.html</t>
+  </si>
+  <si>
+    <t>400111066</t>
+  </si>
+  <si>
+    <t>08/01/2016</t>
+  </si>
+  <si>
+    <t>More bang for your buck.</t>
+  </si>
+  <si>
+    <t>Very clean and spacious rooms with full kitchen and cooking utensils if needed.Beds are comfortable and clean.They are pet friendly and offer coffee and pastry every morning at 6 am which gets me off to a good start.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>Manager_11525, Manager at Extended Stay America - Los Angeles - La Mirada, responded to this reviewResponded August 19, 2016</t>
+  </si>
+  <si>
+    <t>Responded August 19, 2016</t>
+  </si>
+  <si>
+    <t>Very clean and spacious rooms with full kitchen and cooking utensils if needed.Beds are comfortable and clean.They are pet friendly and offer coffee and pastry every morning at 6 am which gets me off to a good start.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32580-d78393-r398089211-Extended_Stay_America_Los_Angeles_La_Mirada-La_Mirada_California.html</t>
+  </si>
+  <si>
+    <t>398089211</t>
+  </si>
+  <si>
+    <t>07/27/2016</t>
+  </si>
+  <si>
+    <t>Extended stay-  Clean and NIce Management</t>
+  </si>
+  <si>
+    <t>Room Was nice and clean .   Male Manager who has been there quite some time is the best!  Very Friendly and funny~   Other females not so much :(    Quick Breakfast includes oatmeal, piece of fruit and a snack bar or muffin.  Also included  tea and coffee.  Unfortunately during my 2 week stay it was the exact same thing everyday!  No pool, no business center  or fitness center which is hardly great for extended stay business travelers.  Also states free wifi??????  Hardly free wifi unless you just want to check your email ..  you can pay extra for faster wifi which is hardly at a normal bandwith!!!!    Imagine DIAL UP MODEMS !!!MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>Room Was nice and clean .   Male Manager who has been there quite some time is the best!  Very Friendly and funny~   Other females not so much :(    Quick Breakfast includes oatmeal, piece of fruit and a snack bar or muffin.  Also included  tea and coffee.  Unfortunately during my 2 week stay it was the exact same thing everyday!  No pool, no business center  or fitness center which is hardly great for extended stay business travelers.  Also states free wifi??????  Hardly free wifi unless you just want to check your email ..  you can pay extra for faster wifi which is hardly at a normal bandwith!!!!    Imagine DIAL UP MODEMS !!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32580-d78393-r397889696-Extended_Stay_America_Los_Angeles_La_Mirada-La_Mirada_California.html</t>
+  </si>
+  <si>
+    <t>397889696</t>
+  </si>
+  <si>
+    <t>Extended Stay America - La Mirada</t>
+  </si>
+  <si>
+    <t>Great place to stay.  It is convenient and close to Disneyland and Biola University.  Easy access to the freeway.  Rooms always clean and the staff are very nice.  It's always easy to do business with them.   MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, Manager at Extended Stay America - Los Angeles - La Mirada, responded to this reviewResponded August 2, 2016</t>
+  </si>
+  <si>
+    <t>Responded August 2, 2016</t>
+  </si>
+  <si>
+    <t>Great place to stay.  It is convenient and close to Disneyland and Biola University.  Easy access to the freeway.  Rooms always clean and the staff are very nice.  It's always easy to do business with them.   More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32580-d78393-r382000094-Extended_Stay_America_Los_Angeles_La_Mirada-La_Mirada_California.html</t>
+  </si>
+  <si>
+    <t>382000094</t>
+  </si>
+  <si>
+    <t>06/12/2016</t>
+  </si>
+  <si>
+    <t>Great Place to Stay Short or Long Term</t>
+  </si>
+  <si>
+    <t>You can't go wrong here. From the property itself to the front desk and maintenance/housekeeping staff.  I travel as a single female and have been staying here off and on for three years. It has been a very good value as well as given me peace of mind during my stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>Manager_11525, Manager at Extended Stay America - Los Angeles - La Mirada, responded to this reviewResponded June 14, 2016</t>
+  </si>
+  <si>
+    <t>Responded June 14, 2016</t>
+  </si>
+  <si>
+    <t>You can't go wrong here. From the property itself to the front desk and maintenance/housekeeping staff.  I travel as a single female and have been staying here off and on for three years. It has been a very good value as well as given me peace of mind during my stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32580-d78393-r381222430-Extended_Stay_America_Los_Angeles_La_Mirada-La_Mirada_California.html</t>
+  </si>
+  <si>
+    <t>381222430</t>
+  </si>
+  <si>
+    <t>06/09/2016</t>
+  </si>
+  <si>
+    <t>business trip</t>
+  </si>
+  <si>
+    <t>The front desk people were very friendly, attended to my needs right away, even when there was a woman there giving them a hard time. Location was fine for the reason I was there. It was so nice to have a kitchen to make dinner instead of eating fast food during my stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>The front desk people were very friendly, attended to my needs right away, even when there was a woman there giving them a hard time. Location was fine for the reason I was there. It was so nice to have a kitchen to make dinner instead of eating fast food during my stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32580-d78393-r376270698-Extended_Stay_America_Los_Angeles_La_Mirada-La_Mirada_California.html</t>
+  </si>
+  <si>
+    <t>376270698</t>
+  </si>
+  <si>
+    <t>05/24/2016</t>
+  </si>
+  <si>
+    <t>Clean and pleasant stay with a few sacrifices</t>
+  </si>
+  <si>
+    <t>I stayed here for a vacation trip to universal studios. I got the hotel for a very decent price.
+The staff was very accommodating and friendly. The room was also very cozy, clean and came with an abundant supply of towels. There was also a microwave, fridge, closet area, and two small burners in which you could do a bit of cooking. Cookware could be requested from the front desk.
+For Los Angeles, the price and quality of the room could not be beat, however there were a few minor drawbacks or sacrifices if you will : 
+1st, there was no room service, at least not for my stay. If we wanted new towels or sheets we needed to go to the front desk and request them. There is also no hairdryer in the room.
+2nd, the wifi was extreeeeeemely slow and in order to upgrade to an acceptable speed you needed to pay.
+3rd, the hotel offers breakfast, but their definition of breakfast is literally a selection basket of various packets of oatmeal, individually wrapped muffins, nutri-grain bars, and oranges. - There is no dining area so you needed to get what you needed and eat back in your room.
+Overall, it was a pleasant experience and it offered a clean place to lay my head for the night (or four). - The area was very safe and quiet, but if you're used to a few luxuries that most...I stayed here for a vacation trip to universal studios. I got the hotel for a very decent price.The staff was very accommodating and friendly. The room was also very cozy, clean and came with an abundant supply of towels. There was also a microwave, fridge, closet area, and two small burners in which you could do a bit of cooking. Cookware could be requested from the front desk.For Los Angeles, the price and quality of the room could not be beat, however there were a few minor drawbacks or sacrifices if you will : 1st, there was no room service, at least not for my stay. If we wanted new towels or sheets we needed to go to the front desk and request them. There is also no hairdryer in the room.2nd, the wifi was extreeeeeemely slow and in order to upgrade to an acceptable speed you needed to pay.3rd, the hotel offers breakfast, but their definition of breakfast is literally a selection basket of various packets of oatmeal, individually wrapped muffins, nutri-grain bars, and oranges. - There is no dining area so you needed to get what you needed and eat back in your room.Overall, it was a pleasant experience and it offered a clean place to lay my head for the night (or four). - The area was very safe and quiet, but if you're used to a few luxuries that most of the other hotels provide, then you might find yourself a little out of place. - For the price, I wouldn't mind staying again.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Los Angeles - La Mirada, responded to this reviewResponded June 8, 2016</t>
+  </si>
+  <si>
+    <t>Responded June 8, 2016</t>
+  </si>
+  <si>
+    <t>I stayed here for a vacation trip to universal studios. I got the hotel for a very decent price.
+The staff was very accommodating and friendly. The room was also very cozy, clean and came with an abundant supply of towels. There was also a microwave, fridge, closet area, and two small burners in which you could do a bit of cooking. Cookware could be requested from the front desk.
+For Los Angeles, the price and quality of the room could not be beat, however there were a few minor drawbacks or sacrifices if you will : 
+1st, there was no room service, at least not for my stay. If we wanted new towels or sheets we needed to go to the front desk and request them. There is also no hairdryer in the room.
+2nd, the wifi was extreeeeeemely slow and in order to upgrade to an acceptable speed you needed to pay.
+3rd, the hotel offers breakfast, but their definition of breakfast is literally a selection basket of various packets of oatmeal, individually wrapped muffins, nutri-grain bars, and oranges. - There is no dining area so you needed to get what you needed and eat back in your room.
+Overall, it was a pleasant experience and it offered a clean place to lay my head for the night (or four). - The area was very safe and quiet, but if you're used to a few luxuries that most...I stayed here for a vacation trip to universal studios. I got the hotel for a very decent price.The staff was very accommodating and friendly. The room was also very cozy, clean and came with an abundant supply of towels. There was also a microwave, fridge, closet area, and two small burners in which you could do a bit of cooking. Cookware could be requested from the front desk.For Los Angeles, the price and quality of the room could not be beat, however there were a few minor drawbacks or sacrifices if you will : 1st, there was no room service, at least not for my stay. If we wanted new towels or sheets we needed to go to the front desk and request them. There is also no hairdryer in the room.2nd, the wifi was extreeeeeemely slow and in order to upgrade to an acceptable speed you needed to pay.3rd, the hotel offers breakfast, but their definition of breakfast is literally a selection basket of various packets of oatmeal, individually wrapped muffins, nutri-grain bars, and oranges. - There is no dining area so you needed to get what you needed and eat back in your room.Overall, it was a pleasant experience and it offered a clean place to lay my head for the night (or four). - The area was very safe and quiet, but if you're used to a few luxuries that most of the other hotels provide, then you might find yourself a little out of place. - For the price, I wouldn't mind staying again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32580-d78393-r345672125-Extended_Stay_America_Los_Angeles_La_Mirada-La_Mirada_California.html</t>
+  </si>
+  <si>
+    <t>345672125</t>
+  </si>
+  <si>
+    <t>02/07/2016</t>
+  </si>
+  <si>
+    <t>Convienent Nice and Noisey</t>
+  </si>
+  <si>
+    <t>I loved my stay. I took a king size bed so I could have the most room to spread out. The staff were excellent. Jennifer was more than helpful and friendly. The room was clean and the layout was perfect for me. I was working from my room on my desktop computer then enjoying the sights during the warm California winter. The bed was comfy, the kitchen adequate, the bathroom well laid out, the hotel secure. The building must have been remodeled. All the carpet and paint seemed fresh. You could however see the dirt around the light switches. This location is just a few hundred feet from the Santa Ana Freeway. It is in an warehousing district. Early mornings were often greeted with semis howling outside. The room door closers would often allow the door to boom so loud that the bed would shake. The air conditioner droned but I slept through it. The free WiFi is crappy. It will do email but to get something a bit better you have to pay extra. I paid $20 for a month. That upped the speed to just 2.5 Mbps. Pictures painted slowly and online video was pixelated. The kitchen sink ran slow. I reported it but nothing was done before I left. My weekly room cleaning was missed once but I had to check out early so it wasn't a problem.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2016</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Los Angeles - La Mirada, responded to this reviewResponded February 18, 2016</t>
+  </si>
+  <si>
+    <t>Responded February 18, 2016</t>
+  </si>
+  <si>
+    <t>I loved my stay. I took a king size bed so I could have the most room to spread out. The staff were excellent. Jennifer was more than helpful and friendly. The room was clean and the layout was perfect for me. I was working from my room on my desktop computer then enjoying the sights during the warm California winter. The bed was comfy, the kitchen adequate, the bathroom well laid out, the hotel secure. The building must have been remodeled. All the carpet and paint seemed fresh. You could however see the dirt around the light switches. This location is just a few hundred feet from the Santa Ana Freeway. It is in an warehousing district. Early mornings were often greeted with semis howling outside. The room door closers would often allow the door to boom so loud that the bed would shake. The air conditioner droned but I slept through it. The free WiFi is crappy. It will do email but to get something a bit better you have to pay extra. I paid $20 for a month. That upped the speed to just 2.5 Mbps. Pictures painted slowly and online video was pixelated. The kitchen sink ran slow. I reported it but nothing was done before I left. My weekly room cleaning was missed once but I had to check out early so it wasn't a problem.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32580-d78393-r337955987-Extended_Stay_America_Los_Angeles_La_Mirada-La_Mirada_California.html</t>
+  </si>
+  <si>
+    <t>337955987</t>
+  </si>
+  <si>
+    <t>01/06/2016</t>
+  </si>
+  <si>
+    <t>Second Time, Just as Great...</t>
+  </si>
+  <si>
+    <t>Another stay at this property. This time during the 2nd week of December 2015. And yes, everything I wrote in August holds true (see post below).
+Once again Jennifer helped us out during her shift. I wouldn't be surprised if she recognized us. The late night check in staff were fast and offered us incidental items for free (bath soap, shampoo, dish soap, etc.), and I learned that you CAN check in late, after 11pm! There is a phone for this and the kind security staff in the very early hrs of December 11th pointed me in the right direction. The security staff are positioned right at the main door. They buzzed us in quickly.
+Thanks to a poster below for info about In n Out Burger. It's just a short drive north! Came in handy on one night of our weekend.
+I learned also that some rooms are a bit smaller than others. This time the smaller room made for a cramped corner near the AC/heater where the EZ chair sits. But this isn't a deal breaker by any means.
+Kitchen utensils need to be requested from office/lobby. Oddly, I brought my own. No, I didn't bring pots and pans! We just brought microwave dinners, beverages, plasticware, mugs. This works well with the small kitchen. It saves time and money on our first night. I suppose you could even whip up a small feast from scratch if that's your...Another stay at this property. This time during the 2nd week of December 2015. And yes, everything I wrote in August holds true (see post below).Once again Jennifer helped us out during her shift. I wouldn't be surprised if she recognized us. The late night check in staff were fast and offered us incidental items for free (bath soap, shampoo, dish soap, etc.), and I learned that you CAN check in late, after 11pm! There is a phone for this and the kind security staff in the very early hrs of December 11th pointed me in the right direction. The security staff are positioned right at the main door. They buzzed us in quickly.Thanks to a poster below for info about In n Out Burger. It's just a short drive north! Came in handy on one night of our weekend.I learned also that some rooms are a bit smaller than others. This time the smaller room made for a cramped corner near the AC/heater where the EZ chair sits. But this isn't a deal breaker by any means.Kitchen utensils need to be requested from office/lobby. Oddly, I brought my own. No, I didn't bring pots and pans! We just brought microwave dinners, beverages, plasticware, mugs. This works well with the small kitchen. It saves time and money on our first night. I suppose you could even whip up a small feast from scratch if that's your thing!Once again, this property played host to our Disneyland weekend for holiday time. I will gladly consider staying here AGAIN a 3rd time to save money if the price is in our budget, and deal with a very kind staff for our future Disneyland weekend. We don't spend much time at the hotel, but when we sleep and shower and get a fast grab-n-go b'fast in close proximity to the happiest place on earth, we are very satisfied!If going to any attractions in the OC area, I highly recommend this hotel 10-20min from the M&amp;F parking garage via freeway (depends on traffic), 20min to Knott's on surface streets. 45min to beaches.Thanks for another great stay. Everything we needed!MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2015</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Los Angeles - La Mirada, responded to this reviewResponded January 13, 2016</t>
+  </si>
+  <si>
+    <t>Responded January 13, 2016</t>
+  </si>
+  <si>
+    <t>Another stay at this property. This time during the 2nd week of December 2015. And yes, everything I wrote in August holds true (see post below).
+Once again Jennifer helped us out during her shift. I wouldn't be surprised if she recognized us. The late night check in staff were fast and offered us incidental items for free (bath soap, shampoo, dish soap, etc.), and I learned that you CAN check in late, after 11pm! There is a phone for this and the kind security staff in the very early hrs of December 11th pointed me in the right direction. The security staff are positioned right at the main door. They buzzed us in quickly.
+Thanks to a poster below for info about In n Out Burger. It's just a short drive north! Came in handy on one night of our weekend.
+I learned also that some rooms are a bit smaller than others. This time the smaller room made for a cramped corner near the AC/heater where the EZ chair sits. But this isn't a deal breaker by any means.
+Kitchen utensils need to be requested from office/lobby. Oddly, I brought my own. No, I didn't bring pots and pans! We just brought microwave dinners, beverages, plasticware, mugs. This works well with the small kitchen. It saves time and money on our first night. I suppose you could even whip up a small feast from scratch if that's your...Another stay at this property. This time during the 2nd week of December 2015. And yes, everything I wrote in August holds true (see post below).Once again Jennifer helped us out during her shift. I wouldn't be surprised if she recognized us. The late night check in staff were fast and offered us incidental items for free (bath soap, shampoo, dish soap, etc.), and I learned that you CAN check in late, after 11pm! There is a phone for this and the kind security staff in the very early hrs of December 11th pointed me in the right direction. The security staff are positioned right at the main door. They buzzed us in quickly.Thanks to a poster below for info about In n Out Burger. It's just a short drive north! Came in handy on one night of our weekend.I learned also that some rooms are a bit smaller than others. This time the smaller room made for a cramped corner near the AC/heater where the EZ chair sits. But this isn't a deal breaker by any means.Kitchen utensils need to be requested from office/lobby. Oddly, I brought my own. No, I didn't bring pots and pans! We just brought microwave dinners, beverages, plasticware, mugs. This works well with the small kitchen. It saves time and money on our first night. I suppose you could even whip up a small feast from scratch if that's your thing!Once again, this property played host to our Disneyland weekend for holiday time. I will gladly consider staying here AGAIN a 3rd time to save money if the price is in our budget, and deal with a very kind staff for our future Disneyland weekend. We don't spend much time at the hotel, but when we sleep and shower and get a fast grab-n-go b'fast in close proximity to the happiest place on earth, we are very satisfied!If going to any attractions in the OC area, I highly recommend this hotel 10-20min from the M&amp;F parking garage via freeway (depends on traffic), 20min to Knott's on surface streets. 45min to beaches.Thanks for another great stay. Everything we needed!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32580-d78393-r336923627-Extended_Stay_America_Los_Angeles_La_Mirada-La_Mirada_California.html</t>
+  </si>
+  <si>
+    <t>336923627</t>
+  </si>
+  <si>
+    <t>01/03/2016</t>
+  </si>
+  <si>
+    <t>Invited to a wedding</t>
+  </si>
+  <si>
+    <t>The best stay ever.  Very relax, awesome customer services.  The staff was excellent and very knowledgeable. The location was prefect for our invite to a wedding.  What I like best was the staff very friendly.MoreShow less</t>
+  </si>
+  <si>
+    <t>The best stay ever.  Very relax, awesome customer services.  The staff was excellent and very knowledgeable. The location was prefect for our invite to a wedding.  What I like best was the staff very friendly.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32580-d78393-r313448946-Extended_Stay_America_Los_Angeles_La_Mirada-La_Mirada_California.html</t>
+  </si>
+  <si>
+    <t>313448946</t>
+  </si>
+  <si>
+    <t>09/24/2015</t>
+  </si>
+  <si>
+    <t>You can't always get what you want, but sometimes you get what you need.</t>
+  </si>
+  <si>
+    <t>I would've loved to have a pool and a nice breakfast, but it seems like any hotel like that in OC costs a fortune. We were here on business and I wanted the place to be cheap and clean, with good free wi-fi. Kitchen would be nice too, so at least I could make that nice breakfast. And in these respects, this hotel delivered. There were no cleanliness issues. I actually like the lack of housekeeping. Having a full kitchen is nice. You have to ask for plates/cups/utensils, but so what?The free Wi-Fi worked well, at least in this Extended Stay America. You can also buy high speed internet, but that wasn't necessary. I've read that's not the case in some of the other ones around OC. It's nice to have a full recliner, particularly when the A/C turns on at night at random times and you need to place a large object between it and your bed. Best of all was the price. Even the cheapest hotel costs $50/night in OC these days, and with the priceline Express Deal, Extended Stay America is only a little north of that, but with better amenities.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2015</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Los Angeles - La Mirada, responded to this reviewResponded October 27, 2015</t>
+  </si>
+  <si>
+    <t>Responded October 27, 2015</t>
+  </si>
+  <si>
+    <t>I would've loved to have a pool and a nice breakfast, but it seems like any hotel like that in OC costs a fortune. We were here on business and I wanted the place to be cheap and clean, with good free wi-fi. Kitchen would be nice too, so at least I could make that nice breakfast. And in these respects, this hotel delivered. There were no cleanliness issues. I actually like the lack of housekeeping. Having a full kitchen is nice. You have to ask for plates/cups/utensils, but so what?The free Wi-Fi worked well, at least in this Extended Stay America. You can also buy high speed internet, but that wasn't necessary. I've read that's not the case in some of the other ones around OC. It's nice to have a full recliner, particularly when the A/C turns on at night at random times and you need to place a large object between it and your bed. Best of all was the price. Even the cheapest hotel costs $50/night in OC these days, and with the priceline Express Deal, Extended Stay America is only a little north of that, but with better amenities.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32580-d78393-r310436016-Extended_Stay_America_Los_Angeles_La_Mirada-La_Mirada_California.html</t>
+  </si>
+  <si>
+    <t>310436016</t>
+  </si>
+  <si>
+    <t>09/15/2015</t>
+  </si>
+  <si>
+    <t>Don't stay here..</t>
+  </si>
+  <si>
+    <t>I choose to stay at this hotel because I was on a temporary assignment to the area. It wasn't as close to the job as I wanted to it be, but it served the purpose. Not long after checking in I discovered it lack basic amenities that a "half decent" hotel should offer. No breakfast, no exercise room, no business center, no pool and I roaches in my room. I reported it but I didn't see where anything was done. Overall, the staff is excellent.</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32580-d78393-r303774183-Extended_Stay_America_Los_Angeles_La_Mirada-La_Mirada_California.html</t>
+  </si>
+  <si>
+    <t>303774183</t>
+  </si>
+  <si>
+    <t>08/26/2015</t>
+  </si>
+  <si>
+    <t>Great hotel for budget travelers</t>
+  </si>
+  <si>
+    <t>We were taking a couples trip to Disneyland Aug 14 to Aug 16. The hotel is less than 10mi to the park on I-5. Great quite location even though it is right near freeway. No noise. It's close to Knott's and other attractions too.
+Well stocked bathroom w/ tub shower combo. Plenty of towels. 4 of them for a single queen room. Wonderful temperature control and pressure in shower.
+Well lighted parking area with security cameras. Clean room and mini kitchen with full sized fridge. Makes it cheaper when you can cook your first meal upon arrival. Although, there is nothing in the immediate area (industrial zone). Stores are just a 3mi trip. Check in was easy as was check out. Grab n go b'fast isn't a lot, but is very convenient and coffee was fine with a muffin. It is free. Can't beat that!
+I give it five stars, but there were some negatives. Parking slots are too small. Bigger cars will need to take up 2 spaces in some cases. There seems to be enough parking slots though. There was an annoying long term resident with bad attitude while we were checking in. Not the hotels fault. The 11pm front desk closure is strange, just plan to get there before 11pm. No hair dryer in our room.
+Ironing board in closet w/ iron. AC worked well during the hottest day of the year (100*). Beds were comfy. Many...We were taking a couples trip to Disneyland Aug 14 to Aug 16. The hotel is less than 10mi to the park on I-5. Great quite location even though it is right near freeway. No noise. It's close to Knott's and other attractions too.Well stocked bathroom w/ tub shower combo. Plenty of towels. 4 of them for a single queen room. Wonderful temperature control and pressure in shower.Well lighted parking area with security cameras. Clean room and mini kitchen with full sized fridge. Makes it cheaper when you can cook your first meal upon arrival. Although, there is nothing in the immediate area (industrial zone). Stores are just a 3mi trip. Check in was easy as was check out. Grab n go b'fast isn't a lot, but is very convenient and coffee was fine with a muffin. It is free. Can't beat that!I give it five stars, but there were some negatives. Parking slots are too small. Bigger cars will need to take up 2 spaces in some cases. There seems to be enough parking slots though. There was an annoying long term resident with bad attitude while we were checking in. Not the hotels fault. The 11pm front desk closure is strange, just plan to get there before 11pm. No hair dryer in our room.Ironing board in closet w/ iron. AC worked well during the hottest day of the year (100*). Beds were comfy. Many electric outlets for the free wifi for your many devices. Large tv. Small dining table AND work desk. There's even a recliner in the corner to relax. A large open floor plan for a studio. Well dressed room in a modern style. Lots of storage compared to average hotel rooms.Jennifer was very nice at day shift front desk and very kind and VERY helpful for our needs. I hope management recognizes her hard work and friendly attitude. She even wished us well on our trip to Disneyland!We got a blind booking at a great price! At that price, I'd stay again. I would even consider staying at a slightly higher rate!If you are high maintenance, this maybe the wrong hotel for you. If you don't need nightlife and don't need restaurants and do have a car, its a wonderful place. It is safe and well secured. I would recommend for all traveler types including family groups.A great weekend getaway!Thanks for a great weekend stay!MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Los Angeles - La Mirada, responded to this reviewResponded September 11, 2015</t>
+  </si>
+  <si>
+    <t>Responded September 11, 2015</t>
+  </si>
+  <si>
+    <t>We were taking a couples trip to Disneyland Aug 14 to Aug 16. The hotel is less than 10mi to the park on I-5. Great quite location even though it is right near freeway. No noise. It's close to Knott's and other attractions too.
+Well stocked bathroom w/ tub shower combo. Plenty of towels. 4 of them for a single queen room. Wonderful temperature control and pressure in shower.
+Well lighted parking area with security cameras. Clean room and mini kitchen with full sized fridge. Makes it cheaper when you can cook your first meal upon arrival. Although, there is nothing in the immediate area (industrial zone). Stores are just a 3mi trip. Check in was easy as was check out. Grab n go b'fast isn't a lot, but is very convenient and coffee was fine with a muffin. It is free. Can't beat that!
+I give it five stars, but there were some negatives. Parking slots are too small. Bigger cars will need to take up 2 spaces in some cases. There seems to be enough parking slots though. There was an annoying long term resident with bad attitude while we were checking in. Not the hotels fault. The 11pm front desk closure is strange, just plan to get there before 11pm. No hair dryer in our room.
+Ironing board in closet w/ iron. AC worked well during the hottest day of the year (100*). Beds were comfy. Many...We were taking a couples trip to Disneyland Aug 14 to Aug 16. The hotel is less than 10mi to the park on I-5. Great quite location even though it is right near freeway. No noise. It's close to Knott's and other attractions too.Well stocked bathroom w/ tub shower combo. Plenty of towels. 4 of them for a single queen room. Wonderful temperature control and pressure in shower.Well lighted parking area with security cameras. Clean room and mini kitchen with full sized fridge. Makes it cheaper when you can cook your first meal upon arrival. Although, there is nothing in the immediate area (industrial zone). Stores are just a 3mi trip. Check in was easy as was check out. Grab n go b'fast isn't a lot, but is very convenient and coffee was fine with a muffin. It is free. Can't beat that!I give it five stars, but there were some negatives. Parking slots are too small. Bigger cars will need to take up 2 spaces in some cases. There seems to be enough parking slots though. There was an annoying long term resident with bad attitude while we were checking in. Not the hotels fault. The 11pm front desk closure is strange, just plan to get there before 11pm. No hair dryer in our room.Ironing board in closet w/ iron. AC worked well during the hottest day of the year (100*). Beds were comfy. Many electric outlets for the free wifi for your many devices. Large tv. Small dining table AND work desk. There's even a recliner in the corner to relax. A large open floor plan for a studio. Well dressed room in a modern style. Lots of storage compared to average hotel rooms.Jennifer was very nice at day shift front desk and very kind and VERY helpful for our needs. I hope management recognizes her hard work and friendly attitude. She even wished us well on our trip to Disneyland!We got a blind booking at a great price! At that price, I'd stay again. I would even consider staying at a slightly higher rate!If you are high maintenance, this maybe the wrong hotel for you. If you don't need nightlife and don't need restaurants and do have a car, its a wonderful place. It is safe and well secured. I would recommend for all traveler types including family groups.A great weekend getaway!Thanks for a great weekend stay!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32580-d78393-r297544361-Extended_Stay_America_Los_Angeles_La_Mirada-La_Mirada_California.html</t>
+  </si>
+  <si>
+    <t>297544361</t>
+  </si>
+  <si>
+    <t>08/10/2015</t>
+  </si>
+  <si>
+    <t>Disappointment !!!!</t>
+  </si>
+  <si>
+    <t>We made online reservation in Turkey for this hotel based on the ratings. When we arrived hotel after 8 hours driving we shocked due to stupid, old fashioned check in process/formalities. If you live abroad, not the US residents, your credit card is not accepted by the hotel system even the same credit card is allowed to be used for making online reservation and total amount for the stay is blocked too,  so we do not have  problem on the card limits! Also, we used the same card for the last 3 days in the US at several shopping places, theme parks and hotels ( country Inn,  holiday Inn) we didn't face any problems.  We came the hotel just after long driving, my kids waited at the desk for stupid formalities starting from 9 pm to 1045 pm, they were getting  sleeping on the couch at the desk. hotel  guys asked us to pay whole amount in cash, which is over USD 1K!!!! Anyway,  after spending almost two hours at reception desk and talking to call centre, and  manager we were able to check in!!!!  It is not a good starting for a holiday. MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Los Angeles - La Mirada, responded to this reviewResponded September 2, 2015</t>
+  </si>
+  <si>
+    <t>Responded September 2, 2015</t>
+  </si>
+  <si>
+    <t>We made online reservation in Turkey for this hotel based on the ratings. When we arrived hotel after 8 hours driving we shocked due to stupid, old fashioned check in process/formalities. If you live abroad, not the US residents, your credit card is not accepted by the hotel system even the same credit card is allowed to be used for making online reservation and total amount for the stay is blocked too,  so we do not have  problem on the card limits! Also, we used the same card for the last 3 days in the US at several shopping places, theme parks and hotels ( country Inn,  holiday Inn) we didn't face any problems.  We came the hotel just after long driving, my kids waited at the desk for stupid formalities starting from 9 pm to 1045 pm, they were getting  sleeping on the couch at the desk. hotel  guys asked us to pay whole amount in cash, which is over USD 1K!!!! Anyway,  after spending almost two hours at reception desk and talking to call centre, and  manager we were able to check in!!!!  It is not a good starting for a holiday. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32580-d78393-r292058589-Extended_Stay_America_Los_Angeles_La_Mirada-La_Mirada_California.html</t>
+  </si>
+  <si>
+    <t>292058589</t>
+  </si>
+  <si>
+    <t>07/24/2015</t>
+  </si>
+  <si>
+    <t>satisfy</t>
+  </si>
+  <si>
+    <t>nice room, free hotel shuttle, tour agency pick up point. me and my family were very happy staying here. surely come back again. it will better if more flexible in check in or check out time. easy access to disneyland with hotel shuttleMoreShow less</t>
+  </si>
+  <si>
+    <t>August 2014</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Los Angeles - La Mirada, responded to this reviewResponded August 19, 2015</t>
+  </si>
+  <si>
+    <t>Responded August 19, 2015</t>
+  </si>
+  <si>
+    <t>nice room, free hotel shuttle, tour agency pick up point. me and my family were very happy staying here. surely come back again. it will better if more flexible in check in or check out time. easy access to disneyland with hotel shuttleMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32580-d78393-r286951176-Extended_Stay_America_Los_Angeles_La_Mirada-La_Mirada_California.html</t>
+  </si>
+  <si>
+    <t>286951176</t>
+  </si>
+  <si>
+    <t>07/08/2015</t>
+  </si>
+  <si>
+    <t>Great hotel</t>
+  </si>
+  <si>
+    <t>Stayed for 10 days, room clean, friendly staff, comfortable bed and quiet room. Would like more TV channels but all in all a good stay.Close to my family and various attractions....exterior well maintainedMoreShow less</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>Stayed for 10 days, room clean, friendly staff, comfortable bed and quiet room. Would like more TV channels but all in all a good stay.Close to my family and various attractions....exterior well maintainedMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32580-d78393-r274903780-Extended_Stay_America_Los_Angeles_La_Mirada-La_Mirada_California.html</t>
+  </si>
+  <si>
+    <t>274903780</t>
+  </si>
+  <si>
+    <t>05/26/2015</t>
+  </si>
+  <si>
+    <t>Positive experience</t>
+  </si>
+  <si>
+    <t>The night clerk was fabulous.  Appreciated breakfast.  Excellent HOT, strong shower.  Look at the air vent in the bathroom of room 327 I think.  Very dirty...should be cleaned periodically.  Everything else was very clean.  Would have liked ice...didn't see a ice canister...couldn't wait for freezer to produce some...maybe there was an ice machine??? Great location. Wish there was a plug available on the night stands.  Had to unplug the clock.</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32580-d78393-r274051986-Extended_Stay_America_Los_Angeles_La_Mirada-La_Mirada_California.html</t>
+  </si>
+  <si>
+    <t>274051986</t>
+  </si>
+  <si>
+    <t>05/23/2015</t>
+  </si>
+  <si>
+    <t>Very Reasonable Rates</t>
+  </si>
+  <si>
+    <t>This was our second stay at an Extended Stay, so we had some idea of what to expect.  The chain is able to give you better rates by cutting out the daily housekeeping that is done in other places that have suites.  They also don't have things like a pool or a gym.  Given that they have long-term guests, they do have a laundry room.  We stayed a week at this facility, but I think most of the guests stay for longer periods than that.  The guy checking in before me was staying through July for his work.
+  This particular Extended Stay is located just off the busy I-5, but we pretty much avoided it by heading north to Whittier and east to Brea where most of our business was.  It was just 15 minutes to either of these towns, so it was pretty central for us.  Even though we were near the freeway, I didn't hear any freeway noise.
+  We were happy with the large refrigerator in the unit as well as the counter space that our kitchen had.  We mostly ate out, but a few times we'd just heat up some microwave meals.  We already knew that their breakfasts were pretty poor, but SOCAL has donut shops at every major intersection, so we weren't lacking in the morning sweets department.
+  If we were to visit this area again, I don't think I'd even look for another place to...This was our second stay at an Extended Stay, so we had some idea of what to expect.  The chain is able to give you better rates by cutting out the daily housekeeping that is done in other places that have suites.  They also don't have things like a pool or a gym.  Given that they have long-term guests, they do have a laundry room.  We stayed a week at this facility, but I think most of the guests stay for longer periods than that.  The guy checking in before me was staying through July for his work.  This particular Extended Stay is located just off the busy I-5, but we pretty much avoided it by heading north to Whittier and east to Brea where most of our business was.  It was just 15 minutes to either of these towns, so it was pretty central for us.  Even though we were near the freeway, I didn't hear any freeway noise.  We were happy with the large refrigerator in the unit as well as the counter space that our kitchen had.  We mostly ate out, but a few times we'd just heat up some microwave meals.  We already knew that their breakfasts were pretty poor, but SOCAL has donut shops at every major intersection, so we weren't lacking in the morning sweets department.  If we were to visit this area again, I don't think I'd even look for another place to stay.  This worked out very well for us and was very inexpensive by comparison to other places in the area.MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Los Angeles - La Mirada, responded to this reviewResponded May 29, 2015</t>
+  </si>
+  <si>
+    <t>Responded May 29, 2015</t>
+  </si>
+  <si>
+    <t>This was our second stay at an Extended Stay, so we had some idea of what to expect.  The chain is able to give you better rates by cutting out the daily housekeeping that is done in other places that have suites.  They also don't have things like a pool or a gym.  Given that they have long-term guests, they do have a laundry room.  We stayed a week at this facility, but I think most of the guests stay for longer periods than that.  The guy checking in before me was staying through July for his work.
+  This particular Extended Stay is located just off the busy I-5, but we pretty much avoided it by heading north to Whittier and east to Brea where most of our business was.  It was just 15 minutes to either of these towns, so it was pretty central for us.  Even though we were near the freeway, I didn't hear any freeway noise.
+  We were happy with the large refrigerator in the unit as well as the counter space that our kitchen had.  We mostly ate out, but a few times we'd just heat up some microwave meals.  We already knew that their breakfasts were pretty poor, but SOCAL has donut shops at every major intersection, so we weren't lacking in the morning sweets department.
+  If we were to visit this area again, I don't think I'd even look for another place to...This was our second stay at an Extended Stay, so we had some idea of what to expect.  The chain is able to give you better rates by cutting out the daily housekeeping that is done in other places that have suites.  They also don't have things like a pool or a gym.  Given that they have long-term guests, they do have a laundry room.  We stayed a week at this facility, but I think most of the guests stay for longer periods than that.  The guy checking in before me was staying through July for his work.  This particular Extended Stay is located just off the busy I-5, but we pretty much avoided it by heading north to Whittier and east to Brea where most of our business was.  It was just 15 minutes to either of these towns, so it was pretty central for us.  Even though we were near the freeway, I didn't hear any freeway noise.  We were happy with the large refrigerator in the unit as well as the counter space that our kitchen had.  We mostly ate out, but a few times we'd just heat up some microwave meals.  We already knew that their breakfasts were pretty poor, but SOCAL has donut shops at every major intersection, so we weren't lacking in the morning sweets department.  If we were to visit this area again, I don't think I'd even look for another place to stay.  This worked out very well for us and was very inexpensive by comparison to other places in the area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32580-d78393-r264183563-Extended_Stay_America_Los_Angeles_La_Mirada-La_Mirada_California.html</t>
+  </si>
+  <si>
+    <t>264183563</t>
+  </si>
+  <si>
+    <t>04/07/2015</t>
+  </si>
+  <si>
+    <t>Friendly Staff</t>
+  </si>
+  <si>
+    <t>La Mirada is our second Extended Stay we have lived in and it's by far the best one. The front office staff, maintenance and cleaning crew are very nice and friendly. The grounds around the building are well kept and the inside very nice and fresh. The morning breakfast has a nice variety of items to get your day going. Thank you to the entire La Mirada staff!The DanielsMoreShow less</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Los Angeles - La Mirada, responded to this reviewResponded April 21, 2015</t>
+  </si>
+  <si>
+    <t>Responded April 21, 2015</t>
+  </si>
+  <si>
+    <t>La Mirada is our second Extended Stay we have lived in and it's by far the best one. The front office staff, maintenance and cleaning crew are very nice and friendly. The grounds around the building are well kept and the inside very nice and fresh. The morning breakfast has a nice variety of items to get your day going. Thank you to the entire La Mirada staff!The DanielsMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32580-d78393-r262179624-Extended_Stay_America_Los_Angeles_La_Mirada-La_Mirada_California.html</t>
+  </si>
+  <si>
+    <t>262179624</t>
+  </si>
+  <si>
+    <t>03/27/2015</t>
+  </si>
+  <si>
+    <t>Clean but customer service needs improvement</t>
+  </si>
+  <si>
+    <t>A no-frills hotel in an industrial park area, surrounded by warehouses and distribution centers. No restaurants or shops within walking distance. Room and hallways were clean. Mattress and desk chair were very uncomfortable. Kitchen was nice but no oven, so not really a full kitchen as advertised. Also had to request all kitchen supplies instead of them being in the room already. Most of the staff were friendly, but Jessica had an attitude and so did the hotel manager. Customer service and friendliness to customers should be the number one priority, and this hotel would be much better if they improved that, but this seems to be a common issue across this chain of hotels.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Los Angeles - La Mirada, responded to this reviewResponded April 15, 2015</t>
+  </si>
+  <si>
+    <t>Responded April 15, 2015</t>
+  </si>
+  <si>
+    <t>A no-frills hotel in an industrial park area, surrounded by warehouses and distribution centers. No restaurants or shops within walking distance. Room and hallways were clean. Mattress and desk chair were very uncomfortable. Kitchen was nice but no oven, so not really a full kitchen as advertised. Also had to request all kitchen supplies instead of them being in the room already. Most of the staff were friendly, but Jessica had an attitude and so did the hotel manager. Customer service and friendliness to customers should be the number one priority, and this hotel would be much better if they improved that, but this seems to be a common issue across this chain of hotels.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32580-d78393-r259699806-Extended_Stay_America_Los_Angeles_La_Mirada-La_Mirada_California.html</t>
+  </si>
+  <si>
+    <t>259699806</t>
+  </si>
+  <si>
+    <t>03/15/2015</t>
+  </si>
+  <si>
+    <t>Overall it's ok!</t>
+  </si>
+  <si>
+    <t>The staff- Eli, Jennifer and Maria are kind and ALWAYS made sure that any concerns were handled quickly. The price is right, safety and security were always top notch.  No major problems. Parking good- well lit areas.  Breakfast was simple. Coffee hit the spot. Only amenities were free wifi and laundry room. Area is very industrial. Def need a car. MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Los Angeles - La Mirada, responded to this reviewResponded April 1, 2015</t>
+  </si>
+  <si>
+    <t>Responded April 1, 2015</t>
+  </si>
+  <si>
+    <t>The staff- Eli, Jennifer and Maria are kind and ALWAYS made sure that any concerns were handled quickly. The price is right, safety and security were always top notch.  No major problems. Parking good- well lit areas.  Breakfast was simple. Coffee hit the spot. Only amenities were free wifi and laundry room. Area is very industrial. Def need a car. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32580-d78393-r259182109-Extended_Stay_America_Los_Angeles_La_Mirada-La_Mirada_California.html</t>
+  </si>
+  <si>
+    <t>259182109</t>
+  </si>
+  <si>
+    <t>03/12/2015</t>
+  </si>
+  <si>
+    <t>Love Night Employee, Comfortable Hotel,  but Manager Ruined our Stay</t>
+  </si>
+  <si>
+    <t>I have been debating writing a review for quite some time. On one hand, the rooms are fairly nice &amp; spacious. The housekeeping always did a great job, was very sweet, and I loved that the hotel is so quiet &amp; peaceful. On the other hand, most days if you want a hot bath you need to boil water for it, and other minor frustrations. Not big enough of a deal to switch hotels though! Overall it is a very comfortable place, &amp; we are very satisfied with the hotel itself.
+Regarding the night staff (particularly Eli?), they were fabulous. Eli is very polite, helpful, &amp; friendly. He definitely made our stay more enjoyable. He gets 5 stars from me! I wish every employee we run into on our travels was like him!
+However, the manager was quite the opposite of Eli... While she did try to work with us on some matters, overall she was rather callous &amp; unfriendly. I understand that some of our miscommunications were not ideal, and we appreciate her patience, but she never let us forget it. I tried being flexible &amp; friendly, but she responded with coldness. 
+However, the icing on the cake is when she was rude about my service dog, &amp; flat out told me if we did not allow her to violate my rights as outlined with the ADA, she would not let us stay any longer. 1) Against the ADA's...I have been debating writing a review for quite some time. On one hand, the rooms are fairly nice &amp; spacious. The housekeeping always did a great job, was very sweet, and I loved that the hotel is so quiet &amp; peaceful. On the other hand, most days if you want a hot bath you need to boil water for it, and other minor frustrations. Not big enough of a deal to switch hotels though! Overall it is a very comfortable place, &amp; we are very satisfied with the hotel itself.Regarding the night staff (particularly Eli?), they were fabulous. Eli is very polite, helpful, &amp; friendly. He definitely made our stay more enjoyable. He gets 5 stars from me! I wish every employee we run into on our travels was like him!However, the manager was quite the opposite of Eli... While she did try to work with us on some matters, overall she was rather callous &amp; unfriendly. I understand that some of our miscommunications were not ideal, and we appreciate her patience, but she never let us forget it. I tried being flexible &amp; friendly, but she responded with coldness. However, the icing on the cake is when she was rude about my service dog, &amp; flat out told me if we did not allow her to violate my rights as outlined with the ADA, she would not let us stay any longer. 1) Against the ADA's "guidelines," she demanded proof that he is a service dog--including registration evidence. This included doctor's notes &amp; his registration.  2) She also asked what illness I needed him for. Very humiliating, considering there were other guests present. It is especially upsetting, considering the letters from TWO doctors that she was given as " proof" already discussed my need. She didn't need me to vocalize it as well, but insisted I do so. Not only that, but the ADA has deemed it unacceptable to ask this of a service dog handler. She could have asked what tasks he performs, but she did not. Instead she asked a question which violates my rights.However, I knew if I did not comply to her stipulations she would no longer allow us to stay--&amp; we had no where else to go. So I announced to the room what illnesses I needed my dog for, after already showing her the proof she demanded. Despite my polite agreement to comply with her interrogation, she was still rude. I understand her desire to be thorough, and I felt sympathetic to her frustration that the company we work for did not notify them at booking-- so I complied anyway.I do appreciate her willingness to be flexible on the pet fee, which had not gotten paid at check in. However, I am very sorry to say I would never recommend this particular Extended Stay to a friend, &amp; as our office is equally as upset by the treatment of me and my dog, I do not anticipate additional employees being booking in this particular Extended Stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2015</t>
+  </si>
+  <si>
+    <t>I have been debating writing a review for quite some time. On one hand, the rooms are fairly nice &amp; spacious. The housekeeping always did a great job, was very sweet, and I loved that the hotel is so quiet &amp; peaceful. On the other hand, most days if you want a hot bath you need to boil water for it, and other minor frustrations. Not big enough of a deal to switch hotels though! Overall it is a very comfortable place, &amp; we are very satisfied with the hotel itself.
+Regarding the night staff (particularly Eli?), they were fabulous. Eli is very polite, helpful, &amp; friendly. He definitely made our stay more enjoyable. He gets 5 stars from me! I wish every employee we run into on our travels was like him!
+However, the manager was quite the opposite of Eli... While she did try to work with us on some matters, overall she was rather callous &amp; unfriendly. I understand that some of our miscommunications were not ideal, and we appreciate her patience, but she never let us forget it. I tried being flexible &amp; friendly, but she responded with coldness. 
+However, the icing on the cake is when she was rude about my service dog, &amp; flat out told me if we did not allow her to violate my rights as outlined with the ADA, she would not let us stay any longer. 1) Against the ADA's...I have been debating writing a review for quite some time. On one hand, the rooms are fairly nice &amp; spacious. The housekeeping always did a great job, was very sweet, and I loved that the hotel is so quiet &amp; peaceful. On the other hand, most days if you want a hot bath you need to boil water for it, and other minor frustrations. Not big enough of a deal to switch hotels though! Overall it is a very comfortable place, &amp; we are very satisfied with the hotel itself.Regarding the night staff (particularly Eli?), they were fabulous. Eli is very polite, helpful, &amp; friendly. He definitely made our stay more enjoyable. He gets 5 stars from me! I wish every employee we run into on our travels was like him!However, the manager was quite the opposite of Eli... While she did try to work with us on some matters, overall she was rather callous &amp; unfriendly. I understand that some of our miscommunications were not ideal, and we appreciate her patience, but she never let us forget it. I tried being flexible &amp; friendly, but she responded with coldness. However, the icing on the cake is when she was rude about my service dog, &amp; flat out told me if we did not allow her to violate my rights as outlined with the ADA, she would not let us stay any longer. 1) Against the ADA's "guidelines," she demanded proof that he is a service dog--including registration evidence. This included doctor's notes &amp; his registration.  2) She also asked what illness I needed him for. Very humiliating, considering there were other guests present. It is especially upsetting, considering the letters from TWO doctors that she was given as " proof" already discussed my need. She didn't need me to vocalize it as well, but insisted I do so. Not only that, but the ADA has deemed it unacceptable to ask this of a service dog handler. She could have asked what tasks he performs, but she did not. Instead she asked a question which violates my rights.However, I knew if I did not comply to her stipulations she would no longer allow us to stay--&amp; we had no where else to go. So I announced to the room what illnesses I needed my dog for, after already showing her the proof she demanded. Despite my polite agreement to comply with her interrogation, she was still rude. I understand her desire to be thorough, and I felt sympathetic to her frustration that the company we work for did not notify them at booking-- so I complied anyway.I do appreciate her willingness to be flexible on the pet fee, which had not gotten paid at check in. However, I am very sorry to say I would never recommend this particular Extended Stay to a friend, &amp; as our office is equally as upset by the treatment of me and my dog, I do not anticipate additional employees being booking in this particular Extended Stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32580-d78393-r249040034-Extended_Stay_America_Los_Angeles_La_Mirada-La_Mirada_California.html</t>
+  </si>
+  <si>
+    <t>249040034</t>
+  </si>
+  <si>
+    <t>01/12/2015</t>
+  </si>
+  <si>
+    <t>Wonderful Place to stay as always</t>
+  </si>
+  <si>
+    <t>We stay at Extended Stay all the time, and the La Mirada Hotel very often.  The Staff is excellent, lead by the Manager, who you actually see, unlike most hotels.  The front desk staff, always say hi, and know most guests by name.  From Jen, Jessica, Maria, and Eliu are there to help in any way they can.  Jaime fixes what little think that may need repaired, and Hilda, the house keeper from heaven is amazing, we have cats and they are all children, and she makes sure when see cleans the room the cats are ok.  The best od all the hotel is very reasonable, this is a long term hotel, with a full kitchen.  The only negative is the TV is not the best, needs more channels.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2014</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Los Angeles - La Mirada, responded to this reviewResponded January 23, 2015</t>
+  </si>
+  <si>
+    <t>Responded January 23, 2015</t>
+  </si>
+  <si>
+    <t>We stay at Extended Stay all the time, and the La Mirada Hotel very often.  The Staff is excellent, lead by the Manager, who you actually see, unlike most hotels.  The front desk staff, always say hi, and know most guests by name.  From Jen, Jessica, Maria, and Eliu are there to help in any way they can.  Jaime fixes what little think that may need repaired, and Hilda, the house keeper from heaven is amazing, we have cats and they are all children, and she makes sure when see cleans the room the cats are ok.  The best od all the hotel is very reasonable, this is a long term hotel, with a full kitchen.  The only negative is the TV is not the best, needs more channels.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32580-d78393-r248844146-Extended_Stay_America_Los_Angeles_La_Mirada-La_Mirada_California.html</t>
+  </si>
+  <si>
+    <t>248844146</t>
+  </si>
+  <si>
+    <t>01/11/2015</t>
+  </si>
+  <si>
+    <t>Ext Stay Amer - Clean &amp; Comfortable</t>
+  </si>
+  <si>
+    <t>Great for long stays and short to. clean , comfortable, large rooms, kitchens &amp; plenty of room for family or work , right off I-5 , a home away from home. staff is helpful and friendly Good Value for the $MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2014</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Los Angeles - La Mirada, responded to this reviewResponded January 20, 2015</t>
+  </si>
+  <si>
+    <t>Responded January 20, 2015</t>
+  </si>
+  <si>
+    <t>Great for long stays and short to. clean , comfortable, large rooms, kitchens &amp; plenty of room for family or work , right off I-5 , a home away from home. staff is helpful and friendly Good Value for the $More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32580-d78393-r236641382-Extended_Stay_America_Los_Angeles_La_Mirada-La_Mirada_California.html</t>
+  </si>
+  <si>
+    <t>236641382</t>
+  </si>
+  <si>
+    <t>10/27/2014</t>
+  </si>
+  <si>
+    <t>clean and comfortable</t>
+  </si>
+  <si>
+    <t>This hotel was clean and comfortable, easy to find, centrally located. The room was clean, quiet and comfortable. The only downside was you must ask for any room amenities during check in (hair dryer, coffee maker, plates, silverware, cups, etc). Since we were not told on the website nor at check in, we didn't know and didn't bother to do so after getting settled in room. We would recommend this hotel and would stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2014</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Los Angeles - La Mirada, responded to this reviewResponded October 31, 2014</t>
+  </si>
+  <si>
+    <t>Responded October 31, 2014</t>
+  </si>
+  <si>
+    <t>This hotel was clean and comfortable, easy to find, centrally located. The room was clean, quiet and comfortable. The only downside was you must ask for any room amenities during check in (hair dryer, coffee maker, plates, silverware, cups, etc). Since we were not told on the website nor at check in, we didn't know and didn't bother to do so after getting settled in room. We would recommend this hotel and would stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32580-d78393-r227814854-Extended_Stay_America_Los_Angeles_La_Mirada-La_Mirada_California.html</t>
+  </si>
+  <si>
+    <t>227814854</t>
+  </si>
+  <si>
+    <t>09/08/2014</t>
+  </si>
+  <si>
+    <t>"Peaceful and wonderful stay."</t>
+  </si>
+  <si>
+    <t>I've been staying here off and on, the manager Katharina is very nice and professional, the staff is very nice and attentive to your needs. I had no complaints about anything, it's very reasonable and peaceful if you need a place to stay for a few days.MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Los Angeles - La Mirada, responded to this reviewResponded September 17, 2014</t>
+  </si>
+  <si>
+    <t>Responded September 17, 2014</t>
+  </si>
+  <si>
+    <t>I've been staying here off and on, the manager Katharina is very nice and professional, the staff is very nice and attentive to your needs. I had no complaints about anything, it's very reasonable and peaceful if you need a place to stay for a few days.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32580-d78393-r221230972-Extended_Stay_America_Los_Angeles_La_Mirada-La_Mirada_California.html</t>
+  </si>
+  <si>
+    <t>221230972</t>
+  </si>
+  <si>
+    <t>08/11/2014</t>
+  </si>
+  <si>
+    <t>Will do in a pinch, but will not be a first choice in the future</t>
+  </si>
+  <si>
+    <t>I stayed here for 3 nights at the beginning of August, to attend the Hard Summer music festival nearby in South El Monte. It was a challenge finding a new hotel as the one we'd stayed at in previous years for this event was charging almost double per night what we had been paying. We chose this hotel since some friends were staying at the Residence Inn down the road but with no one joining the two of us, this was much more affordable.
+Check in was slow but it wasn't a big deal. There was one person at the desk and while he was chatty and very courteous, it was a little frustrating that he didn't pick up his pace at all with 4 different parties waiting in line. He did offer us toiletries before we went up to our room, since they are not included in the housekeeping automatically.
+Getting to our room, it had a weird smell. It was like someone had eaten Mexican food, like tacos, in the room earlier. We opened a window and the smell was aired out within a half hour at most. The room was really clean and the bathroom was spotless. We had plenty of towels and the water pressure and water temperature were really great. Sometimes hotel showers are really weak but this one was great for washing hair.
+The first night at the hotel went fine. Any noises we...I stayed here for 3 nights at the beginning of August, to attend the Hard Summer music festival nearby in South El Monte. It was a challenge finding a new hotel as the one we'd stayed at in previous years for this event was charging almost double per night what we had been paying. We chose this hotel since some friends were staying at the Residence Inn down the road but with no one joining the two of us, this was much more affordable.Check in was slow but it wasn't a big deal. There was one person at the desk and while he was chatty and very courteous, it was a little frustrating that he didn't pick up his pace at all with 4 different parties waiting in line. He did offer us toiletries before we went up to our room, since they are not included in the housekeeping automatically.Getting to our room, it had a weird smell. It was like someone had eaten Mexican food, like tacos, in the room earlier. We opened a window and the smell was aired out within a half hour at most. The room was really clean and the bathroom was spotless. We had plenty of towels and the water pressure and water temperature were really great. Sometimes hotel showers are really weak but this one was great for washing hair.The first night at the hotel went fine. Any noises we could hear in the hallway walking to our room (like a baby crying), we couldn't hear from inside our room at all. The Showtime schedule was for the previous month - not a big deal since we checked in August 1, but it would have been nice to know what was on.When we woke up Saturday, we asked for some dishes and utensils as well as a coffee maker. They usually deliver them to the room but the front desk attendant was busy, so we retrieved the plastic bin of stuff ourselves. Our only complaints were no napkins or paper towels were included, and they gave us a coffeemaker but no coffee!!The second night at the hotel was what brought this stay down to 3 stars. We got back from the event, tired, dirty, and wet from the rain. Trying to relax and get some rest before the next day wasn't so easy with a fire alarm going off frequently. The alarm in our room only went off a few times, but every 10-15 seconds, I could hear a lone alarm going off from down the hall. This lasted maybe 20 minutes before a fire truck arrived to investigate. This hotel has no staff present from 11pm-7am, so I don't know if anyone even explained to the firefighters that it was a false alarm. Eventually the alarm stopped going off and the fire truck left. By then I think it was 2 or 3 in the morning.Sunday night was a lot better and check out was a breeze. I called at 10am to ask if we could extend our check-out to noon and got a yes very easily. We even got out a little later, around 12:20 but it was fine.There isn't much right near the hotel, like in walking distance, but a short 10 minute drive will take you to Target and tons of restaurants from sit-down to fast food. The hotel is really close to the 5 freeway which was very convenient. Golf 'n' Stuff is a mini golf and activities place a few miles up the freeway. We love mini golf so we had to stop there and it was great. If you have kids, they would love this place.Also, the wifi is free but pretty slow. You can pay to upgrade your speed, so I assume people there on business or for longer than a few nights would do that. I wasn't willing to pay so I suffered slow internet.MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Los Angeles - La Mirada, responded to this reviewResponded August 15, 2014</t>
+  </si>
+  <si>
+    <t>Responded August 15, 2014</t>
+  </si>
+  <si>
+    <t>I stayed here for 3 nights at the beginning of August, to attend the Hard Summer music festival nearby in South El Monte. It was a challenge finding a new hotel as the one we'd stayed at in previous years for this event was charging almost double per night what we had been paying. We chose this hotel since some friends were staying at the Residence Inn down the road but with no one joining the two of us, this was much more affordable.
+Check in was slow but it wasn't a big deal. There was one person at the desk and while he was chatty and very courteous, it was a little frustrating that he didn't pick up his pace at all with 4 different parties waiting in line. He did offer us toiletries before we went up to our room, since they are not included in the housekeeping automatically.
+Getting to our room, it had a weird smell. It was like someone had eaten Mexican food, like tacos, in the room earlier. We opened a window and the smell was aired out within a half hour at most. The room was really clean and the bathroom was spotless. We had plenty of towels and the water pressure and water temperature were really great. Sometimes hotel showers are really weak but this one was great for washing hair.
+The first night at the hotel went fine. Any noises we...I stayed here for 3 nights at the beginning of August, to attend the Hard Summer music festival nearby in South El Monte. It was a challenge finding a new hotel as the one we'd stayed at in previous years for this event was charging almost double per night what we had been paying. We chose this hotel since some friends were staying at the Residence Inn down the road but with no one joining the two of us, this was much more affordable.Check in was slow but it wasn't a big deal. There was one person at the desk and while he was chatty and very courteous, it was a little frustrating that he didn't pick up his pace at all with 4 different parties waiting in line. He did offer us toiletries before we went up to our room, since they are not included in the housekeeping automatically.Getting to our room, it had a weird smell. It was like someone had eaten Mexican food, like tacos, in the room earlier. We opened a window and the smell was aired out within a half hour at most. The room was really clean and the bathroom was spotless. We had plenty of towels and the water pressure and water temperature were really great. Sometimes hotel showers are really weak but this one was great for washing hair.The first night at the hotel went fine. Any noises we could hear in the hallway walking to our room (like a baby crying), we couldn't hear from inside our room at all. The Showtime schedule was for the previous month - not a big deal since we checked in August 1, but it would have been nice to know what was on.When we woke up Saturday, we asked for some dishes and utensils as well as a coffee maker. They usually deliver them to the room but the front desk attendant was busy, so we retrieved the plastic bin of stuff ourselves. Our only complaints were no napkins or paper towels were included, and they gave us a coffeemaker but no coffee!!The second night at the hotel was what brought this stay down to 3 stars. We got back from the event, tired, dirty, and wet from the rain. Trying to relax and get some rest before the next day wasn't so easy with a fire alarm going off frequently. The alarm in our room only went off a few times, but every 10-15 seconds, I could hear a lone alarm going off from down the hall. This lasted maybe 20 minutes before a fire truck arrived to investigate. This hotel has no staff present from 11pm-7am, so I don't know if anyone even explained to the firefighters that it was a false alarm. Eventually the alarm stopped going off and the fire truck left. By then I think it was 2 or 3 in the morning.Sunday night was a lot better and check out was a breeze. I called at 10am to ask if we could extend our check-out to noon and got a yes very easily. We even got out a little later, around 12:20 but it was fine.There isn't much right near the hotel, like in walking distance, but a short 10 minute drive will take you to Target and tons of restaurants from sit-down to fast food. The hotel is really close to the 5 freeway which was very convenient. Golf 'n' Stuff is a mini golf and activities place a few miles up the freeway. We love mini golf so we had to stop there and it was great. If you have kids, they would love this place.Also, the wifi is free but pretty slow. You can pay to upgrade your speed, so I assume people there on business or for longer than a few nights would do that. I wasn't willing to pay so I suffered slow internet.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32580-d78393-r220305907-Extended_Stay_America_Los_Angeles_La_Mirada-La_Mirada_California.html</t>
+  </si>
+  <si>
+    <t>220305907</t>
+  </si>
+  <si>
+    <t>08/07/2014</t>
+  </si>
+  <si>
+    <t>Best Long term stay Hotel EVER !!</t>
+  </si>
+  <si>
+    <t>This hotel is the best long term stay hotel I have ever been in ! From the front desk clerks  which are always friendly ,polite and ready to assist you , to the maintence and housekeeping  which are the nicest people also to the Manager , these people are ready and willing to go above and beyond  the norm to be helpful. Even the security guard is  great , always patrolling the area late at night . This is the second time here for my family and if ever we come back for a long time , (9 months the first time , almost a year now )  this will definitely be our choice !MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2014</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Los Angeles - La Mirada, responded to this reviewResponded August 13, 2014</t>
+  </si>
+  <si>
+    <t>Responded August 13, 2014</t>
+  </si>
+  <si>
+    <t>This hotel is the best long term stay hotel I have ever been in ! From the front desk clerks  which are always friendly ,polite and ready to assist you , to the maintence and housekeeping  which are the nicest people also to the Manager , these people are ready and willing to go above and beyond  the norm to be helpful. Even the security guard is  great , always patrolling the area late at night . This is the second time here for my family and if ever we come back for a long time , (9 months the first time , almost a year now )  this will definitely be our choice !More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32580-d78393-r218076427-Extended_Stay_America_Los_Angeles_La_Mirada-La_Mirada_California.html</t>
+  </si>
+  <si>
+    <t>218076427</t>
+  </si>
+  <si>
+    <t>07/28/2014</t>
+  </si>
+  <si>
+    <t>All Went Well For A Not So Extended Stay</t>
+  </si>
+  <si>
+    <t>My girl friend and I were totally happy with our two night stay at ESA La Mirada. We stayed here in 2010 , and they have upgraded the rooms very well. The only down side was the sort foot steps you could hear thru your ceiling, and the a/c would occasionally make some quite rattle. Neither interrupted my sleep. I wish they had a swimming pool or a spa, but even with no pool, I will stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Los Angeles - La Mirada, responded to this reviewResponded July 31, 2014</t>
+  </si>
+  <si>
+    <t>Responded July 31, 2014</t>
+  </si>
+  <si>
+    <t>My girl friend and I were totally happy with our two night stay at ESA La Mirada. We stayed here in 2010 , and they have upgraded the rooms very well. The only down side was the sort foot steps you could hear thru your ceiling, and the a/c would occasionally make some quite rattle. Neither interrupted my sleep. I wish they had a swimming pool or a spa, but even with no pool, I will stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32580-d78393-r207581074-Extended_Stay_America_Los_Angeles_La_Mirada-La_Mirada_California.html</t>
+  </si>
+  <si>
+    <t>207581074</t>
+  </si>
+  <si>
+    <t>05/28/2014</t>
+  </si>
+  <si>
+    <t>For the price it was great!</t>
+  </si>
+  <si>
+    <t>There isn't a whole lot to choose from around here but this was a nice room at a great price and I like that it's located away from the other hotels and resturants down the street where there is a lot more activity which usually means noise.  The room was clean, the staff was pleasent and as far as noise there wasn't any so that's a big + in my book.MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Los Angeles - La Mirada, responded to this reviewResponded June 12, 2014</t>
+  </si>
+  <si>
+    <t>Responded June 12, 2014</t>
+  </si>
+  <si>
+    <t>There isn't a whole lot to choose from around here but this was a nice room at a great price and I like that it's located away from the other hotels and resturants down the street where there is a lot more activity which usually means noise.  The room was clean, the staff was pleasent and as far as noise there wasn't any so that's a big + in my book.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32580-d78393-r203589055-Extended_Stay_America_Los_Angeles_La_Mirada-La_Mirada_California.html</t>
+  </si>
+  <si>
+    <t>203589055</t>
+  </si>
+  <si>
+    <t>05/01/2014</t>
+  </si>
+  <si>
+    <t>Bare basics. Excellent staff.</t>
+  </si>
+  <si>
+    <t>The hotel was newly renovated with very basic materials. It is nothing fancy, for sure. The location is typical for other hotels in the La Mirada area, though this hotel seemed quieter than others in the area (Fairfield Inn and Suites- Buena Park, for instance). Hotel staff were exceptional and compensated somewhat for this minimalist hotel. The bed was very comfortable and the kitchen had all the essentials. Essentially, you get what you pay for.MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, Manager at Extended Stay America - Los Angeles - La Mirada, responded to this reviewResponded May 6, 2014</t>
+  </si>
+  <si>
+    <t>Responded May 6, 2014</t>
+  </si>
+  <si>
+    <t>The hotel was newly renovated with very basic materials. It is nothing fancy, for sure. The location is typical for other hotels in the La Mirada area, though this hotel seemed quieter than others in the area (Fairfield Inn and Suites- Buena Park, for instance). Hotel staff were exceptional and compensated somewhat for this minimalist hotel. The bed was very comfortable and the kitchen had all the essentials. Essentially, you get what you pay for.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32580-d78393-r194797646-Extended_Stay_America_Los_Angeles_La_Mirada-La_Mirada_California.html</t>
+  </si>
+  <si>
+    <t>194797646</t>
+  </si>
+  <si>
+    <t>02/20/2014</t>
+  </si>
+  <si>
+    <t>A Moderate 3 star Hotel</t>
+  </si>
+  <si>
+    <t>Its a moderate hotel. Not close to the reviews and ratings available. Its located in a commercial neighborhood. However the rooms are well equipped and well furnished. Room cleaning is done weakly. They only provide a poor quality soap. there is no shampoo etc..They only have cereal in breakfast &amp; no breakfast area. Its as good as having no breakfast. I wouldn't stay here again though the rooms are fairly good.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2014</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Los Angeles - La Mirada, responded to this reviewResponded February 24, 2014</t>
+  </si>
+  <si>
+    <t>Responded February 24, 2014</t>
+  </si>
+  <si>
+    <t>Its a moderate hotel. Not close to the reviews and ratings available. Its located in a commercial neighborhood. However the rooms are well equipped and well furnished. Room cleaning is done weakly. They only provide a poor quality soap. there is no shampoo etc..They only have cereal in breakfast &amp; no breakfast area. Its as good as having no breakfast. I wouldn't stay here again though the rooms are fairly good.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32580-d78393-r193664110-Extended_Stay_America_Los_Angeles_La_Mirada-La_Mirada_California.html</t>
+  </si>
+  <si>
+    <t>193664110</t>
+  </si>
+  <si>
+    <t>02/10/2014</t>
+  </si>
+  <si>
+    <t>Accomplished the goal.</t>
+  </si>
+  <si>
+    <t>We did not spend much time other than sleeping in this hotel (visiting just for the weekend), but overall our stay was excellent.  The room appeared recently renovated and very pleasantly decorated.  Clean. Staff was very friendly! A few forgotten items were available no charge.  There are no hair dryers in the room, but the front desk cheerily provided one that we could keep throughout our stay.  The grab and go breakfast completely fit our needs in the morning.  Beds are pretty firm.  Would definitely stay here again!MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Los Angeles - La Mirada, responded to this reviewResponded February 17, 2014</t>
+  </si>
+  <si>
+    <t>Responded February 17, 2014</t>
+  </si>
+  <si>
+    <t>We did not spend much time other than sleeping in this hotel (visiting just for the weekend), but overall our stay was excellent.  The room appeared recently renovated and very pleasantly decorated.  Clean. Staff was very friendly! A few forgotten items were available no charge.  There are no hair dryers in the room, but the front desk cheerily provided one that we could keep throughout our stay.  The grab and go breakfast completely fit our needs in the morning.  Beds are pretty firm.  Would definitely stay here again!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32580-d78393-r192183869-Extended_Stay_America_Los_Angeles_La_Mirada-La_Mirada_California.html</t>
+  </si>
+  <si>
+    <t>192183869</t>
+  </si>
+  <si>
+    <t>01/26/2014</t>
+  </si>
+  <si>
+    <t>Amazing staff!! Always make you feel welcome!!</t>
+  </si>
+  <si>
+    <t>Great staff, rooms are clean, current and feels more like an apartment than a hotel!! Great job on the new upgrades!!  Eliu like the rest of the staff are ROCKSTARS always positive &amp; friendly!! Keep up the great job!! MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Los Angeles - La Mirada, responded to this reviewResponded January 28, 2014</t>
+  </si>
+  <si>
+    <t>Responded January 28, 2014</t>
+  </si>
+  <si>
+    <t>Great staff, rooms are clean, current and feels more like an apartment than a hotel!! Great job on the new upgrades!!  Eliu like the rest of the staff are ROCKSTARS always positive &amp; friendly!! Keep up the great job!! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32580-d78393-r183882350-Extended_Stay_America_Los_Angeles_La_Mirada-La_Mirada_California.html</t>
+  </si>
+  <si>
+    <t>183882350</t>
+  </si>
+  <si>
+    <t>11/07/2013</t>
+  </si>
+  <si>
+    <t>OK stay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Room itself was alright. However, they don't provide shampoo nor hairdryer. We called the front desk. They told us to come down and get them. What a service. They didn't even have conditioner. Even though the price was reasonable, we would not return there. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32580-d78393-r181184831-Extended_Stay_America_Los_Angeles_La_Mirada-La_Mirada_California.html</t>
+  </si>
+  <si>
+    <t>181184831</t>
+  </si>
+  <si>
+    <t>10/15/2013</t>
+  </si>
+  <si>
+    <t>Better than expected</t>
+  </si>
+  <si>
+    <t>Booked last minute, when I was just too tired to keep driving, and was pleasantly surprised.  Super-friendly staff (both when I checked in and the next morning), decent and clean (if not super cosy) room, good wifi, and nice, hot shower.  If I had any reason to stay in La Mirada another night, I'd have definitely re-booked.Only negatives were the smoking room (they were out of non-smoking rooms, and apparently the site I booked it through didn't give me the option to choose), which was kinda gross, just because, y'know: ew (no more than a normal smoking room, but it you're a non-smoker, you know what I mean), and the "grab and go" breakfast, which is really just that.  Pretty meager offering as breakfasts go, but, I guess since the hotel is designed for you to bring your own food and cook, it's basically a little bonus, so I can't really complain.  Cup of coffee and a granola bar was fine. :)MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2013</t>
+  </si>
+  <si>
+    <t>Booked last minute, when I was just too tired to keep driving, and was pleasantly surprised.  Super-friendly staff (both when I checked in and the next morning), decent and clean (if not super cosy) room, good wifi, and nice, hot shower.  If I had any reason to stay in La Mirada another night, I'd have definitely re-booked.Only negatives were the smoking room (they were out of non-smoking rooms, and apparently the site I booked it through didn't give me the option to choose), which was kinda gross, just because, y'know: ew (no more than a normal smoking room, but it you're a non-smoker, you know what I mean), and the "grab and go" breakfast, which is really just that.  Pretty meager offering as breakfasts go, but, I guess since the hotel is designed for you to bring your own food and cook, it's basically a little bonus, so I can't really complain.  Cup of coffee and a granola bar was fine. :)More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32580-d78393-r181017080-Extended_Stay_America_Los_Angeles_La_Mirada-La_Mirada_California.html</t>
+  </si>
+  <si>
+    <t>181017080</t>
+  </si>
+  <si>
+    <t>10/14/2013</t>
+  </si>
+  <si>
+    <t>Great Place to Stay, with Amazing Staff</t>
+  </si>
+  <si>
+    <t>Stayed at Extended Stay America for several months and the place is clean, the staff is amazing.  From Katarina as the Manager, who is always available to help or just to talk to.  Jen, Daniella, and  Eliu at the front desk, always with a smile and always say hello by name, that unheard of these days.  I would recommend this Hotel for a long stay and over night.  The kitchen is so cool, you can fix your own dinner after a long day, and save money.Please check this hotel and save money.</t>
+  </si>
+  <si>
+    <t>September 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32580-d78393-r176788263-Extended_Stay_America_Los_Angeles_La_Mirada-La_Mirada_California.html</t>
+  </si>
+  <si>
+    <t>176788263</t>
+  </si>
+  <si>
+    <t>09/11/2013</t>
+  </si>
+  <si>
+    <t>Great hotel, amazing staff!!</t>
+  </si>
+  <si>
+    <t>Katharina Miller is the manager and she is great at what she does. Very helpful, runs an amazing hotel and surrounds herself with a great staff. Jen and Daniella are endlessly helpful in every way possible. Always willing to answer any question you may have and if they don't have the answer off the top of their heads they go above and beyond to find the answer. They are always asking how your day is going or if you need anything. Both Jen and Daniella even congratulated my husband on finding a new job. You won't find that kind of personal interest at most hotels. Eliu is very willing to help. He always has kind words for all guests. The hotel is exceptional. Always clean and if you have to report that something is broke, it is fixed in a timely fashion. There is never a need to report it a second time. Because of the friendliness and urge to help of Katharina, Jen, Daniella and Eliu...staying here is the closest thing you will get these days to a "Mayberry" like atmosphere. MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Los Angeles - La Mirada, responded to this reviewResponded September 13, 2013</t>
+  </si>
+  <si>
+    <t>Responded September 13, 2013</t>
+  </si>
+  <si>
+    <t>Katharina Miller is the manager and she is great at what she does. Very helpful, runs an amazing hotel and surrounds herself with a great staff. Jen and Daniella are endlessly helpful in every way possible. Always willing to answer any question you may have and if they don't have the answer off the top of their heads they go above and beyond to find the answer. They are always asking how your day is going or if you need anything. Both Jen and Daniella even congratulated my husband on finding a new job. You won't find that kind of personal interest at most hotels. Eliu is very willing to help. He always has kind words for all guests. The hotel is exceptional. Always clean and if you have to report that something is broke, it is fixed in a timely fashion. There is never a need to report it a second time. Because of the friendliness and urge to help of Katharina, Jen, Daniella and Eliu...staying here is the closest thing you will get these days to a "Mayberry" like atmosphere. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32580-d78393-r175762798-Extended_Stay_America_Los_Angeles_La_Mirada-La_Mirada_California.html</t>
+  </si>
+  <si>
+    <t>175762798</t>
+  </si>
+  <si>
+    <t>09/04/2013</t>
+  </si>
+  <si>
+    <t>Only a place to sleep not to be there during the day</t>
+  </si>
+  <si>
+    <t>We stayed there with my husband and two babies during our visit to Disney land. As soon as we arrived our key didn't work so we had to go replace it , no problem no big deal we are pretty reasonable people. So the room smelled slightly like cigarettes but I had an air freshener with so just sprayed the whole place. The next morning we headed to the theme park and returned until midnight to our surprise our key didn't work. This time we got upset bcuz we each were holding a kid in our arms plus other bags and we had to go back down to the lobby for a new key. We checked out the next morning but unfortunately before leaving we spotted a huge cockroach by the bed. Ugh! For us that was the first and last time at this place. The beds are okay, and we needed more towels. They only had 1. Besides that the hotel is so close to the freeway if you are planning to travel.  MoreShow less</t>
+  </si>
+  <si>
+    <t>We stayed there with my husband and two babies during our visit to Disney land. As soon as we arrived our key didn't work so we had to go replace it , no problem no big deal we are pretty reasonable people. So the room smelled slightly like cigarettes but I had an air freshener with so just sprayed the whole place. The next morning we headed to the theme park and returned until midnight to our surprise our key didn't work. This time we got upset bcuz we each were holding a kid in our arms plus other bags and we had to go back down to the lobby for a new key. We checked out the next morning but unfortunately before leaving we spotted a huge cockroach by the bed. Ugh! For us that was the first and last time at this place. The beds are okay, and we needed more towels. They only had 1. Besides that the hotel is so close to the freeway if you are planning to travel.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32580-d78393-r175625741-Extended_Stay_America_Los_Angeles_La_Mirada-La_Mirada_California.html</t>
+  </si>
+  <si>
+    <t>175625741</t>
+  </si>
+  <si>
+    <t>09/03/2013</t>
+  </si>
+  <si>
+    <t>Great stay only 8 miles from Disneyland</t>
+  </si>
+  <si>
+    <t>Friendly staff, comfy beds and clean room. The only con was a conflict between the online registration and the actual availability, but it was not a big deal. My husband found a 20% off discount online as well.MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Los Angeles - La Mirada, responded to this reviewResponded September 6, 2013</t>
+  </si>
+  <si>
+    <t>Responded September 6, 2013</t>
+  </si>
+  <si>
+    <t>Friendly staff, comfy beds and clean room. The only con was a conflict between the online registration and the actual availability, but it was not a big deal. My husband found a 20% off discount online as well.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32580-d78393-r171274044-Extended_Stay_America_Los_Angeles_La_Mirada-La_Mirada_California.html</t>
+  </si>
+  <si>
+    <t>171274044</t>
+  </si>
+  <si>
+    <t>08/07/2013</t>
+  </si>
+  <si>
+    <t>Dirty rooms,  rude  clerks,  no  clean  towels.</t>
+  </si>
+  <si>
+    <t>Mold  in  the  shower,  brochures  and  water  bottles  left  from  prior  guests,  went 3  days  without  clean  towels  because  the  ran  out.  And  the  area  is  very  industrial  with  no  restaurants  or stores  nearby.  Horrible  experience  overall.MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, Manager at Extended Stay America - Los Angeles - La Mirada, responded to this reviewResponded August 29, 2013</t>
+  </si>
+  <si>
+    <t>Responded August 29, 2013</t>
+  </si>
+  <si>
+    <t>Mold  in  the  shower,  brochures  and  water  bottles  left  from  prior  guests,  went 3  days  without  clean  towels  because  the  ran  out.  And  the  area  is  very  industrial  with  no  restaurants  or stores  nearby.  Horrible  experience  overall.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32580-d78393-r167239434-Extended_Stay_America_Los_Angeles_La_Mirada-La_Mirada_California.html</t>
+  </si>
+  <si>
+    <t>167239434</t>
+  </si>
+  <si>
+    <t>07/11/2013</t>
+  </si>
+  <si>
+    <t>Wonderful experience!</t>
+  </si>
+  <si>
+    <t>My family and I had a wonderful experience! Pleasant staff, large room, comfortable bed and pillows, grab and go breakfast was VERY fresh!We were astonished to see it had a full kitchen with a stove, oven, full refrigerator, microwave, and dishes and utensils. :-) very nice indeed!MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Los Angeles - La Mirada, responded to this reviewResponded July 19, 2013</t>
+  </si>
+  <si>
+    <t>Responded July 19, 2013</t>
+  </si>
+  <si>
+    <t>My family and I had a wonderful experience! Pleasant staff, large room, comfortable bed and pillows, grab and go breakfast was VERY fresh!We were astonished to see it had a full kitchen with a stove, oven, full refrigerator, microwave, and dishes and utensils. :-) very nice indeed!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32580-d78393-r165468775-Extended_Stay_America_Los_Angeles_La_Mirada-La_Mirada_California.html</t>
+  </si>
+  <si>
+    <t>165468775</t>
+  </si>
+  <si>
+    <t>06/27/2013</t>
+  </si>
+  <si>
+    <t>daniella</t>
+  </si>
+  <si>
+    <t>my review is simple. extended stay lamirada has always been one of my favorite places to stay when needed. clean,close to family. Daniella, who works the front office really and i mean really saved the day for us when another employee got my reservation mixed up and my roon got sold. Daniell saw how upset and stressed i was about this and she went out of her way to get us a room. she was friendly, professional, sweet,. kind and most of all very caring and seemed very concerned about the mix up with the other employee. Extended stay lamirada really needs to make Daniella an example how of all extended stay of america employees should behave and conduct themselves at at work. after all you do spend a pretty penny to stay at extended stay ,which is worth it, and the last thing you need is to be greeted by someone who is loud, unprofessinal, and just messing around at the desk. DANIELLA THANK YOU AGAIN FOR YOUR KINDNESS. YOUR ARE GREAT AND THE NEXT TIME I STAY THERE I HOPE TO SEE YOU......KEEP UP THE GOOD WORK!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2013</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Los Angeles - La Mirada, responded to this reviewResponded July 8, 2013</t>
+  </si>
+  <si>
+    <t>Responded July 8, 2013</t>
+  </si>
+  <si>
+    <t>my review is simple. extended stay lamirada has always been one of my favorite places to stay when needed. clean,close to family. Daniella, who works the front office really and i mean really saved the day for us when another employee got my reservation mixed up and my roon got sold. Daniell saw how upset and stressed i was about this and she went out of her way to get us a room. she was friendly, professional, sweet,. kind and most of all very caring and seemed very concerned about the mix up with the other employee. Extended stay lamirada really needs to make Daniella an example how of all extended stay of america employees should behave and conduct themselves at at work. after all you do spend a pretty penny to stay at extended stay ,which is worth it, and the last thing you need is to be greeted by someone who is loud, unprofessinal, and just messing around at the desk. DANIELLA THANK YOU AGAIN FOR YOUR KINDNESS. YOUR ARE GREAT AND THE NEXT TIME I STAY THERE I HOPE TO SEE YOU......KEEP UP THE GOOD WORK!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32580-d78393-r161660583-Extended_Stay_America_Los_Angeles_La_Mirada-La_Mirada_California.html</t>
+  </si>
+  <si>
+    <t>161660583</t>
+  </si>
+  <si>
+    <t>05/23/2013</t>
+  </si>
+  <si>
+    <t>A Great Value</t>
+  </si>
+  <si>
+    <t>We stayed at this hotel during our visit to La Mirada to attend my nephew's graduation from Talbot Seminary.  I was extremely pleased with the hotel.  There was adequate parking close to entrances.  Our room had a complete kitchen with microwave, stove and frig.  Everything in the room was clean and well maintained.  The staff were extremely friendly and helpful.  I would stay there again.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2013</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Los Angeles - La Mirada, responded to this reviewResponded June 6, 2013</t>
+  </si>
+  <si>
+    <t>Responded June 6, 2013</t>
+  </si>
+  <si>
+    <t>We stayed at this hotel during our visit to La Mirada to attend my nephew's graduation from Talbot Seminary.  I was extremely pleased with the hotel.  There was adequate parking close to entrances.  Our room had a complete kitchen with microwave, stove and frig.  Everything in the room was clean and well maintained.  The staff were extremely friendly and helpful.  I would stay there again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32580-d78393-r161653991-Extended_Stay_America_Los_Angeles_La_Mirada-La_Mirada_California.html</t>
+  </si>
+  <si>
+    <t>161653991</t>
+  </si>
+  <si>
+    <t>Big bang for your buck</t>
+  </si>
+  <si>
+    <t>Would like to let everyone know that if you need a great place to stay at a very reasonable price, this is your place.  If it is overnight or a long term situation this is your place.  Great kitchen, with 2 burner stove, ref, coffee pot, toaster, dishes.  We stayed here long term and found that the stay is amazing.  The manager katharina is very helpful and goes out of her way to help anyway she can.  Jennifer, Eliu, Nena, and the new addition  Daniela are all very helpful.  We deal with Jen almost everyday and she is great and as gone above and beyond to make sure that we have everything we need.  The rare occasion that you need maintenance Jaime is all over it, fixing whatever you need to have repaired.  Your weekly room service is always great with Hilda doing all she can to keep thing neat and clean.We have stayed here on and off for right at a year now and it as really been like home for us.MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, Owner at Extended Stay America - Los Angeles - La Mirada, responded to this reviewResponded June 6, 2013</t>
+  </si>
+  <si>
+    <t>Would like to let everyone know that if you need a great place to stay at a very reasonable price, this is your place.  If it is overnight or a long term situation this is your place.  Great kitchen, with 2 burner stove, ref, coffee pot, toaster, dishes.  We stayed here long term and found that the stay is amazing.  The manager katharina is very helpful and goes out of her way to help anyway she can.  Jennifer, Eliu, Nena, and the new addition  Daniela are all very helpful.  We deal with Jen almost everyday and she is great and as gone above and beyond to make sure that we have everything we need.  The rare occasion that you need maintenance Jaime is all over it, fixing whatever you need to have repaired.  Your weekly room service is always great with Hilda doing all she can to keep thing neat and clean.We have stayed here on and off for right at a year now and it as really been like home for us.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32580-d78393-r161546168-Extended_Stay_America_Los_Angeles_La_Mirada-La_Mirada_California.html</t>
+  </si>
+  <si>
+    <t>161546168</t>
+  </si>
+  <si>
+    <t>05/22/2013</t>
+  </si>
+  <si>
+    <t>Customer Care</t>
+  </si>
+  <si>
+    <t>I'm a business traveler; often with stays lasting several weeks.  Knowing my tenure, places to eat and other services were quickly pointed out.  The facility had a conveniently located washer and dryer area and the early morning coffee and snacks were appreciated.  However, above all, the employees quickly knew my name and addressed me as such with every encounter.  That bit of "customer service" took the edge off of being away from home.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2013</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Los Angeles - La Mirada, responded to this reviewResponded May 30, 2013</t>
+  </si>
+  <si>
+    <t>Responded May 30, 2013</t>
+  </si>
+  <si>
+    <t>I'm a business traveler; often with stays lasting several weeks.  Knowing my tenure, places to eat and other services were quickly pointed out.  The facility had a conveniently located washer and dryer area and the early morning coffee and snacks were appreciated.  However, above all, the employees quickly knew my name and addressed me as such with every encounter.  That bit of "customer service" took the edge off of being away from home.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32580-d78393-r160367745-Extended_Stay_America_Los_Angeles_La_Mirada-La_Mirada_California.html</t>
+  </si>
+  <si>
+    <t>160367745</t>
+  </si>
+  <si>
+    <t>05/11/2013</t>
+  </si>
+  <si>
+    <t>Not Homey</t>
+  </si>
+  <si>
+    <t>We stayed here while checking out a nearby university for our youngest child.  It is adequate, but it is not cozy or homey.  It definitely seems designed for minimal services; it's more do-it-yourself.  Of course, that's the point of an "extended-stay" inn, I guess, but it was less than charming.  Also, our room smelled stale in some way.  The complimentary breakfast really amounted to next to nothing.  We've decided to not use this location again.  However, I must say that the staff we met here were kind, extremely helpful, polite, and very nice!MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2012</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Los Angeles - La Mirada, responded to this reviewResponded May 14, 2013</t>
+  </si>
+  <si>
+    <t>Responded May 14, 2013</t>
+  </si>
+  <si>
+    <t>We stayed here while checking out a nearby university for our youngest child.  It is adequate, but it is not cozy or homey.  It definitely seems designed for minimal services; it's more do-it-yourself.  Of course, that's the point of an "extended-stay" inn, I guess, but it was less than charming.  Also, our room smelled stale in some way.  The complimentary breakfast really amounted to next to nothing.  We've decided to not use this location again.  However, I must say that the staff we met here were kind, extremely helpful, polite, and very nice!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32580-d78393-r158720040-Extended_Stay_America_Los_Angeles_La_Mirada-La_Mirada_California.html</t>
+  </si>
+  <si>
+    <t>158720040</t>
+  </si>
+  <si>
+    <t>04/24/2013</t>
+  </si>
+  <si>
+    <t>Long term stay</t>
+  </si>
+  <si>
+    <t>Staff is very friendly and helpful. Eliu,Jen and Nina they go the extra mile to make your stay enjoyable .cant beat the price plenty of restaurants in the area,  I would stay here again when I'm back on the westMoreShow less</t>
+  </si>
+  <si>
+    <t>September 2012</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Los Angeles - La Mirada, responded to this reviewResponded April 29, 2013</t>
+  </si>
+  <si>
+    <t>Responded April 29, 2013</t>
+  </si>
+  <si>
+    <t>Staff is very friendly and helpful. Eliu,Jen and Nina they go the extra mile to make your stay enjoyable .cant beat the price plenty of restaurants in the area,  I would stay here again when I'm back on the westMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32580-d78393-r157099791-Extended_Stay_America_Los_Angeles_La_Mirada-La_Mirada_California.html</t>
+  </si>
+  <si>
+    <t>157099791</t>
+  </si>
+  <si>
+    <t>04/08/2013</t>
+  </si>
+  <si>
+    <t>Great Value, Terrific Staff</t>
+  </si>
+  <si>
+    <t>Extended Stay America is a great value for the money. The rooms are clean and pretty quiet overall. The kitchenette is a primary reason that I return to ESA properties throughout the country.This facility's staff was extremely friendly, helpful and accommodating. Greeted daily with a smile and a "Wish for a good day". Any issue that came up was handled immediately, though there were few issues.There is a lingering smoke smell on the 3rd floor hallway but I was on the 3rd floor and my room had no stale smoke smell.My stay was for nearly 3 months and for any business traveller I'd recommend this property highly.If you expect 5-star accommodations then you should look elsewhere but you should also understand the cost associated with a 5-star property. You do get more than you pay for here and it IS a good value for the price paid.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2013</t>
+  </si>
+  <si>
+    <t>Michael D, Manager at Extended Stay America - Los Angeles - La Mirada, responded to this reviewResponded April 10, 2013</t>
+  </si>
+  <si>
+    <t>Responded April 10, 2013</t>
+  </si>
+  <si>
+    <t>Extended Stay America is a great value for the money. The rooms are clean and pretty quiet overall. The kitchenette is a primary reason that I return to ESA properties throughout the country.This facility's staff was extremely friendly, helpful and accommodating. Greeted daily with a smile and a "Wish for a good day". Any issue that came up was handled immediately, though there were few issues.There is a lingering smoke smell on the 3rd floor hallway but I was on the 3rd floor and my room had no stale smoke smell.My stay was for nearly 3 months and for any business traveller I'd recommend this property highly.If you expect 5-star accommodations then you should look elsewhere but you should also understand the cost associated with a 5-star property. You do get more than you pay for here and it IS a good value for the price paid.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32580-d78393-r154350017-Extended_Stay_America_Los_Angeles_La_Mirada-La_Mirada_California.html</t>
+  </si>
+  <si>
+    <t>154350017</t>
+  </si>
+  <si>
+    <t>03/12/2013</t>
+  </si>
+  <si>
+    <t>BEST DEAL ANYWHERE</t>
+  </si>
+  <si>
+    <t>Our 23 day stay at this location was impressive in terms of reasonable rates, a diligent and helpful staff, and overall comfort.  It was our "home away from home" where we felt safe and secure for the duration of our trip.  The property's located in a business park and although near a freeway, the noise level was not even an issue.  Our thanks to the expertise staff of Eliu, Nena and Jennifer for making our stay an enjoyable and positive experience!Jim and Norma C.Bowling Green, OHMoreShow less</t>
+  </si>
+  <si>
+    <t>February 2013</t>
+  </si>
+  <si>
+    <t>Michael D, Manager at Extended Stay America - Los Angeles - La Mirada, responded to this reviewResponded March 13, 2013</t>
+  </si>
+  <si>
+    <t>Responded March 13, 2013</t>
+  </si>
+  <si>
+    <t>Our 23 day stay at this location was impressive in terms of reasonable rates, a diligent and helpful staff, and overall comfort.  It was our "home away from home" where we felt safe and secure for the duration of our trip.  The property's located in a business park and although near a freeway, the noise level was not even an issue.  Our thanks to the expertise staff of Eliu, Nena and Jennifer for making our stay an enjoyable and positive experience!Jim and Norma C.Bowling Green, OHMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32580-d78393-r154052293-Extended_Stay_America_Los_Angeles_La_Mirada-La_Mirada_California.html</t>
+  </si>
+  <si>
+    <t>154052293</t>
+  </si>
+  <si>
+    <t>03/08/2013</t>
+  </si>
+  <si>
+    <t>It feels a lot like home!</t>
+  </si>
+  <si>
+    <t>My husband and I have been staying here since December 29, 2012 due to my husband's new job transfer. From the time we booked this hotel, Nena was very helpful in negotiating a very good rate for us. The staff, which includes Jennifer, Eliu, and Nena are all very nice and helpful. The new manager, Katharina, is also accommodating. Jaime, the maintenance guy, reports within 5 minutes of my maintenance requests. I think I asked for help 3x during our stay, and he knocks at the door within 5 minutes. The housekeepers, Irma and Eva are great in keeping the room clean. The breakfast bar is also a welcome sight in the morning; with a choice of oatmeal, muffins, cereal bars, fruits, and coffee/tea. I feel so at home in this hotel because they treat you as family, they even know you by name. I am so grateful that we chose ESA- La Mirada among the more expensive hotels nearby. Nadia, the Operations Manager, is also very accommodating when I reached her via voicemail and email. I can't complain about anything in this "homey hotel".MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2012</t>
+  </si>
+  <si>
+    <t>My husband and I have been staying here since December 29, 2012 due to my husband's new job transfer. From the time we booked this hotel, Nena was very helpful in negotiating a very good rate for us. The staff, which includes Jennifer, Eliu, and Nena are all very nice and helpful. The new manager, Katharina, is also accommodating. Jaime, the maintenance guy, reports within 5 minutes of my maintenance requests. I think I asked for help 3x during our stay, and he knocks at the door within 5 minutes. The housekeepers, Irma and Eva are great in keeping the room clean. The breakfast bar is also a welcome sight in the morning; with a choice of oatmeal, muffins, cereal bars, fruits, and coffee/tea. I feel so at home in this hotel because they treat you as family, they even know you by name. I am so grateful that we chose ESA- La Mirada among the more expensive hotels nearby. Nadia, the Operations Manager, is also very accommodating when I reached her via voicemail and email. I can't complain about anything in this "homey hotel".More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32580-d78393-r154039123-Extended_Stay_America_Los_Angeles_La_Mirada-La_Mirada_California.html</t>
+  </si>
+  <si>
+    <t>154039123</t>
+  </si>
+  <si>
+    <t>Best One Yet</t>
+  </si>
+  <si>
+    <t>Have stayed at many of these properties over the last seven years and they are always nice but this one has been most impressive yet. The staff has been very gracious, Jenifer, Eliu and Nena are the best I hope the manager knows what she has in them.The grounds are well kept and seem to be very secure. For sure is one of the quietest hotels Iv'e ever stayed at. My room is the same as always and very clean.Woot, Woot for this hotel as always the Extended Stay makes me feel at home the best they can and for that thank you..MoreShow less</t>
+  </si>
+  <si>
+    <t>Have stayed at many of these properties over the last seven years and they are always nice but this one has been most impressive yet. The staff has been very gracious, Jenifer, Eliu and Nena are the best I hope the manager knows what she has in them.The grounds are well kept and seem to be very secure. For sure is one of the quietest hotels Iv'e ever stayed at. My room is the same as always and very clean.Woot, Woot for this hotel as always the Extended Stay makes me feel at home the best they can and for that thank you..More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32580-d78393-r152278000-Extended_Stay_America_Los_Angeles_La_Mirada-La_Mirada_California.html</t>
+  </si>
+  <si>
+    <t>152278000</t>
+  </si>
+  <si>
+    <t>02/16/2013</t>
+  </si>
+  <si>
+    <t>Best Stay Ever!</t>
+  </si>
+  <si>
+    <t>The rooms are the best! You usually pay more for the things they provide. Best stay I've ever had at a hotel. Highly Recommended. If you're looking for an inexpensive but awesome place to stay, check out Extended Stay America - La Mirada. MoreShow less</t>
+  </si>
+  <si>
+    <t>Michael D, Manager at Extended Stay America - Los Angeles - La Mirada, responded to this reviewResponded February 18, 2013</t>
+  </si>
+  <si>
+    <t>Responded February 18, 2013</t>
+  </si>
+  <si>
+    <t>The rooms are the best! You usually pay more for the things they provide. Best stay I've ever had at a hotel. Highly Recommended. If you're looking for an inexpensive but awesome place to stay, check out Extended Stay America - La Mirada. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32580-d78393-r151384703-Extended_Stay_America_Los_Angeles_La_Mirada-La_Mirada_California.html</t>
+  </si>
+  <si>
+    <t>151384703</t>
+  </si>
+  <si>
+    <t>02/04/2013</t>
+  </si>
+  <si>
+    <t>Highly recommended, especially for those watching their budget</t>
+  </si>
+  <si>
+    <t>I highly recommend this hotel for travelers who have to watch their budget. We saved enough on this hotel (over a nearby Holiday Inn, for example) to pay for our car. We loved having a refrigerator; others might appreciate the microwave. The staff were all wonderful: super friendly and helpful. The room was clean. The towels are thin, of course. They don’t make up your room at all (unless you want to pay extra), but they will exchange towels for free any time you need them. The room had an iron and a TV, and we brought our own hair dryer. Morning coffee is better than that in many hotels, and is free, along with a muffin and piece of fruit  and instant oatmeal (also more than you get in many places.) We have stayed here twice since the first trip, and will continue to stay here on our visits to this area.MoreShow less</t>
+  </si>
+  <si>
+    <t>Michael D, Manager at Extended Stay America - Los Angeles - La Mirada, responded to this reviewResponded February 5, 2013</t>
+  </si>
+  <si>
+    <t>Responded February 5, 2013</t>
+  </si>
+  <si>
+    <t>I highly recommend this hotel for travelers who have to watch their budget. We saved enough on this hotel (over a nearby Holiday Inn, for example) to pay for our car. We loved having a refrigerator; others might appreciate the microwave. The staff were all wonderful: super friendly and helpful. The room was clean. The towels are thin, of course. They don’t make up your room at all (unless you want to pay extra), but they will exchange towels for free any time you need them. The room had an iron and a TV, and we brought our own hair dryer. Morning coffee is better than that in many hotels, and is free, along with a muffin and piece of fruit  and instant oatmeal (also more than you get in many places.) We have stayed here twice since the first trip, and will continue to stay here on our visits to this area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32580-d78393-r150896748-Extended_Stay_America_Los_Angeles_La_Mirada-La_Mirada_California.html</t>
+  </si>
+  <si>
+    <t>150896748</t>
+  </si>
+  <si>
+    <t>01/28/2013</t>
+  </si>
+  <si>
+    <t>Feels like home away from home...</t>
+  </si>
+  <si>
+    <t>If you are looking for a place to stay for a day or two or for any length of time, look no further.  ESA is really a nice accomomodating location.  One of the main reasons we came here is that they are pet friendly.  The house keeping staff goes out of there way to accomodate our pets.  We have Hilda and Irma both do our room and they are the best, anything you need they are more than happy to get for you.  The front desk staff is the best..Jennifer..Nena and Eliu are always smiling anxious to assist and just very nice to talk to.  Katharina the manager is always there to help as well, she is new but seems to catching on very quickly and is fitting in well with the Family Atmosphere and concept I believe they are trying to achieve.  Jaime is always there if you have any mainteneance issues, always done with a smile!!!    The grab and go breakfast is always nice but its wonderful that all the rooms have a kitchen so you can cook.  I also like the fact that if you come in late they have security in the parking lot after 11pm.  Great place to stay and I would highly recommend ESA to everyone.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2013</t>
+  </si>
+  <si>
+    <t>Michael D, Manager at Extended Stay America - Los Angeles - La Mirada, responded to this reviewResponded January 30, 2013</t>
+  </si>
+  <si>
+    <t>Responded January 30, 2013</t>
+  </si>
+  <si>
+    <t>If you are looking for a place to stay for a day or two or for any length of time, look no further.  ESA is really a nice accomomodating location.  One of the main reasons we came here is that they are pet friendly.  The house keeping staff goes out of there way to accomodate our pets.  We have Hilda and Irma both do our room and they are the best, anything you need they are more than happy to get for you.  The front desk staff is the best..Jennifer..Nena and Eliu are always smiling anxious to assist and just very nice to talk to.  Katharina the manager is always there to help as well, she is new but seems to catching on very quickly and is fitting in well with the Family Atmosphere and concept I believe they are trying to achieve.  Jaime is always there if you have any mainteneance issues, always done with a smile!!!    The grab and go breakfast is always nice but its wonderful that all the rooms have a kitchen so you can cook.  I also like the fact that if you come in late they have security in the parking lot after 11pm.  Great place to stay and I would highly recommend ESA to everyone.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32580-d78393-r148443759-Extended_Stay_America_Los_Angeles_La_Mirada-La_Mirada_California.html</t>
+  </si>
+  <si>
+    <t>148443759</t>
+  </si>
+  <si>
+    <t>12/31/2012</t>
+  </si>
+  <si>
+    <t>Great Hotel to Stay.</t>
+  </si>
+  <si>
+    <t>I stayed in this hotel for the past 4 months.The staff here are very friendly and helpful.  Wonderful staff!  The rooms are pretty standard.  I loved the Kitchen and the break fast. The Hotel is centraly located to many attractions.The lobby is welcoming and has an upscale, modern look and feel. The front desk staff (Eliu ,and Nena)are very accommodating &amp; would be enthusiastic to serve the customers.  I would strogly recomend visitors to stay in this hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>Michael D, Manager at Extended Stay America - Los Angeles - La Mirada, responded to this reviewResponded January 2, 2013</t>
+  </si>
+  <si>
+    <t>Responded January 2, 2013</t>
+  </si>
+  <si>
+    <t>I stayed in this hotel for the past 4 months.The staff here are very friendly and helpful.  Wonderful staff!  The rooms are pretty standard.  I loved the Kitchen and the break fast. The Hotel is centraly located to many attractions.The lobby is welcoming and has an upscale, modern look and feel. The front desk staff (Eliu ,and Nena)are very accommodating &amp; would be enthusiastic to serve the customers.  I would strogly recomend visitors to stay in this hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32580-d78393-r148152742-Extended_Stay_America_Los_Angeles_La_Mirada-La_Mirada_California.html</t>
+  </si>
+  <si>
+    <t>148152742</t>
+  </si>
+  <si>
+    <t>12/27/2012</t>
+  </si>
+  <si>
+    <t>Great Hotel</t>
+  </si>
+  <si>
+    <t>I stayed here early December and I loved my stay. The staff is very friendly and the rooms are very cleaned. A little hard to find but a great find!                                       I came here to visit family and the hotel is centraly located to many attractions. I loved the kitcken and the breakfast but mainly the staff. MoreShow less</t>
+  </si>
+  <si>
+    <t>Michael D, Manager at Extended Stay America - Los Angeles - La Mirada, responded to this reviewResponded December 28, 2012</t>
+  </si>
+  <si>
+    <t>Responded December 28, 2012</t>
+  </si>
+  <si>
+    <t>I stayed here early December and I loved my stay. The staff is very friendly and the rooms are very cleaned. A little hard to find but a great find!                                       I came here to visit family and the hotel is centraly located to many attractions. I loved the kitcken and the breakfast but mainly the staff. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32580-d78393-r145568560-Extended_Stay_America_Los_Angeles_La_Mirada-La_Mirada_California.html</t>
+  </si>
+  <si>
+    <t>145568560</t>
+  </si>
+  <si>
+    <t>11/16/2012</t>
+  </si>
+  <si>
+    <t>Cozy place - home away from home!</t>
+  </si>
+  <si>
+    <t>I stayed here while I was looking for a new appartment. The staff is SO EXTREMELY FRIENDLY that I had to review this hotel when I barely take the time to write reviews! Jennifer, Nena and Eliu (Front Desk Staff) Thank you for a great experiences and for making me feel at home when I had the craziest moment of my year trying to relocate. I hope this review encourages the readers to stay here because, other than that, rooms are clean, cozy and spacious and the common areas are intact. Plus you have a washing room, vending machines and a lot of parking spots available with an entrance door always near. And if you need fast food, restaurants, supermarket, farmacy and ELSE ... Its not more than 10 min drive away! Ok... No more to say! I really enjoyed my stay and it made a pleasurable transfer/move!!! :D :D :DMoreShow less</t>
+  </si>
+  <si>
+    <t>Michael D, Manager at Extended Stay America - Los Angeles - La Mirada, responded to this reviewResponded November 21, 2012</t>
+  </si>
+  <si>
+    <t>Responded November 21, 2012</t>
+  </si>
+  <si>
+    <t>I stayed here while I was looking for a new appartment. The staff is SO EXTREMELY FRIENDLY that I had to review this hotel when I barely take the time to write reviews! Jennifer, Nena and Eliu (Front Desk Staff) Thank you for a great experiences and for making me feel at home when I had the craziest moment of my year trying to relocate. I hope this review encourages the readers to stay here because, other than that, rooms are clean, cozy and spacious and the common areas are intact. Plus you have a washing room, vending machines and a lot of parking spots available with an entrance door always near. And if you need fast food, restaurants, supermarket, farmacy and ELSE ... Its not more than 10 min drive away! Ok... No more to say! I really enjoyed my stay and it made a pleasurable transfer/move!!! :D :D :DMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32580-d78393-r134072095-Extended_Stay_America_Los_Angeles_La_Mirada-La_Mirada_California.html</t>
+  </si>
+  <si>
+    <t>134072095</t>
+  </si>
+  <si>
+    <t>07/10/2012</t>
+  </si>
+  <si>
+    <t>A Wonderful Experience</t>
+  </si>
+  <si>
+    <t>After staying at many different hotels throughout my business travels, I found this one to be moderately priced for all of the amenities you get.  For example, they have flat screen tv's, full service kitchen with refrigerator, microwave, 2 burner stove, pots/pans, utensils, plates, coffee maker w/limitless coffee, cups/mugs, all complimentary to make your stay here feel like you are at home.  I also found the area quite peaceful and quiet due to the location of hotel which located in an industrial area.  Pet friendly, for you pet lovers, hotel offers lodging for your pets.  Every morning, there is complimentary breakfast which includes fresh coffee, muffins, fresh fruit, oatmeal and tea.  Not to mention the friendly staff, which are always smiling, very kind, willing to go far and beyond the call of duty to accommodate me.  I also want to state that Carlos (the manager) has execptional customer service.  So in closing just want to say if you are in La Mirada Area from out of state, check out Extended Stay America - La MiradaMoreShow less</t>
+  </si>
+  <si>
+    <t>June 2012</t>
+  </si>
+  <si>
+    <t>ChristopherTM, Manager at Extended Stay America - Los Angeles - La Mirada, responded to this reviewResponded July 17, 2012</t>
+  </si>
+  <si>
+    <t>Responded July 17, 2012</t>
+  </si>
+  <si>
+    <t>After staying at many different hotels throughout my business travels, I found this one to be moderately priced for all of the amenities you get.  For example, they have flat screen tv's, full service kitchen with refrigerator, microwave, 2 burner stove, pots/pans, utensils, plates, coffee maker w/limitless coffee, cups/mugs, all complimentary to make your stay here feel like you are at home.  I also found the area quite peaceful and quiet due to the location of hotel which located in an industrial area.  Pet friendly, for you pet lovers, hotel offers lodging for your pets.  Every morning, there is complimentary breakfast which includes fresh coffee, muffins, fresh fruit, oatmeal and tea.  Not to mention the friendly staff, which are always smiling, very kind, willing to go far and beyond the call of duty to accommodate me.  I also want to state that Carlos (the manager) has execptional customer service.  So in closing just want to say if you are in La Mirada Area from out of state, check out Extended Stay America - La MiradaMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32580-d78393-r134061932-Extended_Stay_America_Los_Angeles_La_Mirada-La_Mirada_California.html</t>
+  </si>
+  <si>
+    <t>134061932</t>
+  </si>
+  <si>
+    <t>Very Pleasant Experience</t>
+  </si>
+  <si>
+    <t>We were looking for a place that would could stay for several weeks if need be so we contacted ESA in La Mirada, from the original conversation on the phone with Sadie we were pleasantly surprised at how friendly and knowledable she was.  Once we arrived at the hotel to check in the excellent customer service from Sadie was like a breath of fresh air, always a smile on her face and very willing to help anyway she could.  The rates are excellent and room was very clean and inviting.  The girls that work in housekeeping are very accomodating and go out of their way to get you anything you might need to make your stay more comfortable. I have worked in the customer service field for over 20 yrs and I realize good customer service is a dying breed, however after dealing with Sadie, Carlos and the rest of the staff the have made me realize that there is still excellent service to be had.  Would strongly recommmend ESA to everyone and anyone.  I must say that after reading the review "Condescension at the front desk" I was truly taken a back as I have been here almost two weeks and have never heard or seen anything that was mentioned in that review, just the opposite!!MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2012</t>
+  </si>
+  <si>
+    <t>We were looking for a place that would could stay for several weeks if need be so we contacted ESA in La Mirada, from the original conversation on the phone with Sadie we were pleasantly surprised at how friendly and knowledable she was.  Once we arrived at the hotel to check in the excellent customer service from Sadie was like a breath of fresh air, always a smile on her face and very willing to help anyway she could.  The rates are excellent and room was very clean and inviting.  The girls that work in housekeeping are very accomodating and go out of their way to get you anything you might need to make your stay more comfortable. I have worked in the customer service field for over 20 yrs and I realize good customer service is a dying breed, however after dealing with Sadie, Carlos and the rest of the staff the have made me realize that there is still excellent service to be had.  Would strongly recommmend ESA to everyone and anyone.  I must say that after reading the review "Condescension at the front desk" I was truly taken a back as I have been here almost two weeks and have never heard or seen anything that was mentioned in that review, just the opposite!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32580-d78393-r133779816-Extended_Stay_America_Los_Angeles_La_Mirada-La_Mirada_California.html</t>
+  </si>
+  <si>
+    <t>133779816</t>
+  </si>
+  <si>
+    <t>07/08/2012</t>
+  </si>
+  <si>
+    <t>Great Stay</t>
+  </si>
+  <si>
+    <t>I work for the Government and have stayed in Hotels all over the nation…my experience with Extended Stay America was Excellent and I will use them again in my travels.The front desk staff were absolutely amazing and the quality of the hotel and services exceeded my expectations!The management should be proud that their staff clearly represent quality service and high standards...MoreShow less</t>
+  </si>
+  <si>
+    <t>I work for the Government and have stayed in Hotels all over the nation…my experience with Extended Stay America was Excellent and I will use them again in my travels.The front desk staff were absolutely amazing and the quality of the hotel and services exceeded my expectations!The management should be proud that their staff clearly represent quality service and high standards...More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32580-d78393-r131858308-Extended_Stay_America_Los_Angeles_La_Mirada-La_Mirada_California.html</t>
+  </si>
+  <si>
+    <t>131858308</t>
+  </si>
+  <si>
+    <t>06/12/2012</t>
+  </si>
+  <si>
+    <t>Best stay for your money</t>
+  </si>
+  <si>
+    <t>I have had the great pleasure to stay at the Extended Stay America in La Mirada CA on several trips to the area.I am senior auditor for a consulting firm and travel 40 weeks out of 52 weeks per year.I used to stay at the Holiday Inn (full service up the street .75 miles), after having tried the ESA I never gone back.  The rates were significantly less, for the better service. The staff is one of the best I have encounter over the years.The hotel has undergone some renovations that make it very pleasing, both inside and outside.  The renovations have given it a more at home feeling.  The latest was the introduction of the morning continental style breakfast.  Ready for me as I am heading out the door at 6 AM.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2012</t>
+  </si>
+  <si>
+    <t>I have had the great pleasure to stay at the Extended Stay America in La Mirada CA on several trips to the area.I am senior auditor for a consulting firm and travel 40 weeks out of 52 weeks per year.I used to stay at the Holiday Inn (full service up the street .75 miles), after having tried the ESA I never gone back.  The rates were significantly less, for the better service. The staff is one of the best I have encounter over the years.The hotel has undergone some renovations that make it very pleasing, both inside and outside.  The renovations have given it a more at home feeling.  The latest was the introduction of the morning continental style breakfast.  Ready for me as I am heading out the door at 6 AM.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32580-d78393-r131176201-Extended_Stay_America_Los_Angeles_La_Mirada-La_Mirada_California.html</t>
+  </si>
+  <si>
+    <t>131176201</t>
+  </si>
+  <si>
+    <t>06/03/2012</t>
+  </si>
+  <si>
+    <t>Fun at the desk</t>
+  </si>
+  <si>
+    <t>My name is Sol and me and my partner Roy checked in between May 19 and 26, 2012. Just want to commend Ellio and Nina for their very hospitable and professional care they showed us during our stay. Ellio is a delight to have at the desk, very intelligent, very funny too.The morning staff was just as kind and helpful.Room 312 was just perfect for our stay. Thank you also for the cleaning staff for finding and bringing Popops to the desk.MoreShow less</t>
+  </si>
+  <si>
+    <t>My name is Sol and me and my partner Roy checked in between May 19 and 26, 2012. Just want to commend Ellio and Nina for their very hospitable and professional care they showed us during our stay. Ellio is a delight to have at the desk, very intelligent, very funny too.The morning staff was just as kind and helpful.Room 312 was just perfect for our stay. Thank you also for the cleaning staff for finding and bringing Popops to the desk.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32580-d78393-r129795503-Extended_Stay_America_Los_Angeles_La_Mirada-La_Mirada_California.html</t>
+  </si>
+  <si>
+    <t>129795503</t>
+  </si>
+  <si>
+    <t>05/11/2012</t>
+  </si>
+  <si>
+    <t>Great Stay!!</t>
+  </si>
+  <si>
+    <t>I wanted to give my review before life got busy and I would forget..I was traveling alone and for one I felt very safe at this location. Very well lit parking lot with lots of entrances to get in with your room key. The room was clean, quiet, and was very happy with the staff. I would recommend this location to my friends. The price was fair and free Wi-Fi.MoreShow less</t>
+  </si>
+  <si>
+    <t>I wanted to give my review before life got busy and I would forget..I was traveling alone and for one I felt very safe at this location. Very well lit parking lot with lots of entrances to get in with your room key. The room was clean, quiet, and was very happy with the staff. I would recommend this location to my friends. The price was fair and free Wi-Fi.More</t>
   </si>
 </sst>
 </file>
@@ -648,6 +2572,5236 @@
         <v>43</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>36637</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>4</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>4</v>
+      </c>
+      <c r="R2" t="n">
+        <v>4</v>
+      </c>
+      <c r="S2" t="n">
+        <v>4</v>
+      </c>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>4</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>54</v>
+      </c>
+      <c r="X2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>36637</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L3" t="s">
+        <v>61</v>
+      </c>
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
+        <v>62</v>
+      </c>
+      <c r="O3" t="s">
+        <v>53</v>
+      </c>
+      <c r="P3" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>5</v>
+      </c>
+      <c r="R3" t="n">
+        <v>5</v>
+      </c>
+      <c r="S3" t="n">
+        <v>5</v>
+      </c>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>5</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>63</v>
+      </c>
+      <c r="X3" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>36637</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>66</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>67</v>
+      </c>
+      <c r="J4" t="s">
+        <v>68</v>
+      </c>
+      <c r="K4" t="s">
+        <v>69</v>
+      </c>
+      <c r="L4" t="s">
+        <v>70</v>
+      </c>
+      <c r="M4" t="n">
+        <v>4</v>
+      </c>
+      <c r="N4" t="s">
+        <v>71</v>
+      </c>
+      <c r="O4" t="s">
+        <v>72</v>
+      </c>
+      <c r="P4" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>4</v>
+      </c>
+      <c r="R4" t="n">
+        <v>4</v>
+      </c>
+      <c r="S4" t="n">
+        <v>4</v>
+      </c>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>4</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>73</v>
+      </c>
+      <c r="X4" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>36637</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>76</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>77</v>
+      </c>
+      <c r="J5" t="s">
+        <v>78</v>
+      </c>
+      <c r="K5" t="s">
+        <v>79</v>
+      </c>
+      <c r="L5" t="s">
+        <v>80</v>
+      </c>
+      <c r="M5" t="n">
+        <v>4</v>
+      </c>
+      <c r="N5" t="s">
+        <v>81</v>
+      </c>
+      <c r="O5" t="s">
+        <v>53</v>
+      </c>
+      <c r="P5" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>4</v>
+      </c>
+      <c r="R5" t="n">
+        <v>4</v>
+      </c>
+      <c r="S5" t="n">
+        <v>4</v>
+      </c>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>4</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>82</v>
+      </c>
+      <c r="X5" t="s">
+        <v>83</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>36637</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>85</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>86</v>
+      </c>
+      <c r="J6" t="s">
+        <v>87</v>
+      </c>
+      <c r="K6" t="s">
+        <v>88</v>
+      </c>
+      <c r="L6" t="s">
+        <v>89</v>
+      </c>
+      <c r="M6" t="n">
+        <v>3</v>
+      </c>
+      <c r="N6" t="s">
+        <v>81</v>
+      </c>
+      <c r="O6" t="s">
+        <v>90</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="n">
+        <v>4</v>
+      </c>
+      <c r="S6" t="n">
+        <v>3</v>
+      </c>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>3</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>91</v>
+      </c>
+      <c r="X6" t="s">
+        <v>92</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>36637</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>94</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>95</v>
+      </c>
+      <c r="J7" t="s">
+        <v>96</v>
+      </c>
+      <c r="K7" t="s">
+        <v>97</v>
+      </c>
+      <c r="L7" t="s">
+        <v>98</v>
+      </c>
+      <c r="M7" t="n">
+        <v>2</v>
+      </c>
+      <c r="N7" t="s">
+        <v>81</v>
+      </c>
+      <c r="O7" t="s">
+        <v>72</v>
+      </c>
+      <c r="P7" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>2</v>
+      </c>
+      <c r="R7" t="n">
+        <v>2</v>
+      </c>
+      <c r="S7" t="n">
+        <v>3</v>
+      </c>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>3</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>99</v>
+      </c>
+      <c r="X7" t="s">
+        <v>100</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>36637</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>102</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>103</v>
+      </c>
+      <c r="J8" t="s">
+        <v>104</v>
+      </c>
+      <c r="K8" t="s">
+        <v>105</v>
+      </c>
+      <c r="L8" t="s">
+        <v>106</v>
+      </c>
+      <c r="M8" t="n">
+        <v>3</v>
+      </c>
+      <c r="N8" t="s">
+        <v>81</v>
+      </c>
+      <c r="O8" t="s">
+        <v>107</v>
+      </c>
+      <c r="P8" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>3</v>
+      </c>
+      <c r="R8" t="n">
+        <v>2</v>
+      </c>
+      <c r="S8" t="n">
+        <v>3</v>
+      </c>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>5</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>108</v>
+      </c>
+      <c r="X8" t="s">
+        <v>109</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>36637</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>111</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>112</v>
+      </c>
+      <c r="J9" t="s">
+        <v>104</v>
+      </c>
+      <c r="K9" t="s">
+        <v>113</v>
+      </c>
+      <c r="L9" t="s">
+        <v>114</v>
+      </c>
+      <c r="M9" t="n">
+        <v>4</v>
+      </c>
+      <c r="N9" t="s">
+        <v>115</v>
+      </c>
+      <c r="O9" t="s">
+        <v>53</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="n">
+        <v>3</v>
+      </c>
+      <c r="S9" t="n">
+        <v>5</v>
+      </c>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>5</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>116</v>
+      </c>
+      <c r="X9" t="s">
+        <v>117</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>36637</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>119</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>120</v>
+      </c>
+      <c r="J10" t="s">
+        <v>121</v>
+      </c>
+      <c r="K10" t="s">
+        <v>122</v>
+      </c>
+      <c r="L10" t="s">
+        <v>123</v>
+      </c>
+      <c r="M10" t="n">
+        <v>4</v>
+      </c>
+      <c r="N10" t="s">
+        <v>115</v>
+      </c>
+      <c r="O10" t="s">
+        <v>107</v>
+      </c>
+      <c r="P10" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="n">
+        <v>5</v>
+      </c>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>5</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>124</v>
+      </c>
+      <c r="X10" t="s">
+        <v>125</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>36637</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>127</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>128</v>
+      </c>
+      <c r="J11" t="s">
+        <v>129</v>
+      </c>
+      <c r="K11" t="s">
+        <v>130</v>
+      </c>
+      <c r="L11" t="s">
+        <v>131</v>
+      </c>
+      <c r="M11" t="n">
+        <v>4</v>
+      </c>
+      <c r="N11" t="s">
+        <v>132</v>
+      </c>
+      <c r="O11" t="s">
+        <v>72</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="s"/>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>133</v>
+      </c>
+      <c r="X11" t="s">
+        <v>134</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>36637</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>136</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>137</v>
+      </c>
+      <c r="J12" t="s">
+        <v>138</v>
+      </c>
+      <c r="K12" t="s">
+        <v>139</v>
+      </c>
+      <c r="L12" t="s">
+        <v>140</v>
+      </c>
+      <c r="M12" t="n">
+        <v>4</v>
+      </c>
+      <c r="N12" t="s">
+        <v>141</v>
+      </c>
+      <c r="O12" t="s">
+        <v>72</v>
+      </c>
+      <c r="P12" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="n">
+        <v>4</v>
+      </c>
+      <c r="T12" t="s"/>
+      <c r="U12" t="s"/>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>142</v>
+      </c>
+      <c r="X12" t="s">
+        <v>143</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>36637</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>145</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>146</v>
+      </c>
+      <c r="J13" t="s">
+        <v>147</v>
+      </c>
+      <c r="K13" t="s">
+        <v>148</v>
+      </c>
+      <c r="L13" t="s">
+        <v>149</v>
+      </c>
+      <c r="M13" t="n">
+        <v>5</v>
+      </c>
+      <c r="N13" t="s">
+        <v>150</v>
+      </c>
+      <c r="O13" t="s">
+        <v>72</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="n">
+        <v>5</v>
+      </c>
+      <c r="R13" t="n">
+        <v>3</v>
+      </c>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>4</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>151</v>
+      </c>
+      <c r="X13" t="s">
+        <v>152</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>36637</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>154</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>155</v>
+      </c>
+      <c r="J14" t="s">
+        <v>156</v>
+      </c>
+      <c r="K14" t="s">
+        <v>157</v>
+      </c>
+      <c r="L14" t="s">
+        <v>158</v>
+      </c>
+      <c r="M14" t="n">
+        <v>3</v>
+      </c>
+      <c r="N14" t="s">
+        <v>132</v>
+      </c>
+      <c r="O14" t="s">
+        <v>72</v>
+      </c>
+      <c r="P14" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="n">
+        <v>5</v>
+      </c>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>3</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>36637</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>159</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>160</v>
+      </c>
+      <c r="J15" t="s">
+        <v>161</v>
+      </c>
+      <c r="K15" t="s">
+        <v>162</v>
+      </c>
+      <c r="L15" t="s">
+        <v>163</v>
+      </c>
+      <c r="M15" t="n">
+        <v>5</v>
+      </c>
+      <c r="N15" t="s"/>
+      <c r="O15" t="s"/>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="s"/>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>164</v>
+      </c>
+      <c r="X15" t="s">
+        <v>165</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>36637</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>167</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>168</v>
+      </c>
+      <c r="J16" t="s">
+        <v>169</v>
+      </c>
+      <c r="K16" t="s">
+        <v>170</v>
+      </c>
+      <c r="L16" t="s">
+        <v>171</v>
+      </c>
+      <c r="M16" t="n">
+        <v>5</v>
+      </c>
+      <c r="N16" t="s">
+        <v>172</v>
+      </c>
+      <c r="O16" t="s">
+        <v>72</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="n">
+        <v>5</v>
+      </c>
+      <c r="S16" t="n">
+        <v>5</v>
+      </c>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>5</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>173</v>
+      </c>
+      <c r="X16" t="s">
+        <v>174</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>36637</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>176</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>177</v>
+      </c>
+      <c r="J17" t="s">
+        <v>178</v>
+      </c>
+      <c r="K17" t="s">
+        <v>179</v>
+      </c>
+      <c r="L17" t="s">
+        <v>180</v>
+      </c>
+      <c r="M17" t="n">
+        <v>5</v>
+      </c>
+      <c r="N17" t="s">
+        <v>181</v>
+      </c>
+      <c r="O17" t="s">
+        <v>72</v>
+      </c>
+      <c r="P17" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>5</v>
+      </c>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>5</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>182</v>
+      </c>
+      <c r="X17" t="s">
+        <v>183</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>36637</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>185</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>186</v>
+      </c>
+      <c r="J18" t="s">
+        <v>187</v>
+      </c>
+      <c r="K18" t="s">
+        <v>188</v>
+      </c>
+      <c r="L18" t="s">
+        <v>189</v>
+      </c>
+      <c r="M18" t="n">
+        <v>3</v>
+      </c>
+      <c r="N18" t="s">
+        <v>190</v>
+      </c>
+      <c r="O18" t="s">
+        <v>53</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="s"/>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>36637</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>192</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>193</v>
+      </c>
+      <c r="J19" t="s">
+        <v>187</v>
+      </c>
+      <c r="K19" t="s">
+        <v>194</v>
+      </c>
+      <c r="L19" t="s">
+        <v>195</v>
+      </c>
+      <c r="M19" t="n">
+        <v>4</v>
+      </c>
+      <c r="N19" t="s"/>
+      <c r="O19" t="s"/>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="s"/>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>196</v>
+      </c>
+      <c r="X19" t="s">
+        <v>197</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>36637</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>199</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>200</v>
+      </c>
+      <c r="J20" t="s">
+        <v>201</v>
+      </c>
+      <c r="K20" t="s">
+        <v>202</v>
+      </c>
+      <c r="L20" t="s">
+        <v>203</v>
+      </c>
+      <c r="M20" t="n">
+        <v>5</v>
+      </c>
+      <c r="N20" t="s">
+        <v>204</v>
+      </c>
+      <c r="O20" t="s">
+        <v>107</v>
+      </c>
+      <c r="P20" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>3</v>
+      </c>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>5</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>205</v>
+      </c>
+      <c r="X20" t="s">
+        <v>206</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>36637</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>208</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>209</v>
+      </c>
+      <c r="J21" t="s">
+        <v>210</v>
+      </c>
+      <c r="K21" t="s">
+        <v>211</v>
+      </c>
+      <c r="L21" t="s">
+        <v>212</v>
+      </c>
+      <c r="M21" t="n">
+        <v>4</v>
+      </c>
+      <c r="N21" t="s">
+        <v>190</v>
+      </c>
+      <c r="O21" t="s">
+        <v>53</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="n">
+        <v>4</v>
+      </c>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>3</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>205</v>
+      </c>
+      <c r="X21" t="s">
+        <v>206</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>36637</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>214</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>215</v>
+      </c>
+      <c r="J22" t="s">
+        <v>216</v>
+      </c>
+      <c r="K22" t="s">
+        <v>217</v>
+      </c>
+      <c r="L22" t="s">
+        <v>218</v>
+      </c>
+      <c r="M22" t="n">
+        <v>3</v>
+      </c>
+      <c r="N22" t="s">
+        <v>219</v>
+      </c>
+      <c r="O22" t="s">
+        <v>220</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="n">
+        <v>3</v>
+      </c>
+      <c r="S22" t="n">
+        <v>4</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>3</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>221</v>
+      </c>
+      <c r="X22" t="s">
+        <v>222</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>36637</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>224</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>225</v>
+      </c>
+      <c r="J23" t="s">
+        <v>226</v>
+      </c>
+      <c r="K23" t="s">
+        <v>227</v>
+      </c>
+      <c r="L23" t="s">
+        <v>228</v>
+      </c>
+      <c r="M23" t="n">
+        <v>5</v>
+      </c>
+      <c r="N23" t="s">
+        <v>229</v>
+      </c>
+      <c r="O23" t="s">
+        <v>107</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="n">
+        <v>4</v>
+      </c>
+      <c r="R23" t="s"/>
+      <c r="S23" t="n">
+        <v>5</v>
+      </c>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>4</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>230</v>
+      </c>
+      <c r="X23" t="s">
+        <v>231</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>36637</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>233</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>234</v>
+      </c>
+      <c r="J24" t="s">
+        <v>235</v>
+      </c>
+      <c r="K24" t="s">
+        <v>236</v>
+      </c>
+      <c r="L24" t="s">
+        <v>237</v>
+      </c>
+      <c r="M24" t="n">
+        <v>5</v>
+      </c>
+      <c r="N24" t="s">
+        <v>238</v>
+      </c>
+      <c r="O24" t="s">
+        <v>220</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="s"/>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="s"/>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>239</v>
+      </c>
+      <c r="X24" t="s">
+        <v>240</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>36637</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>242</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>243</v>
+      </c>
+      <c r="J25" t="s">
+        <v>244</v>
+      </c>
+      <c r="K25" t="s">
+        <v>245</v>
+      </c>
+      <c r="L25" t="s">
+        <v>246</v>
+      </c>
+      <c r="M25" t="n">
+        <v>5</v>
+      </c>
+      <c r="N25" t="s">
+        <v>238</v>
+      </c>
+      <c r="O25" t="s">
+        <v>90</v>
+      </c>
+      <c r="P25" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="n">
+        <v>5</v>
+      </c>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>5</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>239</v>
+      </c>
+      <c r="X25" t="s">
+        <v>240</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>36637</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>248</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>249</v>
+      </c>
+      <c r="J26" t="s">
+        <v>250</v>
+      </c>
+      <c r="K26" t="s">
+        <v>251</v>
+      </c>
+      <c r="L26" t="s">
+        <v>252</v>
+      </c>
+      <c r="M26" t="n">
+        <v>4</v>
+      </c>
+      <c r="N26" t="s">
+        <v>253</v>
+      </c>
+      <c r="O26" t="s">
+        <v>220</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="s"/>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="s"/>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>254</v>
+      </c>
+      <c r="X26" t="s">
+        <v>255</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>36637</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>257</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>258</v>
+      </c>
+      <c r="J27" t="s">
+        <v>259</v>
+      </c>
+      <c r="K27" t="s">
+        <v>260</v>
+      </c>
+      <c r="L27" t="s">
+        <v>261</v>
+      </c>
+      <c r="M27" t="n">
+        <v>3</v>
+      </c>
+      <c r="N27" t="s">
+        <v>262</v>
+      </c>
+      <c r="O27" t="s">
+        <v>53</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="n">
+        <v>2</v>
+      </c>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>3</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>36637</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>263</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>264</v>
+      </c>
+      <c r="J28" t="s">
+        <v>265</v>
+      </c>
+      <c r="K28" t="s">
+        <v>266</v>
+      </c>
+      <c r="L28" t="s">
+        <v>267</v>
+      </c>
+      <c r="M28" t="n">
+        <v>5</v>
+      </c>
+      <c r="N28" t="s">
+        <v>262</v>
+      </c>
+      <c r="O28" t="s">
+        <v>220</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="s"/>
+      <c r="S28" t="s"/>
+      <c r="T28" t="s"/>
+      <c r="U28" t="s"/>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>268</v>
+      </c>
+      <c r="X28" t="s">
+        <v>269</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>36637</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>271</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>272</v>
+      </c>
+      <c r="J29" t="s">
+        <v>273</v>
+      </c>
+      <c r="K29" t="s">
+        <v>274</v>
+      </c>
+      <c r="L29" t="s">
+        <v>275</v>
+      </c>
+      <c r="M29" t="n">
+        <v>1</v>
+      </c>
+      <c r="N29" t="s">
+        <v>262</v>
+      </c>
+      <c r="O29" t="s">
+        <v>72</v>
+      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="s"/>
+      <c r="S29" t="s"/>
+      <c r="T29" t="s"/>
+      <c r="U29" t="s"/>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
+        <v>276</v>
+      </c>
+      <c r="X29" t="s">
+        <v>277</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>36637</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>279</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>280</v>
+      </c>
+      <c r="J30" t="s">
+        <v>281</v>
+      </c>
+      <c r="K30" t="s">
+        <v>282</v>
+      </c>
+      <c r="L30" t="s">
+        <v>283</v>
+      </c>
+      <c r="M30" t="n">
+        <v>4</v>
+      </c>
+      <c r="N30" t="s">
+        <v>284</v>
+      </c>
+      <c r="O30" t="s">
+        <v>72</v>
+      </c>
+      <c r="P30" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>4</v>
+      </c>
+      <c r="R30" t="s"/>
+      <c r="S30" t="s"/>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>4</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s">
+        <v>285</v>
+      </c>
+      <c r="X30" t="s">
+        <v>286</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>36637</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>288</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>289</v>
+      </c>
+      <c r="J31" t="s">
+        <v>290</v>
+      </c>
+      <c r="K31" t="s">
+        <v>291</v>
+      </c>
+      <c r="L31" t="s">
+        <v>292</v>
+      </c>
+      <c r="M31" t="n">
+        <v>4</v>
+      </c>
+      <c r="N31" t="s">
+        <v>293</v>
+      </c>
+      <c r="O31" t="s">
+        <v>72</v>
+      </c>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="s"/>
+      <c r="S31" t="s"/>
+      <c r="T31" t="s"/>
+      <c r="U31" t="s"/>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s">
+        <v>285</v>
+      </c>
+      <c r="X31" t="s">
+        <v>286</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>36637</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>295</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>296</v>
+      </c>
+      <c r="J32" t="s">
+        <v>297</v>
+      </c>
+      <c r="K32" t="s">
+        <v>298</v>
+      </c>
+      <c r="L32" t="s">
+        <v>299</v>
+      </c>
+      <c r="M32" t="n">
+        <v>4</v>
+      </c>
+      <c r="N32" t="s">
+        <v>300</v>
+      </c>
+      <c r="O32" t="s">
+        <v>90</v>
+      </c>
+      <c r="P32" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="s"/>
+      <c r="S32" t="s"/>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>5</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
+      <c r="Y32" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>36637</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>301</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>302</v>
+      </c>
+      <c r="J33" t="s">
+        <v>303</v>
+      </c>
+      <c r="K33" t="s">
+        <v>304</v>
+      </c>
+      <c r="L33" t="s">
+        <v>305</v>
+      </c>
+      <c r="M33" t="n">
+        <v>4</v>
+      </c>
+      <c r="N33" t="s">
+        <v>300</v>
+      </c>
+      <c r="O33" t="s">
+        <v>53</v>
+      </c>
+      <c r="P33" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="s"/>
+      <c r="S33" t="s"/>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>4</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s">
+        <v>306</v>
+      </c>
+      <c r="X33" t="s">
+        <v>307</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>36637</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>309</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>310</v>
+      </c>
+      <c r="J34" t="s">
+        <v>311</v>
+      </c>
+      <c r="K34" t="s">
+        <v>312</v>
+      </c>
+      <c r="L34" t="s">
+        <v>313</v>
+      </c>
+      <c r="M34" t="n">
+        <v>5</v>
+      </c>
+      <c r="N34" t="s">
+        <v>314</v>
+      </c>
+      <c r="O34" t="s">
+        <v>72</v>
+      </c>
+      <c r="P34" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q34" t="s"/>
+      <c r="R34" t="s"/>
+      <c r="S34" t="s"/>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>5</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s">
+        <v>315</v>
+      </c>
+      <c r="X34" t="s">
+        <v>316</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>36637</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>318</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>319</v>
+      </c>
+      <c r="J35" t="s">
+        <v>320</v>
+      </c>
+      <c r="K35" t="s">
+        <v>321</v>
+      </c>
+      <c r="L35" t="s">
+        <v>322</v>
+      </c>
+      <c r="M35" t="n">
+        <v>3</v>
+      </c>
+      <c r="N35" t="s">
+        <v>323</v>
+      </c>
+      <c r="O35" t="s">
+        <v>220</v>
+      </c>
+      <c r="P35" t="s"/>
+      <c r="Q35" t="s"/>
+      <c r="R35" t="s"/>
+      <c r="S35" t="n">
+        <v>4</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>3</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s">
+        <v>324</v>
+      </c>
+      <c r="X35" t="s">
+        <v>325</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>36637</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>327</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>328</v>
+      </c>
+      <c r="J36" t="s">
+        <v>329</v>
+      </c>
+      <c r="K36" t="s">
+        <v>330</v>
+      </c>
+      <c r="L36" t="s">
+        <v>331</v>
+      </c>
+      <c r="M36" t="n">
+        <v>3</v>
+      </c>
+      <c r="N36" t="s">
+        <v>323</v>
+      </c>
+      <c r="O36" t="s">
+        <v>53</v>
+      </c>
+      <c r="P36" t="s"/>
+      <c r="Q36" t="s"/>
+      <c r="R36" t="s"/>
+      <c r="S36" t="s"/>
+      <c r="T36" t="s"/>
+      <c r="U36" t="s"/>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s">
+        <v>332</v>
+      </c>
+      <c r="X36" t="s">
+        <v>333</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>36637</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>335</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>336</v>
+      </c>
+      <c r="J37" t="s">
+        <v>337</v>
+      </c>
+      <c r="K37" t="s">
+        <v>338</v>
+      </c>
+      <c r="L37" t="s">
+        <v>339</v>
+      </c>
+      <c r="M37" t="n">
+        <v>2</v>
+      </c>
+      <c r="N37" t="s">
+        <v>340</v>
+      </c>
+      <c r="O37" t="s">
+        <v>53</v>
+      </c>
+      <c r="P37" t="s"/>
+      <c r="Q37" t="s"/>
+      <c r="R37" t="s"/>
+      <c r="S37" t="s"/>
+      <c r="T37" t="s"/>
+      <c r="U37" t="s"/>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s">
+        <v>332</v>
+      </c>
+      <c r="X37" t="s">
+        <v>333</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>36637</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>342</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>343</v>
+      </c>
+      <c r="J38" t="s">
+        <v>344</v>
+      </c>
+      <c r="K38" t="s">
+        <v>345</v>
+      </c>
+      <c r="L38" t="s">
+        <v>346</v>
+      </c>
+      <c r="M38" t="n">
+        <v>5</v>
+      </c>
+      <c r="N38" t="s">
+        <v>347</v>
+      </c>
+      <c r="O38" t="s">
+        <v>72</v>
+      </c>
+      <c r="P38" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q38" t="s"/>
+      <c r="R38" t="n">
+        <v>1</v>
+      </c>
+      <c r="S38" t="s"/>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>1</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s">
+        <v>348</v>
+      </c>
+      <c r="X38" t="s">
+        <v>349</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>36637</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>351</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>352</v>
+      </c>
+      <c r="J39" t="s">
+        <v>353</v>
+      </c>
+      <c r="K39" t="s">
+        <v>354</v>
+      </c>
+      <c r="L39" t="s">
+        <v>355</v>
+      </c>
+      <c r="M39" t="n">
+        <v>4</v>
+      </c>
+      <c r="N39" t="s">
+        <v>356</v>
+      </c>
+      <c r="O39" t="s">
+        <v>72</v>
+      </c>
+      <c r="P39" t="s"/>
+      <c r="Q39" t="s"/>
+      <c r="R39" t="n">
+        <v>3</v>
+      </c>
+      <c r="S39" t="n">
+        <v>4</v>
+      </c>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>3</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s">
+        <v>357</v>
+      </c>
+      <c r="X39" t="s">
+        <v>358</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>36637</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>360</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>361</v>
+      </c>
+      <c r="J40" t="s">
+        <v>362</v>
+      </c>
+      <c r="K40" t="s">
+        <v>363</v>
+      </c>
+      <c r="L40" t="s">
+        <v>364</v>
+      </c>
+      <c r="M40" t="n">
+        <v>5</v>
+      </c>
+      <c r="N40" t="s">
+        <v>365</v>
+      </c>
+      <c r="O40" t="s">
+        <v>220</v>
+      </c>
+      <c r="P40" t="s"/>
+      <c r="Q40" t="n">
+        <v>4</v>
+      </c>
+      <c r="R40" t="s"/>
+      <c r="S40" t="n">
+        <v>5</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>4</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s">
+        <v>366</v>
+      </c>
+      <c r="X40" t="s">
+        <v>367</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>36637</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>369</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>370</v>
+      </c>
+      <c r="J41" t="s">
+        <v>371</v>
+      </c>
+      <c r="K41" t="s">
+        <v>372</v>
+      </c>
+      <c r="L41" t="s">
+        <v>373</v>
+      </c>
+      <c r="M41" t="n">
+        <v>5</v>
+      </c>
+      <c r="N41" t="s"/>
+      <c r="O41" t="s"/>
+      <c r="P41" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>5</v>
+      </c>
+      <c r="R41" t="n">
+        <v>5</v>
+      </c>
+      <c r="S41" t="n">
+        <v>5</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>5</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s">
+        <v>374</v>
+      </c>
+      <c r="X41" t="s">
+        <v>375</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>36637</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>377</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>378</v>
+      </c>
+      <c r="J42" t="s">
+        <v>379</v>
+      </c>
+      <c r="K42" t="s">
+        <v>380</v>
+      </c>
+      <c r="L42" t="s">
+        <v>381</v>
+      </c>
+      <c r="M42" t="n">
+        <v>3</v>
+      </c>
+      <c r="N42" t="s">
+        <v>284</v>
+      </c>
+      <c r="O42" t="s">
+        <v>90</v>
+      </c>
+      <c r="P42" t="s"/>
+      <c r="Q42" t="s"/>
+      <c r="R42" t="n">
+        <v>4</v>
+      </c>
+      <c r="S42" t="n">
+        <v>4</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>4</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s">
+        <v>382</v>
+      </c>
+      <c r="X42" t="s">
+        <v>383</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>36637</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>385</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>386</v>
+      </c>
+      <c r="J43" t="s">
+        <v>387</v>
+      </c>
+      <c r="K43" t="s">
+        <v>388</v>
+      </c>
+      <c r="L43" t="s">
+        <v>389</v>
+      </c>
+      <c r="M43" t="n">
+        <v>5</v>
+      </c>
+      <c r="N43" t="s">
+        <v>390</v>
+      </c>
+      <c r="O43" t="s">
+        <v>72</v>
+      </c>
+      <c r="P43" t="s"/>
+      <c r="Q43" t="s"/>
+      <c r="R43" t="s"/>
+      <c r="S43" t="n">
+        <v>5</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>5</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s">
+        <v>391</v>
+      </c>
+      <c r="X43" t="s">
+        <v>392</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>36637</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>394</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>395</v>
+      </c>
+      <c r="J44" t="s">
+        <v>396</v>
+      </c>
+      <c r="K44" t="s">
+        <v>397</v>
+      </c>
+      <c r="L44" t="s">
+        <v>398</v>
+      </c>
+      <c r="M44" t="n">
+        <v>5</v>
+      </c>
+      <c r="N44" t="s">
+        <v>399</v>
+      </c>
+      <c r="O44" t="s">
+        <v>220</v>
+      </c>
+      <c r="P44" t="s"/>
+      <c r="Q44" t="n">
+        <v>4</v>
+      </c>
+      <c r="R44" t="s"/>
+      <c r="S44" t="s"/>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>5</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s">
+        <v>400</v>
+      </c>
+      <c r="X44" t="s">
+        <v>401</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>36637</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>403</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>404</v>
+      </c>
+      <c r="J45" t="s">
+        <v>405</v>
+      </c>
+      <c r="K45" t="s">
+        <v>406</v>
+      </c>
+      <c r="L45" t="s">
+        <v>407</v>
+      </c>
+      <c r="M45" t="n">
+        <v>4</v>
+      </c>
+      <c r="N45" t="s">
+        <v>390</v>
+      </c>
+      <c r="O45" t="s">
+        <v>72</v>
+      </c>
+      <c r="P45" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>4</v>
+      </c>
+      <c r="R45" t="n">
+        <v>3</v>
+      </c>
+      <c r="S45" t="n">
+        <v>4</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>4</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s">
+        <v>408</v>
+      </c>
+      <c r="X45" t="s">
+        <v>409</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>36637</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>411</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>412</v>
+      </c>
+      <c r="J46" t="s">
+        <v>413</v>
+      </c>
+      <c r="K46" t="s">
+        <v>414</v>
+      </c>
+      <c r="L46" t="s">
+        <v>415</v>
+      </c>
+      <c r="M46" t="n">
+        <v>3</v>
+      </c>
+      <c r="N46" t="s">
+        <v>390</v>
+      </c>
+      <c r="O46" t="s">
+        <v>72</v>
+      </c>
+      <c r="P46" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>3</v>
+      </c>
+      <c r="R46" t="n">
+        <v>4</v>
+      </c>
+      <c r="S46" t="n">
+        <v>4</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>5</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s">
+        <v>416</v>
+      </c>
+      <c r="X46" t="s">
+        <v>417</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>36637</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>419</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>420</v>
+      </c>
+      <c r="J47" t="s">
+        <v>421</v>
+      </c>
+      <c r="K47" t="s">
+        <v>422</v>
+      </c>
+      <c r="L47" t="s">
+        <v>423</v>
+      </c>
+      <c r="M47" t="n">
+        <v>3</v>
+      </c>
+      <c r="N47" t="s">
+        <v>424</v>
+      </c>
+      <c r="O47" t="s">
+        <v>53</v>
+      </c>
+      <c r="P47" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>4</v>
+      </c>
+      <c r="R47" t="n">
+        <v>2</v>
+      </c>
+      <c r="S47" t="n">
+        <v>3</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>2</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s">
+        <v>425</v>
+      </c>
+      <c r="X47" t="s">
+        <v>426</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>36637</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>428</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>429</v>
+      </c>
+      <c r="J48" t="s">
+        <v>430</v>
+      </c>
+      <c r="K48" t="s">
+        <v>431</v>
+      </c>
+      <c r="L48" t="s">
+        <v>432</v>
+      </c>
+      <c r="M48" t="n">
+        <v>5</v>
+      </c>
+      <c r="N48" t="s">
+        <v>424</v>
+      </c>
+      <c r="O48" t="s">
+        <v>72</v>
+      </c>
+      <c r="P48" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>5</v>
+      </c>
+      <c r="R48" t="n">
+        <v>5</v>
+      </c>
+      <c r="S48" t="n">
+        <v>5</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>5</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s">
+        <v>433</v>
+      </c>
+      <c r="X48" t="s">
+        <v>434</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>36637</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>436</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>437</v>
+      </c>
+      <c r="J49" t="s">
+        <v>438</v>
+      </c>
+      <c r="K49" t="s">
+        <v>439</v>
+      </c>
+      <c r="L49" t="s">
+        <v>440</v>
+      </c>
+      <c r="M49" t="n">
+        <v>5</v>
+      </c>
+      <c r="N49" t="s"/>
+      <c r="O49" t="s"/>
+      <c r="P49" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>5</v>
+      </c>
+      <c r="R49" t="n">
+        <v>5</v>
+      </c>
+      <c r="S49" t="n">
+        <v>5</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>5</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s">
+        <v>441</v>
+      </c>
+      <c r="X49" t="s">
+        <v>442</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>36637</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>444</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>445</v>
+      </c>
+      <c r="J50" t="s">
+        <v>446</v>
+      </c>
+      <c r="K50" t="s">
+        <v>447</v>
+      </c>
+      <c r="L50" t="s">
+        <v>448</v>
+      </c>
+      <c r="M50" t="n">
+        <v>3</v>
+      </c>
+      <c r="N50" t="s"/>
+      <c r="O50" t="s"/>
+      <c r="P50" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>4</v>
+      </c>
+      <c r="R50" t="n">
+        <v>4</v>
+      </c>
+      <c r="S50" t="n">
+        <v>4</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>3</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s"/>
+      <c r="X50" t="s"/>
+      <c r="Y50" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>36637</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>449</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>450</v>
+      </c>
+      <c r="J51" t="s">
+        <v>451</v>
+      </c>
+      <c r="K51" t="s">
+        <v>452</v>
+      </c>
+      <c r="L51" t="s">
+        <v>453</v>
+      </c>
+      <c r="M51" t="n">
+        <v>4</v>
+      </c>
+      <c r="N51" t="s">
+        <v>454</v>
+      </c>
+      <c r="O51" t="s">
+        <v>107</v>
+      </c>
+      <c r="P51" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>3</v>
+      </c>
+      <c r="R51" t="n">
+        <v>3</v>
+      </c>
+      <c r="S51" t="n">
+        <v>4</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>4</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s"/>
+      <c r="X51" t="s"/>
+      <c r="Y51" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>36637</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>456</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>457</v>
+      </c>
+      <c r="J52" t="s">
+        <v>458</v>
+      </c>
+      <c r="K52" t="s">
+        <v>459</v>
+      </c>
+      <c r="L52" t="s">
+        <v>460</v>
+      </c>
+      <c r="M52" t="n">
+        <v>5</v>
+      </c>
+      <c r="N52" t="s">
+        <v>461</v>
+      </c>
+      <c r="O52" t="s">
+        <v>72</v>
+      </c>
+      <c r="P52" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>5</v>
+      </c>
+      <c r="R52" t="n">
+        <v>5</v>
+      </c>
+      <c r="S52" t="n">
+        <v>5</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>5</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s"/>
+      <c r="X52" t="s"/>
+      <c r="Y52" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>36637</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>462</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>463</v>
+      </c>
+      <c r="J53" t="s">
+        <v>464</v>
+      </c>
+      <c r="K53" t="s">
+        <v>465</v>
+      </c>
+      <c r="L53" t="s">
+        <v>466</v>
+      </c>
+      <c r="M53" t="n">
+        <v>5</v>
+      </c>
+      <c r="N53" t="s"/>
+      <c r="O53" t="s"/>
+      <c r="P53" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>5</v>
+      </c>
+      <c r="R53" t="n">
+        <v>5</v>
+      </c>
+      <c r="S53" t="n">
+        <v>5</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>5</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s">
+        <v>467</v>
+      </c>
+      <c r="X53" t="s">
+        <v>468</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>36637</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>470</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>471</v>
+      </c>
+      <c r="J54" t="s">
+        <v>472</v>
+      </c>
+      <c r="K54" t="s">
+        <v>473</v>
+      </c>
+      <c r="L54" t="s">
+        <v>474</v>
+      </c>
+      <c r="M54" t="n">
+        <v>2</v>
+      </c>
+      <c r="N54" t="s"/>
+      <c r="O54" t="s"/>
+      <c r="P54" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>3</v>
+      </c>
+      <c r="R54" t="n">
+        <v>3</v>
+      </c>
+      <c r="S54" t="n">
+        <v>3</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>2</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s">
+        <v>467</v>
+      </c>
+      <c r="X54" t="s">
+        <v>468</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>36637</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>476</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>477</v>
+      </c>
+      <c r="J55" t="s">
+        <v>478</v>
+      </c>
+      <c r="K55" t="s">
+        <v>479</v>
+      </c>
+      <c r="L55" t="s">
+        <v>480</v>
+      </c>
+      <c r="M55" t="n">
+        <v>5</v>
+      </c>
+      <c r="N55" t="s"/>
+      <c r="O55" t="s"/>
+      <c r="P55" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>5</v>
+      </c>
+      <c r="R55" t="n">
+        <v>5</v>
+      </c>
+      <c r="S55" t="n">
+        <v>5</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>5</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s">
+        <v>481</v>
+      </c>
+      <c r="X55" t="s">
+        <v>482</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>36637</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>484</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>485</v>
+      </c>
+      <c r="J56" t="s">
+        <v>486</v>
+      </c>
+      <c r="K56" t="s">
+        <v>487</v>
+      </c>
+      <c r="L56" t="s">
+        <v>488</v>
+      </c>
+      <c r="M56" t="n">
+        <v>1</v>
+      </c>
+      <c r="N56" t="s"/>
+      <c r="O56" t="s"/>
+      <c r="P56" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>1</v>
+      </c>
+      <c r="R56" t="n">
+        <v>2</v>
+      </c>
+      <c r="S56" t="n">
+        <v>1</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>1</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s">
+        <v>489</v>
+      </c>
+      <c r="X56" t="s">
+        <v>490</v>
+      </c>
+      <c r="Y56" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>36637</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>492</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>493</v>
+      </c>
+      <c r="J57" t="s">
+        <v>494</v>
+      </c>
+      <c r="K57" t="s">
+        <v>495</v>
+      </c>
+      <c r="L57" t="s">
+        <v>496</v>
+      </c>
+      <c r="M57" t="n">
+        <v>5</v>
+      </c>
+      <c r="N57" t="s"/>
+      <c r="O57" t="s"/>
+      <c r="P57" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>5</v>
+      </c>
+      <c r="R57" t="n">
+        <v>4</v>
+      </c>
+      <c r="S57" t="n">
+        <v>5</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>5</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s">
+        <v>497</v>
+      </c>
+      <c r="X57" t="s">
+        <v>498</v>
+      </c>
+      <c r="Y57" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>36637</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>500</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>501</v>
+      </c>
+      <c r="J58" t="s">
+        <v>502</v>
+      </c>
+      <c r="K58" t="s">
+        <v>503</v>
+      </c>
+      <c r="L58" t="s">
+        <v>504</v>
+      </c>
+      <c r="M58" t="n">
+        <v>5</v>
+      </c>
+      <c r="N58" t="s">
+        <v>505</v>
+      </c>
+      <c r="O58" t="s">
+        <v>53</v>
+      </c>
+      <c r="P58" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>4</v>
+      </c>
+      <c r="R58" t="n">
+        <v>5</v>
+      </c>
+      <c r="S58" t="n">
+        <v>4</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>5</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s">
+        <v>506</v>
+      </c>
+      <c r="X58" t="s">
+        <v>507</v>
+      </c>
+      <c r="Y58" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>36637</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>509</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>510</v>
+      </c>
+      <c r="J59" t="s">
+        <v>511</v>
+      </c>
+      <c r="K59" t="s">
+        <v>512</v>
+      </c>
+      <c r="L59" t="s">
+        <v>513</v>
+      </c>
+      <c r="M59" t="n">
+        <v>5</v>
+      </c>
+      <c r="N59" t="s">
+        <v>514</v>
+      </c>
+      <c r="O59" t="s">
+        <v>72</v>
+      </c>
+      <c r="P59" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>5</v>
+      </c>
+      <c r="R59" t="n">
+        <v>5</v>
+      </c>
+      <c r="S59" t="n">
+        <v>5</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>5</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s">
+        <v>515</v>
+      </c>
+      <c r="X59" t="s">
+        <v>516</v>
+      </c>
+      <c r="Y59" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>36637</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>518</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>519</v>
+      </c>
+      <c r="J60" t="s">
+        <v>511</v>
+      </c>
+      <c r="K60" t="s">
+        <v>520</v>
+      </c>
+      <c r="L60" t="s">
+        <v>521</v>
+      </c>
+      <c r="M60" t="n">
+        <v>5</v>
+      </c>
+      <c r="N60" t="s">
+        <v>514</v>
+      </c>
+      <c r="O60" t="s">
+        <v>220</v>
+      </c>
+      <c r="P60" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>5</v>
+      </c>
+      <c r="R60" t="n">
+        <v>5</v>
+      </c>
+      <c r="S60" t="n">
+        <v>5</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>5</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s">
+        <v>522</v>
+      </c>
+      <c r="X60" t="s">
+        <v>516</v>
+      </c>
+      <c r="Y60" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>36637</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>524</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>525</v>
+      </c>
+      <c r="J61" t="s">
+        <v>526</v>
+      </c>
+      <c r="K61" t="s">
+        <v>527</v>
+      </c>
+      <c r="L61" t="s">
+        <v>528</v>
+      </c>
+      <c r="M61" t="n">
+        <v>5</v>
+      </c>
+      <c r="N61" t="s">
+        <v>529</v>
+      </c>
+      <c r="O61" t="s">
+        <v>53</v>
+      </c>
+      <c r="P61" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>4</v>
+      </c>
+      <c r="R61" t="n">
+        <v>5</v>
+      </c>
+      <c r="S61" t="n">
+        <v>4</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>5</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s">
+        <v>530</v>
+      </c>
+      <c r="X61" t="s">
+        <v>531</v>
+      </c>
+      <c r="Y61" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>36637</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>533</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>534</v>
+      </c>
+      <c r="J62" t="s">
+        <v>535</v>
+      </c>
+      <c r="K62" t="s">
+        <v>536</v>
+      </c>
+      <c r="L62" t="s">
+        <v>537</v>
+      </c>
+      <c r="M62" t="n">
+        <v>2</v>
+      </c>
+      <c r="N62" t="s">
+        <v>538</v>
+      </c>
+      <c r="O62" t="s">
+        <v>72</v>
+      </c>
+      <c r="P62" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>2</v>
+      </c>
+      <c r="R62" t="n">
+        <v>4</v>
+      </c>
+      <c r="S62" t="n">
+        <v>2</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>5</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s">
+        <v>539</v>
+      </c>
+      <c r="X62" t="s">
+        <v>540</v>
+      </c>
+      <c r="Y62" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>36637</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>542</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>543</v>
+      </c>
+      <c r="J63" t="s">
+        <v>544</v>
+      </c>
+      <c r="K63" t="s">
+        <v>545</v>
+      </c>
+      <c r="L63" t="s">
+        <v>546</v>
+      </c>
+      <c r="M63" t="n">
+        <v>4</v>
+      </c>
+      <c r="N63" t="s">
+        <v>547</v>
+      </c>
+      <c r="O63" t="s">
+        <v>53</v>
+      </c>
+      <c r="P63" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>4</v>
+      </c>
+      <c r="R63" t="n">
+        <v>4</v>
+      </c>
+      <c r="S63" t="n">
+        <v>5</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>5</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s">
+        <v>548</v>
+      </c>
+      <c r="X63" t="s">
+        <v>549</v>
+      </c>
+      <c r="Y63" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>36637</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>551</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>552</v>
+      </c>
+      <c r="J64" t="s">
+        <v>553</v>
+      </c>
+      <c r="K64" t="s">
+        <v>554</v>
+      </c>
+      <c r="L64" t="s">
+        <v>555</v>
+      </c>
+      <c r="M64" t="n">
+        <v>4</v>
+      </c>
+      <c r="N64" t="s">
+        <v>556</v>
+      </c>
+      <c r="O64" t="s">
+        <v>53</v>
+      </c>
+      <c r="P64" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>4</v>
+      </c>
+      <c r="R64" t="n">
+        <v>4</v>
+      </c>
+      <c r="S64" t="n">
+        <v>4</v>
+      </c>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>5</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s">
+        <v>557</v>
+      </c>
+      <c r="X64" t="s">
+        <v>558</v>
+      </c>
+      <c r="Y64" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>36637</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>560</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>561</v>
+      </c>
+      <c r="J65" t="s">
+        <v>562</v>
+      </c>
+      <c r="K65" t="s">
+        <v>563</v>
+      </c>
+      <c r="L65" t="s">
+        <v>564</v>
+      </c>
+      <c r="M65" t="n">
+        <v>5</v>
+      </c>
+      <c r="N65" t="s">
+        <v>565</v>
+      </c>
+      <c r="O65" t="s">
+        <v>220</v>
+      </c>
+      <c r="P65" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>5</v>
+      </c>
+      <c r="R65" t="n">
+        <v>5</v>
+      </c>
+      <c r="S65" t="n">
+        <v>5</v>
+      </c>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>5</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s">
+        <v>566</v>
+      </c>
+      <c r="X65" t="s">
+        <v>567</v>
+      </c>
+      <c r="Y65" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>36637</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>569</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>570</v>
+      </c>
+      <c r="J66" t="s">
+        <v>571</v>
+      </c>
+      <c r="K66" t="s">
+        <v>572</v>
+      </c>
+      <c r="L66" t="s">
+        <v>573</v>
+      </c>
+      <c r="M66" t="n">
+        <v>5</v>
+      </c>
+      <c r="N66" t="s">
+        <v>574</v>
+      </c>
+      <c r="O66" t="s">
+        <v>53</v>
+      </c>
+      <c r="P66" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>5</v>
+      </c>
+      <c r="R66" t="n">
+        <v>5</v>
+      </c>
+      <c r="S66" t="n">
+        <v>4</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>5</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s">
+        <v>566</v>
+      </c>
+      <c r="X66" t="s">
+        <v>567</v>
+      </c>
+      <c r="Y66" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>36637</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>576</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>577</v>
+      </c>
+      <c r="J67" t="s">
+        <v>571</v>
+      </c>
+      <c r="K67" t="s">
+        <v>578</v>
+      </c>
+      <c r="L67" t="s">
+        <v>579</v>
+      </c>
+      <c r="M67" t="n">
+        <v>5</v>
+      </c>
+      <c r="N67" t="s">
+        <v>565</v>
+      </c>
+      <c r="O67" t="s">
+        <v>53</v>
+      </c>
+      <c r="P67" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>5</v>
+      </c>
+      <c r="R67" t="n">
+        <v>4</v>
+      </c>
+      <c r="S67" t="n">
+        <v>5</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>5</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s">
+        <v>566</v>
+      </c>
+      <c r="X67" t="s">
+        <v>567</v>
+      </c>
+      <c r="Y67" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>36637</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>581</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>582</v>
+      </c>
+      <c r="J68" t="s">
+        <v>583</v>
+      </c>
+      <c r="K68" t="s">
+        <v>584</v>
+      </c>
+      <c r="L68" t="s">
+        <v>585</v>
+      </c>
+      <c r="M68" t="n">
+        <v>5</v>
+      </c>
+      <c r="N68" t="s"/>
+      <c r="O68" t="s"/>
+      <c r="P68" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>5</v>
+      </c>
+      <c r="R68" t="n">
+        <v>5</v>
+      </c>
+      <c r="S68" t="n">
+        <v>5</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>5</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s">
+        <v>586</v>
+      </c>
+      <c r="X68" t="s">
+        <v>587</v>
+      </c>
+      <c r="Y68" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>36637</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>589</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>590</v>
+      </c>
+      <c r="J69" t="s">
+        <v>591</v>
+      </c>
+      <c r="K69" t="s">
+        <v>592</v>
+      </c>
+      <c r="L69" t="s">
+        <v>593</v>
+      </c>
+      <c r="M69" t="n">
+        <v>4</v>
+      </c>
+      <c r="N69" t="s">
+        <v>574</v>
+      </c>
+      <c r="O69" t="s">
+        <v>72</v>
+      </c>
+      <c r="P69" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>4</v>
+      </c>
+      <c r="R69" t="n">
+        <v>5</v>
+      </c>
+      <c r="S69" t="n">
+        <v>5</v>
+      </c>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>5</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s">
+        <v>594</v>
+      </c>
+      <c r="X69" t="s">
+        <v>595</v>
+      </c>
+      <c r="Y69" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>36637</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>597</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>598</v>
+      </c>
+      <c r="J70" t="s">
+        <v>599</v>
+      </c>
+      <c r="K70" t="s">
+        <v>600</v>
+      </c>
+      <c r="L70" t="s">
+        <v>601</v>
+      </c>
+      <c r="M70" t="n">
+        <v>5</v>
+      </c>
+      <c r="N70" t="s">
+        <v>602</v>
+      </c>
+      <c r="O70" t="s">
+        <v>220</v>
+      </c>
+      <c r="P70" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>5</v>
+      </c>
+      <c r="R70" t="n">
+        <v>5</v>
+      </c>
+      <c r="S70" t="n">
+        <v>5</v>
+      </c>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>5</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s">
+        <v>603</v>
+      </c>
+      <c r="X70" t="s">
+        <v>604</v>
+      </c>
+      <c r="Y70" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>36637</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
+        <v>606</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>607</v>
+      </c>
+      <c r="J71" t="s">
+        <v>608</v>
+      </c>
+      <c r="K71" t="s">
+        <v>609</v>
+      </c>
+      <c r="L71" t="s">
+        <v>610</v>
+      </c>
+      <c r="M71" t="n">
+        <v>5</v>
+      </c>
+      <c r="N71" t="s">
+        <v>547</v>
+      </c>
+      <c r="O71" t="s">
+        <v>107</v>
+      </c>
+      <c r="P71" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>5</v>
+      </c>
+      <c r="R71" t="n">
+        <v>5</v>
+      </c>
+      <c r="S71" t="n">
+        <v>5</v>
+      </c>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>5</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s">
+        <v>611</v>
+      </c>
+      <c r="X71" t="s">
+        <v>612</v>
+      </c>
+      <c r="Y71" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>36637</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" t="s">
+        <v>614</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s">
+        <v>615</v>
+      </c>
+      <c r="J72" t="s">
+        <v>616</v>
+      </c>
+      <c r="K72" t="s">
+        <v>617</v>
+      </c>
+      <c r="L72" t="s">
+        <v>618</v>
+      </c>
+      <c r="M72" t="n">
+        <v>5</v>
+      </c>
+      <c r="N72" t="s"/>
+      <c r="O72" t="s"/>
+      <c r="P72" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>5</v>
+      </c>
+      <c r="R72" t="n">
+        <v>5</v>
+      </c>
+      <c r="S72" t="n">
+        <v>5</v>
+      </c>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>5</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s">
+        <v>619</v>
+      </c>
+      <c r="X72" t="s">
+        <v>620</v>
+      </c>
+      <c r="Y72" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>36637</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" t="s">
+        <v>622</v>
+      </c>
+      <c r="G73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" t="s">
+        <v>623</v>
+      </c>
+      <c r="J73" t="s">
+        <v>624</v>
+      </c>
+      <c r="K73" t="s">
+        <v>625</v>
+      </c>
+      <c r="L73" t="s">
+        <v>626</v>
+      </c>
+      <c r="M73" t="n">
+        <v>5</v>
+      </c>
+      <c r="N73" t="s"/>
+      <c r="O73" t="s"/>
+      <c r="P73" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>5</v>
+      </c>
+      <c r="R73" t="n">
+        <v>5</v>
+      </c>
+      <c r="S73" t="n">
+        <v>5</v>
+      </c>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>5</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s">
+        <v>627</v>
+      </c>
+      <c r="X73" t="s">
+        <v>628</v>
+      </c>
+      <c r="Y73" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>36637</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" t="s">
+        <v>630</v>
+      </c>
+      <c r="G74" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" t="s">
+        <v>631</v>
+      </c>
+      <c r="J74" t="s">
+        <v>632</v>
+      </c>
+      <c r="K74" t="s">
+        <v>633</v>
+      </c>
+      <c r="L74" t="s">
+        <v>634</v>
+      </c>
+      <c r="M74" t="n">
+        <v>5</v>
+      </c>
+      <c r="N74" t="s">
+        <v>635</v>
+      </c>
+      <c r="O74" t="s">
+        <v>53</v>
+      </c>
+      <c r="P74" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>5</v>
+      </c>
+      <c r="R74" t="n">
+        <v>5</v>
+      </c>
+      <c r="S74" t="n">
+        <v>5</v>
+      </c>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>5</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s">
+        <v>636</v>
+      </c>
+      <c r="X74" t="s">
+        <v>637</v>
+      </c>
+      <c r="Y74" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>36637</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>44</v>
+      </c>
+      <c r="F75" t="s">
+        <v>639</v>
+      </c>
+      <c r="G75" t="s">
+        <v>46</v>
+      </c>
+      <c r="H75" t="s">
+        <v>47</v>
+      </c>
+      <c r="I75" t="s">
+        <v>640</v>
+      </c>
+      <c r="J75" t="s">
+        <v>632</v>
+      </c>
+      <c r="K75" t="s">
+        <v>641</v>
+      </c>
+      <c r="L75" t="s">
+        <v>642</v>
+      </c>
+      <c r="M75" t="n">
+        <v>5</v>
+      </c>
+      <c r="N75" t="s">
+        <v>643</v>
+      </c>
+      <c r="O75" t="s">
+        <v>220</v>
+      </c>
+      <c r="P75" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>5</v>
+      </c>
+      <c r="R75" t="n">
+        <v>3</v>
+      </c>
+      <c r="S75" t="n">
+        <v>5</v>
+      </c>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>5</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s">
+        <v>636</v>
+      </c>
+      <c r="X75" t="s">
+        <v>637</v>
+      </c>
+      <c r="Y75" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>36637</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>44</v>
+      </c>
+      <c r="F76" t="s">
+        <v>645</v>
+      </c>
+      <c r="G76" t="s">
+        <v>46</v>
+      </c>
+      <c r="H76" t="s">
+        <v>47</v>
+      </c>
+      <c r="I76" t="s">
+        <v>646</v>
+      </c>
+      <c r="J76" t="s">
+        <v>647</v>
+      </c>
+      <c r="K76" t="s">
+        <v>648</v>
+      </c>
+      <c r="L76" t="s">
+        <v>649</v>
+      </c>
+      <c r="M76" t="n">
+        <v>5</v>
+      </c>
+      <c r="N76" t="s">
+        <v>643</v>
+      </c>
+      <c r="O76" t="s">
+        <v>220</v>
+      </c>
+      <c r="P76" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>4</v>
+      </c>
+      <c r="R76" t="n">
+        <v>4</v>
+      </c>
+      <c r="S76" t="n">
+        <v>4</v>
+      </c>
+      <c r="T76" t="s"/>
+      <c r="U76" t="n">
+        <v>5</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s">
+        <v>636</v>
+      </c>
+      <c r="X76" t="s">
+        <v>637</v>
+      </c>
+      <c r="Y76" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>36637</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>44</v>
+      </c>
+      <c r="F77" t="s">
+        <v>651</v>
+      </c>
+      <c r="G77" t="s">
+        <v>46</v>
+      </c>
+      <c r="H77" t="s">
+        <v>47</v>
+      </c>
+      <c r="I77" t="s">
+        <v>652</v>
+      </c>
+      <c r="J77" t="s">
+        <v>653</v>
+      </c>
+      <c r="K77" t="s">
+        <v>654</v>
+      </c>
+      <c r="L77" t="s">
+        <v>655</v>
+      </c>
+      <c r="M77" t="n">
+        <v>5</v>
+      </c>
+      <c r="N77" t="s">
+        <v>656</v>
+      </c>
+      <c r="O77" t="s">
+        <v>53</v>
+      </c>
+      <c r="P77" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>5</v>
+      </c>
+      <c r="R77" t="n">
+        <v>4</v>
+      </c>
+      <c r="S77" t="n">
+        <v>4</v>
+      </c>
+      <c r="T77" t="s"/>
+      <c r="U77" t="n">
+        <v>4</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s">
+        <v>636</v>
+      </c>
+      <c r="X77" t="s">
+        <v>637</v>
+      </c>
+      <c r="Y77" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>36637</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>44</v>
+      </c>
+      <c r="F78" t="s">
+        <v>658</v>
+      </c>
+      <c r="G78" t="s">
+        <v>46</v>
+      </c>
+      <c r="H78" t="s">
+        <v>47</v>
+      </c>
+      <c r="I78" t="s">
+        <v>659</v>
+      </c>
+      <c r="J78" t="s">
+        <v>660</v>
+      </c>
+      <c r="K78" t="s">
+        <v>661</v>
+      </c>
+      <c r="L78" t="s">
+        <v>662</v>
+      </c>
+      <c r="M78" t="n">
+        <v>5</v>
+      </c>
+      <c r="N78" t="s">
+        <v>656</v>
+      </c>
+      <c r="O78" t="s">
+        <v>220</v>
+      </c>
+      <c r="P78" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>4</v>
+      </c>
+      <c r="R78" t="n">
+        <v>4</v>
+      </c>
+      <c r="S78" t="n">
+        <v>5</v>
+      </c>
+      <c r="T78" t="s"/>
+      <c r="U78" t="n">
+        <v>5</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s">
+        <v>636</v>
+      </c>
+      <c r="X78" t="s">
+        <v>637</v>
+      </c>
+      <c r="Y78" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>36637</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>44</v>
+      </c>
+      <c r="F79" t="s">
+        <v>664</v>
+      </c>
+      <c r="G79" t="s">
+        <v>46</v>
+      </c>
+      <c r="H79" t="s">
+        <v>47</v>
+      </c>
+      <c r="I79" t="s">
+        <v>665</v>
+      </c>
+      <c r="J79" t="s">
+        <v>666</v>
+      </c>
+      <c r="K79" t="s">
+        <v>667</v>
+      </c>
+      <c r="L79" t="s">
+        <v>668</v>
+      </c>
+      <c r="M79" t="n">
+        <v>4</v>
+      </c>
+      <c r="N79" t="s">
+        <v>656</v>
+      </c>
+      <c r="O79" t="s">
+        <v>107</v>
+      </c>
+      <c r="P79" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>4</v>
+      </c>
+      <c r="R79" t="n">
+        <v>4</v>
+      </c>
+      <c r="S79" t="n">
+        <v>4</v>
+      </c>
+      <c r="T79" t="s"/>
+      <c r="U79" t="n">
+        <v>4</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s">
+        <v>636</v>
+      </c>
+      <c r="X79" t="s">
+        <v>637</v>
+      </c>
+      <c r="Y79" t="s">
+        <v>669</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_255.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_255.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="670">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="745">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>41ronf</t>
+  </si>
+  <si>
     <t>07/01/2018</t>
   </si>
   <si>
@@ -189,6 +192,9 @@
     <t>Friendly staff, clean rooms.  Good location for working in both Los Angeles and Orange Counties.  4 out of 5 stars.  Price very fair.  Not real close to many grocery stores.  Plenty of restaurants near by.  Overall good place, I will stay here again in the opportunity comes up.More</t>
   </si>
   <si>
+    <t>clintons734</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32580-d78393-r551992021-Extended_Stay_America_Los_Angeles_La_Mirada-La_Mirada_California.html</t>
   </si>
   <si>
@@ -216,6 +222,9 @@
     <t>I run back and forth from LA to Las Vegas and stay in this hotel 2 times a week and the staff are always amazing. They do a great job keeping the rooms clean and inviting. The front desk staff are really helpful and actually treat me like family not just a random person. More</t>
   </si>
   <si>
+    <t>rajeshr610</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32580-d78393-r547516214-Extended_Stay_America_Los_Angeles_La_Mirada-La_Mirada_California.html</t>
   </si>
   <si>
@@ -246,6 +255,9 @@
     <t>Excellent service..we enjoyed the stay. Staffs were good and nice. I was given some additional discount. Breakfast could have been better with more options. There were only some oats packets and some crackersMore</t>
   </si>
   <si>
+    <t>baikl</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32580-d78393-r506952077-Extended_Stay_America_Los_Angeles_La_Mirada-La_Mirada_California.html</t>
   </si>
   <si>
@@ -273,6 +285,9 @@
     <t>Great hotel and service. very quite and easy to go to any type of Restaurants within 10 minutes drive. Free Wifi but speed is a little slow.  can buy more speedy internet. Overall, this hotel is valuable.More</t>
   </si>
   <si>
+    <t>Chuxuan S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32580-d78393-r506090834-Extended_Stay_America_Los_Angeles_La_Mirada-La_Mirada_California.html</t>
   </si>
   <si>
@@ -300,6 +315,9 @@
     <t>Good location from Disneyland, average cleanness, over-zealous front office star, overall good value for money. Stove, oven, and full - size fridge provided.Particularly liked the recliner chair in the room.More</t>
   </si>
   <si>
+    <t>christinerB721EF</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32580-d78393-r502514976-Extended_Stay_America_Los_Angeles_La_Mirada-La_Mirada_California.html</t>
   </si>
   <si>
@@ -324,6 +342,9 @@
     <t>Rooms clean and comfortable beds. Towels were like sand paper and thin. Wifi worked 1/2 the time. No lobby or public restroom. No ice machine or coffee pot. No amenities at all! I will not recommend this place to anyone!More</t>
   </si>
   <si>
+    <t>Susie Y</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32580-d78393-r498441812-Extended_Stay_America_Los_Angeles_La_Mirada-La_Mirada_California.html</t>
   </si>
   <si>
@@ -351,6 +372,9 @@
     <t>Paper thin walls mean you can hear conversations from nearby rooms, doors closing, shower, and toilet flushing.  I will say that the service was excellent but will not be back due to the noise issue.More</t>
   </si>
   <si>
+    <t>Steven W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32580-d78393-r497893756-Extended_Stay_America_Los_Angeles_La_Mirada-La_Mirada_California.html</t>
   </si>
   <si>
@@ -375,6 +399,9 @@
     <t>I was surprised to find this hotel in the industrial area. All around the location are warehouses and factories. But it is a good place to stay and the only reason I gave it less than a 5 is its location. The people, breakfast, beds, and rooms are all great for the price. It is not a far drive to the restaurants and shops but don't expect to walk to the local restaurant.More</t>
   </si>
   <si>
+    <t>Kevin P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32580-d78393-r496589482-Extended_Stay_America_Los_Angeles_La_Mirada-La_Mirada_California.html</t>
   </si>
   <si>
@@ -399,6 +426,9 @@
     <t>First off, this is La Mirada.  The selection is somewhat limited in terms of hotels.  Pretty much you are looking at the Holiday Inn and Marriot Residence Inn and Extended Stay America.  I was here for a college reunion.The staff is very friendly, the location is a little off the beaten path but close enough to everything.  And it is near In N Out, so there's that.The room was clean, had plenty of room, everything worked fine.  The air conditioner worked great (I'm used to a little cooler climate by the beach).  There is no restaurant, but they do have laundry facilities.  It exceeded my expectations but hey, it isn't a 5 star hotel, so set your expectations accordingly.  For me, it was a pleasant place to stay, and offer all that I needed plus a little more.  Nina at the front desk was especially helpful and I found the staff overall to be excellent.  Reading some of the other reviews who were fairly critical, this hotel did very well for it's class of hotel.  If you want better accommodations, you can find them closer to Anaheim but it will cost a lot more.More</t>
   </si>
   <si>
+    <t>Sara S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32580-d78393-r469613581-Extended_Stay_America_Los_Angeles_La_Mirada-La_Mirada_California.html</t>
   </si>
   <si>
@@ -426,6 +456,9 @@
     <t>This is a good place to lay your head at night. There are lots of amenities I would prefer to have, but aren't non-negotiables for me.  I guess my biggest con to this hotel is that the hallways are dark and seem very enclosing.  Traveling in a group, I feel fine, but as a woman alone, I would feel very vulnerable. The coffee was weak, (often the case in hotels) and not available throughout the day, which I'm used to coffee being available on the fly in hotel lobbies. The rooms are ample and nice. Beds comfortable. The staff was REALLY nice and personable. Basically, for your money, this is the best you're gonna do in this area. More</t>
   </si>
   <si>
+    <t>mary h</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32580-d78393-r469127541-Extended_Stay_America_Los_Angeles_La_Mirada-La_Mirada_California.html</t>
   </si>
   <si>
@@ -453,6 +486,9 @@
     <t>The staff is great!!  They were helpful and friendly. We had our grandkids with us and th e staff added extra goodies to our kitchen package. The room was spacious and comfortable , the location convienent and quiet.  A great value for the price!More</t>
   </si>
   <si>
+    <t>rickyvilla2017</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32580-d78393-r465588270-Extended_Stay_America_Los_Angeles_La_Mirada-La_Mirada_California.html</t>
   </si>
   <si>
@@ -480,6 +516,9 @@
     <t>super nice and best one if been too but the food is nasty and the service is bad too but at the same time it is still good and there is alot of noisy kids so please try to make the hotel a adult only hotelMore</t>
   </si>
   <si>
+    <t>travelsinmygenes</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32580-d78393-r435967421-Extended_Stay_America_Los_Angeles_La_Mirada-La_Mirada_California.html</t>
   </si>
   <si>
@@ -495,6 +534,9 @@
     <t>The location was exactly what we needed while visiting our Biola University student.  The property is clean and in good condition.  There is a kitchenette in each room, but you have to ask for dishware and cookware.  No perks are offered; it is a bare-bones property.  That means bring your own hair dryer!There is a drive-through Starbucks just around the corner which we made good use of.</t>
   </si>
   <si>
+    <t>bmajor1</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32580-d78393-r427345831-Extended_Stay_America_Los_Angeles_La_Mirada-La_Mirada_California.html</t>
   </si>
   <si>
@@ -519,6 +561,9 @@
     <t>I stayed at this hotel one night for a wedding nearby, and it was the perfect solution for me. Check-in was smooth, easy, and pleasant. Staff was very nice and accommodating. My room was clean and the bed was very comfortable. Though it's right off the freeway, I didn't notice any freeway noise in the room. When I woke up and realized I had overslept, I called the front desk and asked for a late checkout, and the attendant didn't hesitate to tell me it was no problem at all. I can't speak about the breakfast since I woke up too late to take advantage of it. Overall, I was very happy with my stay.More</t>
   </si>
   <si>
+    <t>lauraS4169RL</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32580-d78393-r420175974-Extended_Stay_America_Los_Angeles_La_Mirada-La_Mirada_California.html</t>
   </si>
   <si>
@@ -546,6 +591,9 @@
     <t>I loved it. No issues. Clean with friendly people. I would highly recommend it. You will not go wrong staying here. Small kitchen is nice. Easy access. Nice beds. First floor rooms are larger and nicer (not advertised as such). Great surprise.More</t>
   </si>
   <si>
+    <t>Rick E</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32580-d78393-r400111066-Extended_Stay_America_Los_Angeles_La_Mirada-La_Mirada_California.html</t>
   </si>
   <si>
@@ -573,6 +621,9 @@
     <t>Very clean and spacious rooms with full kitchen and cooking utensils if needed.Beds are comfortable and clean.They are pet friendly and offer coffee and pastry every morning at 6 am which gets me off to a good start.More</t>
   </si>
   <si>
+    <t>Kelli C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32580-d78393-r398089211-Extended_Stay_America_Los_Angeles_La_Mirada-La_Mirada_California.html</t>
   </si>
   <si>
@@ -594,6 +645,9 @@
     <t>Room Was nice and clean .   Male Manager who has been there quite some time is the best!  Very Friendly and funny~   Other females not so much :(    Quick Breakfast includes oatmeal, piece of fruit and a snack bar or muffin.  Also included  tea and coffee.  Unfortunately during my 2 week stay it was the exact same thing everyday!  No pool, no business center  or fitness center which is hardly great for extended stay business travelers.  Also states free wifi??????  Hardly free wifi unless you just want to check your email ..  you can pay extra for faster wifi which is hardly at a normal bandwith!!!!    Imagine DIAL UP MODEMS !!!More</t>
   </si>
   <si>
+    <t>Carrie N</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32580-d78393-r397889696-Extended_Stay_America_Los_Angeles_La_Mirada-La_Mirada_California.html</t>
   </si>
   <si>
@@ -615,6 +669,9 @@
     <t>Great place to stay.  It is convenient and close to Disneyland and Biola University.  Easy access to the freeway.  Rooms always clean and the staff are very nice.  It's always easy to do business with them.   More</t>
   </si>
   <si>
+    <t>ycrownover</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32580-d78393-r382000094-Extended_Stay_America_Los_Angeles_La_Mirada-La_Mirada_California.html</t>
   </si>
   <si>
@@ -642,6 +699,9 @@
     <t>You can't go wrong here. From the property itself to the front desk and maintenance/housekeeping staff.  I travel as a single female and have been staying here off and on for three years. It has been a very good value as well as given me peace of mind during my stay.More</t>
   </si>
   <si>
+    <t>Michelle V</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32580-d78393-r381222430-Extended_Stay_America_Los_Angeles_La_Mirada-La_Mirada_California.html</t>
   </si>
   <si>
@@ -658,6 +718,9 @@
   </si>
   <si>
     <t>The front desk people were very friendly, attended to my needs right away, even when there was a woman there giving them a hard time. Location was fine for the reason I was there. It was so nice to have a kitchen to make dinner instead of eating fast food during my stay.More</t>
+  </si>
+  <si>
+    <t>Hector T</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32580-d78393-r376270698-Extended_Stay_America_Los_Angeles_La_Mirada-La_Mirada_California.html</t>
@@ -702,6 +765,9 @@
 Overall, it was a pleasant experience and it offered a clean place to lay my head for the night (or four). - The area was very safe and quiet, but if you're used to a few luxuries that most...I stayed here for a vacation trip to universal studios. I got the hotel for a very decent price.The staff was very accommodating and friendly. The room was also very cozy, clean and came with an abundant supply of towels. There was also a microwave, fridge, closet area, and two small burners in which you could do a bit of cooking. Cookware could be requested from the front desk.For Los Angeles, the price and quality of the room could not be beat, however there were a few minor drawbacks or sacrifices if you will : 1st, there was no room service, at least not for my stay. If we wanted new towels or sheets we needed to go to the front desk and request them. There is also no hairdryer in the room.2nd, the wifi was extreeeeeemely slow and in order to upgrade to an acceptable speed you needed to pay.3rd, the hotel offers breakfast, but their definition of breakfast is literally a selection basket of various packets of oatmeal, individually wrapped muffins, nutri-grain bars, and oranges. - There is no dining area so you needed to get what you needed and eat back in your room.Overall, it was a pleasant experience and it offered a clean place to lay my head for the night (or four). - The area was very safe and quiet, but if you're used to a few luxuries that most of the other hotels provide, then you might find yourself a little out of place. - For the price, I wouldn't mind staying again.More</t>
   </si>
   <si>
+    <t>tommytfc</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32580-d78393-r345672125-Extended_Stay_America_Los_Angeles_La_Mirada-La_Mirada_California.html</t>
   </si>
   <si>
@@ -727,6 +793,9 @@
   </si>
   <si>
     <t>I loved my stay. I took a king size bed so I could have the most room to spread out. The staff were excellent. Jennifer was more than helpful and friendly. The room was clean and the layout was perfect for me. I was working from my room on my desktop computer then enjoying the sights during the warm California winter. The bed was comfy, the kitchen adequate, the bathroom well laid out, the hotel secure. The building must have been remodeled. All the carpet and paint seemed fresh. You could however see the dirt around the light switches. This location is just a few hundred feet from the Santa Ana Freeway. It is in an warehousing district. Early mornings were often greeted with semis howling outside. The room door closers would often allow the door to boom so loud that the bed would shake. The air conditioner droned but I slept through it. The free WiFi is crappy. It will do email but to get something a bit better you have to pay extra. I paid $20 for a month. That upped the speed to just 2.5 Mbps. Pictures painted slowly and online video was pixelated. The kitchen sink ran slow. I reported it but nothing was done before I left. My weekly room cleaning was missed once but I had to check out early so it wasn't a problem.More</t>
+  </si>
+  <si>
+    <t>JayMazz</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32580-d78393-r337955987-Extended_Stay_America_Los_Angeles_La_Mirada-La_Mirada_California.html</t>
@@ -764,6 +833,9 @@
 Kitchen utensils need to be requested from office/lobby. Oddly, I brought my own. No, I didn't bring pots and pans! We just brought microwave dinners, beverages, plasticware, mugs. This works well with the small kitchen. It saves time and money on our first night. I suppose you could even whip up a small feast from scratch if that's your...Another stay at this property. This time during the 2nd week of December 2015. And yes, everything I wrote in August holds true (see post below).Once again Jennifer helped us out during her shift. I wouldn't be surprised if she recognized us. The late night check in staff were fast and offered us incidental items for free (bath soap, shampoo, dish soap, etc.), and I learned that you CAN check in late, after 11pm! There is a phone for this and the kind security staff in the very early hrs of December 11th pointed me in the right direction. The security staff are positioned right at the main door. They buzzed us in quickly.Thanks to a poster below for info about In n Out Burger. It's just a short drive north! Came in handy on one night of our weekend.I learned also that some rooms are a bit smaller than others. This time the smaller room made for a cramped corner near the AC/heater where the EZ chair sits. But this isn't a deal breaker by any means.Kitchen utensils need to be requested from office/lobby. Oddly, I brought my own. No, I didn't bring pots and pans! We just brought microwave dinners, beverages, plasticware, mugs. This works well with the small kitchen. It saves time and money on our first night. I suppose you could even whip up a small feast from scratch if that's your thing!Once again, this property played host to our Disneyland weekend for holiday time. I will gladly consider staying here AGAIN a 3rd time to save money if the price is in our budget, and deal with a very kind staff for our future Disneyland weekend. We don't spend much time at the hotel, but when we sleep and shower and get a fast grab-n-go b'fast in close proximity to the happiest place on earth, we are very satisfied!If going to any attractions in the OC area, I highly recommend this hotel 10-20min from the M&amp;F parking garage via freeway (depends on traffic), 20min to Knott's on surface streets. 45min to beaches.Thanks for another great stay. Everything we needed!More</t>
   </si>
   <si>
+    <t>Patti C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32580-d78393-r336923627-Extended_Stay_America_Los_Angeles_La_Mirada-La_Mirada_California.html</t>
   </si>
   <si>
@@ -782,6 +854,9 @@
     <t>The best stay ever.  Very relax, awesome customer services.  The staff was excellent and very knowledgeable. The location was prefect for our invite to a wedding.  What I like best was the staff very friendly.More</t>
   </si>
   <si>
+    <t>gregsf11</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32580-d78393-r313448946-Extended_Stay_America_Los_Angeles_La_Mirada-La_Mirada_California.html</t>
   </si>
   <si>
@@ -807,6 +882,9 @@
   </si>
   <si>
     <t>I would've loved to have a pool and a nice breakfast, but it seems like any hotel like that in OC costs a fortune. We were here on business and I wanted the place to be cheap and clean, with good free wi-fi. Kitchen would be nice too, so at least I could make that nice breakfast. And in these respects, this hotel delivered. There were no cleanliness issues. I actually like the lack of housekeeping. Having a full kitchen is nice. You have to ask for plates/cups/utensils, but so what?The free Wi-Fi worked well, at least in this Extended Stay America. You can also buy high speed internet, but that wasn't necessary. I've read that's not the case in some of the other ones around OC. It's nice to have a full recliner, particularly when the A/C turns on at night at random times and you need to place a large object between it and your bed. Best of all was the price. Even the cheapest hotel costs $50/night in OC these days, and with the priceline Express Deal, Extended Stay America is only a little north of that, but with better amenities.More</t>
+  </si>
+  <si>
+    <t>Stacy304</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32580-d78393-r310436016-Extended_Stay_America_Los_Angeles_La_Mirada-La_Mirada_California.html</t>
@@ -859,6 +937,9 @@
 Ironing board in closet w/ iron. AC worked well during the hottest day of the year (100*). Beds were comfy. Many...We were taking a couples trip to Disneyland Aug 14 to Aug 16. The hotel is less than 10mi to the park on I-5. Great quite location even though it is right near freeway. No noise. It's close to Knott's and other attractions too.Well stocked bathroom w/ tub shower combo. Plenty of towels. 4 of them for a single queen room. Wonderful temperature control and pressure in shower.Well lighted parking area with security cameras. Clean room and mini kitchen with full sized fridge. Makes it cheaper when you can cook your first meal upon arrival. Although, there is nothing in the immediate area (industrial zone). Stores are just a 3mi trip. Check in was easy as was check out. Grab n go b'fast isn't a lot, but is very convenient and coffee was fine with a muffin. It is free. Can't beat that!I give it five stars, but there were some negatives. Parking slots are too small. Bigger cars will need to take up 2 spaces in some cases. There seems to be enough parking slots though. There was an annoying long term resident with bad attitude while we were checking in. Not the hotels fault. The 11pm front desk closure is strange, just plan to get there before 11pm. No hair dryer in our room.Ironing board in closet w/ iron. AC worked well during the hottest day of the year (100*). Beds were comfy. Many electric outlets for the free wifi for your many devices. Large tv. Small dining table AND work desk. There's even a recliner in the corner to relax. A large open floor plan for a studio. Well dressed room in a modern style. Lots of storage compared to average hotel rooms.Jennifer was very nice at day shift front desk and very kind and VERY helpful for our needs. I hope management recognizes her hard work and friendly attitude. She even wished us well on our trip to Disneyland!We got a blind booking at a great price! At that price, I'd stay again. I would even consider staying at a slightly higher rate!If you are high maintenance, this maybe the wrong hotel for you. If you don't need nightlife and don't need restaurants and do have a car, its a wonderful place. It is safe and well secured. I would recommend for all traveler types including family groups.A great weekend getaway!Thanks for a great weekend stay!More</t>
   </si>
   <si>
+    <t>vlkan</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32580-d78393-r297544361-Extended_Stay_America_Los_Angeles_La_Mirada-La_Mirada_California.html</t>
   </si>
   <si>
@@ -883,6 +964,9 @@
     <t>We made online reservation in Turkey for this hotel based on the ratings. When we arrived hotel after 8 hours driving we shocked due to stupid, old fashioned check in process/formalities. If you live abroad, not the US residents, your credit card is not accepted by the hotel system even the same credit card is allowed to be used for making online reservation and total amount for the stay is blocked too,  so we do not have  problem on the card limits! Also, we used the same card for the last 3 days in the US at several shopping places, theme parks and hotels ( country Inn,  holiday Inn) we didn't face any problems.  We came the hotel just after long driving, my kids waited at the desk for stupid formalities starting from 9 pm to 1045 pm, they were getting  sleeping on the couch at the desk. hotel  guys asked us to pay whole amount in cash, which is over USD 1K!!!! Anyway,  after spending almost two hours at reception desk and talking to call centre, and  manager we were able to check in!!!!  It is not a good starting for a holiday. More</t>
   </si>
   <si>
+    <t>endang s</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32580-d78393-r292058589-Extended_Stay_America_Los_Angeles_La_Mirada-La_Mirada_California.html</t>
   </si>
   <si>
@@ -910,6 +994,9 @@
     <t>nice room, free hotel shuttle, tour agency pick up point. me and my family were very happy staying here. surely come back again. it will better if more flexible in check in or check out time. easy access to disneyland with hotel shuttleMore</t>
   </si>
   <si>
+    <t>patricia g</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32580-d78393-r286951176-Extended_Stay_America_Los_Angeles_La_Mirada-La_Mirada_California.html</t>
   </si>
   <si>
@@ -931,6 +1018,9 @@
     <t>Stayed for 10 days, room clean, friendly staff, comfortable bed and quiet room. Would like more TV channels but all in all a good stay.Close to my family and various attractions....exterior well maintainedMore</t>
   </si>
   <si>
+    <t>Sharon E</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32580-d78393-r274903780-Extended_Stay_America_Los_Angeles_La_Mirada-La_Mirada_California.html</t>
   </si>
   <si>
@@ -947,6 +1037,9 @@
   </si>
   <si>
     <t>May 2015</t>
+  </si>
+  <si>
+    <t>VEC24</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32580-d78393-r274051986-Extended_Stay_America_Los_Angeles_La_Mirada-La_Mirada_California.html</t>
@@ -979,6 +1072,9 @@
   If we were to visit this area again, I don't think I'd even look for another place to...This was our second stay at an Extended Stay, so we had some idea of what to expect.  The chain is able to give you better rates by cutting out the daily housekeeping that is done in other places that have suites.  They also don't have things like a pool or a gym.  Given that they have long-term guests, they do have a laundry room.  We stayed a week at this facility, but I think most of the guests stay for longer periods than that.  The guy checking in before me was staying through July for his work.  This particular Extended Stay is located just off the busy I-5, but we pretty much avoided it by heading north to Whittier and east to Brea where most of our business was.  It was just 15 minutes to either of these towns, so it was pretty central for us.  Even though we were near the freeway, I didn't hear any freeway noise.  We were happy with the large refrigerator in the unit as well as the counter space that our kitchen had.  We mostly ate out, but a few times we'd just heat up some microwave meals.  We already knew that their breakfasts were pretty poor, but SOCAL has donut shops at every major intersection, so we weren't lacking in the morning sweets department.  If we were to visit this area again, I don't think I'd even look for another place to stay.  This worked out very well for us and was very inexpensive by comparison to other places in the area.More</t>
   </si>
   <si>
+    <t>Mitch D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32580-d78393-r264183563-Extended_Stay_America_Los_Angeles_La_Mirada-La_Mirada_California.html</t>
   </si>
   <si>
@@ -1006,6 +1102,9 @@
     <t>La Mirada is our second Extended Stay we have lived in and it's by far the best one. The front office staff, maintenance and cleaning crew are very nice and friendly. The grounds around the building are well kept and the inside very nice and fresh. The morning breakfast has a nice variety of items to get your day going. Thank you to the entire La Mirada staff!The DanielsMore</t>
   </si>
   <si>
+    <t>Greg P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32580-d78393-r262179624-Extended_Stay_America_Los_Angeles_La_Mirada-La_Mirada_California.html</t>
   </si>
   <si>
@@ -1033,6 +1132,9 @@
     <t>A no-frills hotel in an industrial park area, surrounded by warehouses and distribution centers. No restaurants or shops within walking distance. Room and hallways were clean. Mattress and desk chair were very uncomfortable. Kitchen was nice but no oven, so not really a full kitchen as advertised. Also had to request all kitchen supplies instead of them being in the room already. Most of the staff were friendly, but Jessica had an attitude and so did the hotel manager. Customer service and friendliness to customers should be the number one priority, and this hotel would be much better if they improved that, but this seems to be a common issue across this chain of hotels.More</t>
   </si>
   <si>
+    <t>Winnie H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32580-d78393-r259699806-Extended_Stay_America_Los_Angeles_La_Mirada-La_Mirada_California.html</t>
   </si>
   <si>
@@ -1055,6 +1157,9 @@
   </si>
   <si>
     <t>The staff- Eli, Jennifer and Maria are kind and ALWAYS made sure that any concerns were handled quickly. The price is right, safety and security were always top notch.  No major problems. Parking good- well lit areas.  Breakfast was simple. Coffee hit the spot. Only amenities were free wifi and laundry room. Area is very industrial. Def need a car. More</t>
+  </si>
+  <si>
+    <t>Ashlan B</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32580-d78393-r259182109-Extended_Stay_America_Los_Angeles_La_Mirada-La_Mirada_California.html</t>
@@ -1084,6 +1189,9 @@
 However, the icing on the cake is when she was rude about my service dog, &amp; flat out told me if we did not allow her to violate my rights as outlined with the ADA, she would not let us stay any longer. 1) Against the ADA's...I have been debating writing a review for quite some time. On one hand, the rooms are fairly nice &amp; spacious. The housekeeping always did a great job, was very sweet, and I loved that the hotel is so quiet &amp; peaceful. On the other hand, most days if you want a hot bath you need to boil water for it, and other minor frustrations. Not big enough of a deal to switch hotels though! Overall it is a very comfortable place, &amp; we are very satisfied with the hotel itself.Regarding the night staff (particularly Eli?), they were fabulous. Eli is very polite, helpful, &amp; friendly. He definitely made our stay more enjoyable. He gets 5 stars from me! I wish every employee we run into on our travels was like him!However, the manager was quite the opposite of Eli... While she did try to work with us on some matters, overall she was rather callous &amp; unfriendly. I understand that some of our miscommunications were not ideal, and we appreciate her patience, but she never let us forget it. I tried being flexible &amp; friendly, but she responded with coldness. However, the icing on the cake is when she was rude about my service dog, &amp; flat out told me if we did not allow her to violate my rights as outlined with the ADA, she would not let us stay any longer. 1) Against the ADA's "guidelines," she demanded proof that he is a service dog--including registration evidence. This included doctor's notes &amp; his registration.  2) She also asked what illness I needed him for. Very humiliating, considering there were other guests present. It is especially upsetting, considering the letters from TWO doctors that she was given as " proof" already discussed my need. She didn't need me to vocalize it as well, but insisted I do so. Not only that, but the ADA has deemed it unacceptable to ask this of a service dog handler. She could have asked what tasks he performs, but she did not. Instead she asked a question which violates my rights.However, I knew if I did not comply to her stipulations she would no longer allow us to stay--&amp; we had no where else to go. So I announced to the room what illnesses I needed my dog for, after already showing her the proof she demanded. Despite my polite agreement to comply with her interrogation, she was still rude. I understand her desire to be thorough, and I felt sympathetic to her frustration that the company we work for did not notify them at booking-- so I complied anyway.I do appreciate her willingness to be flexible on the pet fee, which had not gotten paid at check in. However, I am very sorry to say I would never recommend this particular Extended Stay to a friend, &amp; as our office is equally as upset by the treatment of me and my dog, I do not anticipate additional employees being booking in this particular Extended Stay.More</t>
   </si>
   <si>
+    <t>Bruce S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32580-d78393-r249040034-Extended_Stay_America_Los_Angeles_La_Mirada-La_Mirada_California.html</t>
   </si>
   <si>
@@ -1111,6 +1219,9 @@
     <t>We stay at Extended Stay all the time, and the La Mirada Hotel very often.  The Staff is excellent, lead by the Manager, who you actually see, unlike most hotels.  The front desk staff, always say hi, and know most guests by name.  From Jen, Jessica, Maria, and Eliu are there to help in any way they can.  Jaime fixes what little think that may need repaired, and Hilda, the house keeper from heaven is amazing, we have cats and they are all children, and she makes sure when see cleans the room the cats are ok.  The best od all the hotel is very reasonable, this is a long term hotel, with a full kitchen.  The only negative is the TV is not the best, needs more channels.More</t>
   </si>
   <si>
+    <t>TravelDeFamly</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32580-d78393-r248844146-Extended_Stay_America_Los_Angeles_La_Mirada-La_Mirada_California.html</t>
   </si>
   <si>
@@ -1138,6 +1249,9 @@
     <t>Great for long stays and short to. clean , comfortable, large rooms, kitchens &amp; plenty of room for family or work , right off I-5 , a home away from home. staff is helpful and friendly Good Value for the $More</t>
   </si>
   <si>
+    <t>Tater_chicken</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32580-d78393-r236641382-Extended_Stay_America_Los_Angeles_La_Mirada-La_Mirada_California.html</t>
   </si>
   <si>
@@ -1165,6 +1279,9 @@
     <t>This hotel was clean and comfortable, easy to find, centrally located. The room was clean, quiet and comfortable. The only downside was you must ask for any room amenities during check in (hair dryer, coffee maker, plates, silverware, cups, etc). Since we were not told on the website nor at check in, we didn't know and didn't bother to do so after getting settled in room. We would recommend this hotel and would stay here again.More</t>
   </si>
   <si>
+    <t>Spezal</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32580-d78393-r227814854-Extended_Stay_America_Los_Angeles_La_Mirada-La_Mirada_California.html</t>
   </si>
   <si>
@@ -1187,6 +1304,9 @@
   </si>
   <si>
     <t>I've been staying here off and on, the manager Katharina is very nice and professional, the staff is very nice and attentive to your needs. I had no complaints about anything, it's very reasonable and peaceful if you need a place to stay for a few days.More</t>
+  </si>
+  <si>
+    <t>Keridwyn R</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32580-d78393-r221230972-Extended_Stay_America_Los_Angeles_La_Mirada-La_Mirada_California.html</t>
@@ -1219,6 +1339,9 @@
 The first night at the hotel went fine. Any noises we...I stayed here for 3 nights at the beginning of August, to attend the Hard Summer music festival nearby in South El Monte. It was a challenge finding a new hotel as the one we'd stayed at in previous years for this event was charging almost double per night what we had been paying. We chose this hotel since some friends were staying at the Residence Inn down the road but with no one joining the two of us, this was much more affordable.Check in was slow but it wasn't a big deal. There was one person at the desk and while he was chatty and very courteous, it was a little frustrating that he didn't pick up his pace at all with 4 different parties waiting in line. He did offer us toiletries before we went up to our room, since they are not included in the housekeeping automatically.Getting to our room, it had a weird smell. It was like someone had eaten Mexican food, like tacos, in the room earlier. We opened a window and the smell was aired out within a half hour at most. The room was really clean and the bathroom was spotless. We had plenty of towels and the water pressure and water temperature were really great. Sometimes hotel showers are really weak but this one was great for washing hair.The first night at the hotel went fine. Any noises we could hear in the hallway walking to our room (like a baby crying), we couldn't hear from inside our room at all. The Showtime schedule was for the previous month - not a big deal since we checked in August 1, but it would have been nice to know what was on.When we woke up Saturday, we asked for some dishes and utensils as well as a coffee maker. They usually deliver them to the room but the front desk attendant was busy, so we retrieved the plastic bin of stuff ourselves. Our only complaints were no napkins or paper towels were included, and they gave us a coffeemaker but no coffee!!The second night at the hotel was what brought this stay down to 3 stars. We got back from the event, tired, dirty, and wet from the rain. Trying to relax and get some rest before the next day wasn't so easy with a fire alarm going off frequently. The alarm in our room only went off a few times, but every 10-15 seconds, I could hear a lone alarm going off from down the hall. This lasted maybe 20 minutes before a fire truck arrived to investigate. This hotel has no staff present from 11pm-7am, so I don't know if anyone even explained to the firefighters that it was a false alarm. Eventually the alarm stopped going off and the fire truck left. By then I think it was 2 or 3 in the morning.Sunday night was a lot better and check out was a breeze. I called at 10am to ask if we could extend our check-out to noon and got a yes very easily. We even got out a little later, around 12:20 but it was fine.There isn't much right near the hotel, like in walking distance, but a short 10 minute drive will take you to Target and tons of restaurants from sit-down to fast food. The hotel is really close to the 5 freeway which was very convenient. Golf 'n' Stuff is a mini golf and activities place a few miles up the freeway. We love mini golf so we had to stop there and it was great. If you have kids, they would love this place.Also, the wifi is free but pretty slow. You can pay to upgrade your speed, so I assume people there on business or for longer than a few nights would do that. I wasn't willing to pay so I suffered slow internet.More</t>
   </si>
   <si>
+    <t>pinkpegasus1019</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32580-d78393-r220305907-Extended_Stay_America_Los_Angeles_La_Mirada-La_Mirada_California.html</t>
   </si>
   <si>
@@ -1246,6 +1369,9 @@
     <t>This hotel is the best long term stay hotel I have ever been in ! From the front desk clerks  which are always friendly ,polite and ready to assist you , to the maintence and housekeeping  which are the nicest people also to the Manager , these people are ready and willing to go above and beyond  the norm to be helpful. Even the security guard is  great , always patrolling the area late at night . This is the second time here for my family and if ever we come back for a long time , (9 months the first time , almost a year now )  this will definitely be our choice !More</t>
   </si>
   <si>
+    <t>GlennBU</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32580-d78393-r218076427-Extended_Stay_America_Los_Angeles_La_Mirada-La_Mirada_California.html</t>
   </si>
   <si>
@@ -1273,6 +1399,9 @@
     <t>My girl friend and I were totally happy with our two night stay at ESA La Mirada. We stayed here in 2010 , and they have upgraded the rooms very well. The only down side was the sort foot steps you could hear thru your ceiling, and the a/c would occasionally make some quite rattle. Neither interrupted my sleep. I wish they had a swimming pool or a spa, but even with no pool, I will stay here again.More</t>
   </si>
   <si>
+    <t>ItzMR2u</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32580-d78393-r207581074-Extended_Stay_America_Los_Angeles_La_Mirada-La_Mirada_California.html</t>
   </si>
   <si>
@@ -1297,6 +1426,9 @@
     <t>There isn't a whole lot to choose from around here but this was a nice room at a great price and I like that it's located away from the other hotels and resturants down the street where there is a lot more activity which usually means noise.  The room was clean, the staff was pleasent and as far as noise there wasn't any so that's a big + in my book.More</t>
   </si>
   <si>
+    <t>destinationdoc</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32580-d78393-r203589055-Extended_Stay_America_Los_Angeles_La_Mirada-La_Mirada_California.html</t>
   </si>
   <si>
@@ -1321,6 +1453,9 @@
     <t>The hotel was newly renovated with very basic materials. It is nothing fancy, for sure. The location is typical for other hotels in the La Mirada area, though this hotel seemed quieter than others in the area (Fairfield Inn and Suites- Buena Park, for instance). Hotel staff were exceptional and compensated somewhat for this minimalist hotel. The bed was very comfortable and the kitchen had all the essentials. Essentially, you get what you pay for.More</t>
   </si>
   <si>
+    <t>Sohil74</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32580-d78393-r194797646-Extended_Stay_America_Los_Angeles_La_Mirada-La_Mirada_California.html</t>
   </si>
   <si>
@@ -1348,6 +1483,9 @@
     <t>Its a moderate hotel. Not close to the reviews and ratings available. Its located in a commercial neighborhood. However the rooms are well equipped and well furnished. Room cleaning is done weakly. They only provide a poor quality soap. there is no shampoo etc..They only have cereal in breakfast &amp; no breakfast area. Its as good as having no breakfast. I wouldn't stay here again though the rooms are fairly good.More</t>
   </si>
   <si>
+    <t>BiolaParent</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32580-d78393-r193664110-Extended_Stay_America_Los_Angeles_La_Mirada-La_Mirada_California.html</t>
   </si>
   <si>
@@ -1372,6 +1510,9 @@
     <t>We did not spend much time other than sleeping in this hotel (visiting just for the weekend), but overall our stay was excellent.  The room appeared recently renovated and very pleasantly decorated.  Clean. Staff was very friendly! A few forgotten items were available no charge.  There are no hair dryers in the room, but the front desk cheerily provided one that we could keep throughout our stay.  The grab and go breakfast completely fit our needs in the morning.  Beds are pretty firm.  Would definitely stay here again!More</t>
   </si>
   <si>
+    <t>jschag</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32580-d78393-r192183869-Extended_Stay_America_Los_Angeles_La_Mirada-La_Mirada_California.html</t>
   </si>
   <si>
@@ -1396,6 +1537,9 @@
     <t>Great staff, rooms are clean, current and feels more like an apartment than a hotel!! Great job on the new upgrades!!  Eliu like the rest of the staff are ROCKSTARS always positive &amp; friendly!! Keep up the great job!! More</t>
   </si>
   <si>
+    <t>Michael Mo A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32580-d78393-r183882350-Extended_Stay_America_Los_Angeles_La_Mirada-La_Mirada_California.html</t>
   </si>
   <si>
@@ -1411,6 +1555,9 @@
     <t xml:space="preserve">Room itself was alright. However, they don't provide shampoo nor hairdryer. We called the front desk. They told us to come down and get them. What a service. They didn't even have conditioner. Even though the price was reasonable, we would not return there. </t>
   </si>
   <si>
+    <t>Spoonfeeding</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32580-d78393-r181184831-Extended_Stay_America_Los_Angeles_La_Mirada-La_Mirada_California.html</t>
   </si>
   <si>
@@ -1450,6 +1597,9 @@
     <t>September 2013</t>
   </si>
   <si>
+    <t>MarfaJB</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32580-d78393-r176788263-Extended_Stay_America_Los_Angeles_La_Mirada-La_Mirada_California.html</t>
   </si>
   <si>
@@ -1474,6 +1624,9 @@
     <t>Katharina Miller is the manager and she is great at what she does. Very helpful, runs an amazing hotel and surrounds herself with a great staff. Jen and Daniella are endlessly helpful in every way possible. Always willing to answer any question you may have and if they don't have the answer off the top of their heads they go above and beyond to find the answer. They are always asking how your day is going or if you need anything. Both Jen and Daniella even congratulated my husband on finding a new job. You won't find that kind of personal interest at most hotels. Eliu is very willing to help. He always has kind words for all guests. The hotel is exceptional. Always clean and if you have to report that something is broke, it is fixed in a timely fashion. There is never a need to report it a second time. Because of the friendliness and urge to help of Katharina, Jen, Daniella and Eliu...staying here is the closest thing you will get these days to a "Mayberry" like atmosphere. More</t>
   </si>
   <si>
+    <t>Thearellanos4</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32580-d78393-r175762798-Extended_Stay_America_Los_Angeles_La_Mirada-La_Mirada_California.html</t>
   </si>
   <si>
@@ -1492,6 +1645,9 @@
     <t>We stayed there with my husband and two babies during our visit to Disney land. As soon as we arrived our key didn't work so we had to go replace it , no problem no big deal we are pretty reasonable people. So the room smelled slightly like cigarettes but I had an air freshener with so just sprayed the whole place. The next morning we headed to the theme park and returned until midnight to our surprise our key didn't work. This time we got upset bcuz we each were holding a kid in our arms plus other bags and we had to go back down to the lobby for a new key. We checked out the next morning but unfortunately before leaving we spotted a huge cockroach by the bed. Ugh! For us that was the first and last time at this place. The beds are okay, and we needed more towels. They only had 1. Besides that the hotel is so close to the freeway if you are planning to travel.  More</t>
   </si>
   <si>
+    <t>Linda W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32580-d78393-r175625741-Extended_Stay_America_Los_Angeles_La_Mirada-La_Mirada_California.html</t>
   </si>
   <si>
@@ -1516,6 +1672,9 @@
     <t>Friendly staff, comfy beds and clean room. The only con was a conflict between the online registration and the actual availability, but it was not a big deal. My husband found a 20% off discount online as well.More</t>
   </si>
   <si>
+    <t>TilliefromVegas</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32580-d78393-r171274044-Extended_Stay_America_Los_Angeles_La_Mirada-La_Mirada_California.html</t>
   </si>
   <si>
@@ -1540,6 +1699,9 @@
     <t>Mold  in  the  shower,  brochures  and  water  bottles  left  from  prior  guests,  went 3  days  without  clean  towels  because  the  ran  out.  And  the  area  is  very  industrial  with  no  restaurants  or stores  nearby.  Horrible  experience  overall.More</t>
   </si>
   <si>
+    <t>Haunting</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32580-d78393-r167239434-Extended_Stay_America_Los_Angeles_La_Mirada-La_Mirada_California.html</t>
   </si>
   <si>
@@ -1564,6 +1726,9 @@
     <t>My family and I had a wonderful experience! Pleasant staff, large room, comfortable bed and pillows, grab and go breakfast was VERY fresh!We were astonished to see it had a full kitchen with a stove, oven, full refrigerator, microwave, and dishes and utensils. :-) very nice indeed!More</t>
   </si>
   <si>
+    <t>lori m</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32580-d78393-r165468775-Extended_Stay_America_Los_Angeles_La_Mirada-La_Mirada_California.html</t>
   </si>
   <si>
@@ -1591,6 +1756,9 @@
     <t>my review is simple. extended stay lamirada has always been one of my favorite places to stay when needed. clean,close to family. Daniella, who works the front office really and i mean really saved the day for us when another employee got my reservation mixed up and my roon got sold. Daniell saw how upset and stressed i was about this and she went out of her way to get us a room. she was friendly, professional, sweet,. kind and most of all very caring and seemed very concerned about the mix up with the other employee. Extended stay lamirada really needs to make Daniella an example how of all extended stay of america employees should behave and conduct themselves at at work. after all you do spend a pretty penny to stay at extended stay ,which is worth it, and the last thing you need is to be greeted by someone who is loud, unprofessinal, and just messing around at the desk. DANIELLA THANK YOU AGAIN FOR YOUR KINDNESS. YOUR ARE GREAT AND THE NEXT TIME I STAY THERE I HOPE TO SEE YOU......KEEP UP THE GOOD WORK!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!More</t>
   </si>
   <si>
+    <t>JSafranek</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32580-d78393-r161660583-Extended_Stay_America_Los_Angeles_La_Mirada-La_Mirada_California.html</t>
   </si>
   <si>
@@ -1618,6 +1786,9 @@
     <t>We stayed at this hotel during our visit to La Mirada to attend my nephew's graduation from Talbot Seminary.  I was extremely pleased with the hotel.  There was adequate parking close to entrances.  Our room had a complete kitchen with microwave, stove and frig.  Everything in the room was clean and well maintained.  The staff were extremely friendly and helpful.  I would stay there again.More</t>
   </si>
   <si>
+    <t>Matt s</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32580-d78393-r161653991-Extended_Stay_America_Los_Angeles_La_Mirada-La_Mirada_California.html</t>
   </si>
   <si>
@@ -1636,6 +1807,9 @@
     <t>Would like to let everyone know that if you need a great place to stay at a very reasonable price, this is your place.  If it is overnight or a long term situation this is your place.  Great kitchen, with 2 burner stove, ref, coffee pot, toaster, dishes.  We stayed here long term and found that the stay is amazing.  The manager katharina is very helpful and goes out of her way to help anyway she can.  Jennifer, Eliu, Nena, and the new addition  Daniela are all very helpful.  We deal with Jen almost everyday and she is great and as gone above and beyond to make sure that we have everything we need.  The rare occasion that you need maintenance Jaime is all over it, fixing whatever you need to have repaired.  Your weekly room service is always great with Hilda doing all she can to keep thing neat and clean.We have stayed here on and off for right at a year now and it as really been like home for us.More</t>
   </si>
   <si>
+    <t>Paul W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32580-d78393-r161546168-Extended_Stay_America_Los_Angeles_La_Mirada-La_Mirada_California.html</t>
   </si>
   <si>
@@ -1663,6 +1837,9 @@
     <t>I'm a business traveler; often with stays lasting several weeks.  Knowing my tenure, places to eat and other services were quickly pointed out.  The facility had a conveniently located washer and dryer area and the early morning coffee and snacks were appreciated.  However, above all, the employees quickly knew my name and addressed me as such with every encounter.  That bit of "customer service" took the edge off of being away from home.More</t>
   </si>
   <si>
+    <t>AJ W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32580-d78393-r160367745-Extended_Stay_America_Los_Angeles_La_Mirada-La_Mirada_California.html</t>
   </si>
   <si>
@@ -1690,6 +1867,9 @@
     <t>We stayed here while checking out a nearby university for our youngest child.  It is adequate, but it is not cozy or homey.  It definitely seems designed for minimal services; it's more do-it-yourself.  Of course, that's the point of an "extended-stay" inn, I guess, but it was less than charming.  Also, our room smelled stale in some way.  The complimentary breakfast really amounted to next to nothing.  We've decided to not use this location again.  However, I must say that the staff we met here were kind, extremely helpful, polite, and very nice!More</t>
   </si>
   <si>
+    <t>Kevin B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32580-d78393-r158720040-Extended_Stay_America_Los_Angeles_La_Mirada-La_Mirada_California.html</t>
   </si>
   <si>
@@ -1717,6 +1897,9 @@
     <t>Staff is very friendly and helpful. Eliu,Jen and Nina they go the extra mile to make your stay enjoyable .cant beat the price plenty of restaurants in the area,  I would stay here again when I'm back on the westMore</t>
   </si>
   <si>
+    <t>joereilly</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32580-d78393-r157099791-Extended_Stay_America_Los_Angeles_La_Mirada-La_Mirada_California.html</t>
   </si>
   <si>
@@ -1744,6 +1927,9 @@
     <t>Extended Stay America is a great value for the money. The rooms are clean and pretty quiet overall. The kitchenette is a primary reason that I return to ESA properties throughout the country.This facility's staff was extremely friendly, helpful and accommodating. Greeted daily with a smile and a "Wish for a good day". Any issue that came up was handled immediately, though there were few issues.There is a lingering smoke smell on the 3rd floor hallway but I was on the 3rd floor and my room had no stale smoke smell.My stay was for nearly 3 months and for any business traveller I'd recommend this property highly.If you expect 5-star accommodations then you should look elsewhere but you should also understand the cost associated with a 5-star property. You do get more than you pay for here and it IS a good value for the price paid.More</t>
   </si>
   <si>
+    <t>norma c</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32580-d78393-r154350017-Extended_Stay_America_Los_Angeles_La_Mirada-La_Mirada_California.html</t>
   </si>
   <si>
@@ -1771,6 +1957,9 @@
     <t>Our 23 day stay at this location was impressive in terms of reasonable rates, a diligent and helpful staff, and overall comfort.  It was our "home away from home" where we felt safe and secure for the duration of our trip.  The property's located in a business park and although near a freeway, the noise level was not even an issue.  Our thanks to the expertise staff of Eliu, Nena and Jennifer for making our stay an enjoyable and positive experience!Jim and Norma C.Bowling Green, OHMore</t>
   </si>
   <si>
+    <t>Hayddie O</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32580-d78393-r154052293-Extended_Stay_America_Los_Angeles_La_Mirada-La_Mirada_California.html</t>
   </si>
   <si>
@@ -1792,6 +1981,9 @@
     <t>My husband and I have been staying here since December 29, 2012 due to my husband's new job transfer. From the time we booked this hotel, Nena was very helpful in negotiating a very good rate for us. The staff, which includes Jennifer, Eliu, and Nena are all very nice and helpful. The new manager, Katharina, is also accommodating. Jaime, the maintenance guy, reports within 5 minutes of my maintenance requests. I think I asked for help 3x during our stay, and he knocks at the door within 5 minutes. The housekeepers, Irma and Eva are great in keeping the room clean. The breakfast bar is also a welcome sight in the morning; with a choice of oatmeal, muffins, cereal bars, fruits, and coffee/tea. I feel so at home in this hotel because they treat you as family, they even know you by name. I am so grateful that we chose ESA- La Mirada among the more expensive hotels nearby. Nadia, the Operations Manager, is also very accommodating when I reached her via voicemail and email. I can't complain about anything in this "homey hotel".More</t>
   </si>
   <si>
+    <t>Craig C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32580-d78393-r154039123-Extended_Stay_America_Los_Angeles_La_Mirada-La_Mirada_California.html</t>
   </si>
   <si>
@@ -1807,6 +1999,9 @@
     <t>Have stayed at many of these properties over the last seven years and they are always nice but this one has been most impressive yet. The staff has been very gracious, Jenifer, Eliu and Nena are the best I hope the manager knows what she has in them.The grounds are well kept and seem to be very secure. For sure is one of the quietest hotels Iv'e ever stayed at. My room is the same as always and very clean.Woot, Woot for this hotel as always the Extended Stay makes me feel at home the best they can and for that thank you..More</t>
   </si>
   <si>
+    <t>Roach28</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32580-d78393-r152278000-Extended_Stay_America_Los_Angeles_La_Mirada-La_Mirada_California.html</t>
   </si>
   <si>
@@ -1831,6 +2026,9 @@
     <t>The rooms are the best! You usually pay more for the things they provide. Best stay I've ever had at a hotel. Highly Recommended. If you're looking for an inexpensive but awesome place to stay, check out Extended Stay America - La Mirada. More</t>
   </si>
   <si>
+    <t>Frieda_12345</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32580-d78393-r151384703-Extended_Stay_America_Los_Angeles_La_Mirada-La_Mirada_California.html</t>
   </si>
   <si>
@@ -1855,6 +2053,9 @@
     <t>I highly recommend this hotel for travelers who have to watch their budget. We saved enough on this hotel (over a nearby Holiday Inn, for example) to pay for our car. We loved having a refrigerator; others might appreciate the microwave. The staff were all wonderful: super friendly and helpful. The room was clean. The towels are thin, of course. They don’t make up your room at all (unless you want to pay extra), but they will exchange towels for free any time you need them. The room had an iron and a TV, and we brought our own hair dryer. Morning coffee is better than that in many hotels, and is free, along with a muffin and piece of fruit  and instant oatmeal (also more than you get in many places.) We have stayed here twice since the first trip, and will continue to stay here on our visits to this area.More</t>
   </si>
   <si>
+    <t>kimalayas</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32580-d78393-r150896748-Extended_Stay_America_Los_Angeles_La_Mirada-La_Mirada_California.html</t>
   </si>
   <si>
@@ -1882,6 +2083,9 @@
     <t>If you are looking for a place to stay for a day or two or for any length of time, look no further.  ESA is really a nice accomomodating location.  One of the main reasons we came here is that they are pet friendly.  The house keeping staff goes out of there way to accomodate our pets.  We have Hilda and Irma both do our room and they are the best, anything you need they are more than happy to get for you.  The front desk staff is the best..Jennifer..Nena and Eliu are always smiling anxious to assist and just very nice to talk to.  Katharina the manager is always there to help as well, she is new but seems to catching on very quickly and is fitting in well with the Family Atmosphere and concept I believe they are trying to achieve.  Jaime is always there if you have any mainteneance issues, always done with a smile!!!    The grab and go breakfast is always nice but its wonderful that all the rooms have a kitchen so you can cook.  I also like the fact that if you come in late they have security in the parking lot after 11pm.  Great place to stay and I would highly recommend ESA to everyone.More</t>
   </si>
   <si>
+    <t>Chandra N</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32580-d78393-r148443759-Extended_Stay_America_Los_Angeles_La_Mirada-La_Mirada_California.html</t>
   </si>
   <si>
@@ -1906,6 +2110,9 @@
     <t>I stayed in this hotel for the past 4 months.The staff here are very friendly and helpful.  Wonderful staff!  The rooms are pretty standard.  I loved the Kitchen and the break fast. The Hotel is centraly located to many attractions.The lobby is welcoming and has an upscale, modern look and feel. The front desk staff (Eliu ,and Nena)are very accommodating &amp; would be enthusiastic to serve the customers.  I would strogly recomend visitors to stay in this hotel.More</t>
   </si>
   <si>
+    <t>Chikis01</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32580-d78393-r148152742-Extended_Stay_America_Los_Angeles_La_Mirada-La_Mirada_California.html</t>
   </si>
   <si>
@@ -1930,6 +2137,9 @@
     <t>I stayed here early December and I loved my stay. The staff is very friendly and the rooms are very cleaned. A little hard to find but a great find!                                       I came here to visit family and the hotel is centraly located to many attractions. I loved the kitcken and the breakfast but mainly the staff. More</t>
   </si>
   <si>
+    <t>AdrieMDS</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32580-d78393-r145568560-Extended_Stay_America_Los_Angeles_La_Mirada-La_Mirada_California.html</t>
   </si>
   <si>
@@ -1954,6 +2164,9 @@
     <t>I stayed here while I was looking for a new appartment. The staff is SO EXTREMELY FRIENDLY that I had to review this hotel when I barely take the time to write reviews! Jennifer, Nena and Eliu (Front Desk Staff) Thank you for a great experiences and for making me feel at home when I had the craziest moment of my year trying to relocate. I hope this review encourages the readers to stay here because, other than that, rooms are clean, cozy and spacious and the common areas are intact. Plus you have a washing room, vending machines and a lot of parking spots available with an entrance door always near. And if you need fast food, restaurants, supermarket, farmacy and ELSE ... Its not more than 10 min drive away! Ok... No more to say! I really enjoyed my stay and it made a pleasurable transfer/move!!! :D :D :DMore</t>
   </si>
   <si>
+    <t>Alonzo A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32580-d78393-r134072095-Extended_Stay_America_Los_Angeles_La_Mirada-La_Mirada_California.html</t>
   </si>
   <si>
@@ -1999,6 +2212,9 @@
     <t>We were looking for a place that would could stay for several weeks if need be so we contacted ESA in La Mirada, from the original conversation on the phone with Sadie we were pleasantly surprised at how friendly and knowledable she was.  Once we arrived at the hotel to check in the excellent customer service from Sadie was like a breath of fresh air, always a smile on her face and very willing to help anyway she could.  The rates are excellent and room was very clean and inviting.  The girls that work in housekeeping are very accomodating and go out of their way to get you anything you might need to make your stay more comfortable. I have worked in the customer service field for over 20 yrs and I realize good customer service is a dying breed, however after dealing with Sadie, Carlos and the rest of the staff the have made me realize that there is still excellent service to be had.  Would strongly recommmend ESA to everyone and anyone.  I must say that after reading the review "Condescension at the front desk" I was truly taken a back as I have been here almost two weeks and have never heard or seen anything that was mentioned in that review, just the opposite!!More</t>
   </si>
   <si>
+    <t>LarryJDennis</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32580-d78393-r133779816-Extended_Stay_America_Los_Angeles_La_Mirada-La_Mirada_California.html</t>
   </si>
   <si>
@@ -2017,6 +2233,9 @@
     <t>I work for the Government and have stayed in Hotels all over the nation…my experience with Extended Stay America was Excellent and I will use them again in my travels.The front desk staff were absolutely amazing and the quality of the hotel and services exceeded my expectations!The management should be proud that their staff clearly represent quality service and high standards...More</t>
   </si>
   <si>
+    <t>bruceG450</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32580-d78393-r131858308-Extended_Stay_America_Los_Angeles_La_Mirada-La_Mirada_California.html</t>
   </si>
   <si>
@@ -2038,6 +2257,9 @@
     <t>I have had the great pleasure to stay at the Extended Stay America in La Mirada CA on several trips to the area.I am senior auditor for a consulting firm and travel 40 weeks out of 52 weeks per year.I used to stay at the Holiday Inn (full service up the street .75 miles), after having tried the ESA I never gone back.  The rates were significantly less, for the better service. The staff is one of the best I have encounter over the years.The hotel has undergone some renovations that make it very pleasing, both inside and outside.  The renovations have given it a more at home feeling.  The latest was the introduction of the morning continental style breakfast.  Ready for me as I am heading out the door at 6 AM.More</t>
   </si>
   <si>
+    <t>roy a</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32580-d78393-r131176201-Extended_Stay_America_Los_Angeles_La_Mirada-La_Mirada_California.html</t>
   </si>
   <si>
@@ -2054,6 +2276,9 @@
   </si>
   <si>
     <t>My name is Sol and me and my partner Roy checked in between May 19 and 26, 2012. Just want to commend Ellio and Nina for their very hospitable and professional care they showed us during our stay. Ellio is a delight to have at the desk, very intelligent, very funny too.The morning staff was just as kind and helpful.Room 312 was just perfect for our stay. Thank you also for the cleaning staff for finding and bringing Popops to the desk.More</t>
+  </si>
+  <si>
+    <t>ValleyGirl4u</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32580-d78393-r129795503-Extended_Stay_America_Los_Angeles_La_Mirada-La_Mirada_California.html</t>
@@ -2576,43 +2801,47 @@
       <c r="A2" t="n">
         <v>36637</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>146287</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>4</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="n">
         <v>4</v>
@@ -2634,56 +2863,60 @@
         <v>0</v>
       </c>
       <c r="W2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Y2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>36637</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>146288</v>
+      </c>
+      <c r="C3" t="s">
+        <v>58</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="J3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="M3" t="n">
         <v>5</v>
       </c>
       <c r="N3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="O3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P3" t="n">
         <v>5</v>
@@ -2705,56 +2938,60 @@
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="X3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="Y3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>36637</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>146289</v>
+      </c>
+      <c r="C4" t="s">
+        <v>68</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="J4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="K4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="L4" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="M4" t="n">
         <v>4</v>
       </c>
       <c r="N4" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="O4" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P4" t="n">
         <v>4</v>
@@ -2776,56 +3013,60 @@
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="X4" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="Y4" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>36637</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>146290</v>
+      </c>
+      <c r="C5" t="s">
+        <v>79</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="J5" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="K5" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="L5" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="M5" t="n">
         <v>4</v>
       </c>
       <c r="N5" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="O5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P5" t="n">
         <v>4</v>
@@ -2847,56 +3088,60 @@
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="X5" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="Y5" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>36637</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>146291</v>
+      </c>
+      <c r="C6" t="s">
+        <v>89</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="J6" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="K6" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="L6" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="M6" t="n">
         <v>3</v>
       </c>
       <c r="N6" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="O6" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -2914,56 +3159,60 @@
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="X6" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="Y6" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>36637</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>146292</v>
+      </c>
+      <c r="C7" t="s">
+        <v>99</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="J7" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="K7" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="L7" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="M7" t="n">
         <v>2</v>
       </c>
       <c r="N7" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="O7" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P7" t="n">
         <v>1</v>
@@ -2985,56 +3234,60 @@
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="X7" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="Y7" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>36637</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>146293</v>
+      </c>
+      <c r="C8" t="s">
+        <v>108</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="J8" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="K8" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="L8" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="M8" t="n">
         <v>3</v>
       </c>
       <c r="N8" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="O8" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="P8" t="n">
         <v>3</v>
@@ -3056,56 +3309,60 @@
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="X8" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="Y8" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>36637</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>5223</v>
+      </c>
+      <c r="C9" t="s">
+        <v>118</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
+        <v>119</v>
+      </c>
+      <c r="G9" t="s">
+        <v>47</v>
+      </c>
+      <c r="H9" t="s">
+        <v>48</v>
+      </c>
+      <c r="I9" t="s">
+        <v>120</v>
+      </c>
+      <c r="J9" t="s">
         <v>111</v>
       </c>
-      <c r="G9" t="s">
-        <v>46</v>
-      </c>
-      <c r="H9" t="s">
-        <v>47</v>
-      </c>
-      <c r="I9" t="s">
-        <v>112</v>
-      </c>
-      <c r="J9" t="s">
-        <v>104</v>
-      </c>
       <c r="K9" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="L9" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="M9" t="n">
         <v>4</v>
       </c>
       <c r="N9" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="O9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
@@ -3123,56 +3380,60 @@
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="X9" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="Y9" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>36637</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>575</v>
+      </c>
+      <c r="C10" t="s">
+        <v>127</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="J10" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="K10" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="L10" t="s">
+        <v>132</v>
+      </c>
+      <c r="M10" t="n">
+        <v>4</v>
+      </c>
+      <c r="N10" t="s">
         <v>123</v>
       </c>
-      <c r="M10" t="n">
-        <v>4</v>
-      </c>
-      <c r="N10" t="s">
-        <v>115</v>
-      </c>
       <c r="O10" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="P10" t="n">
         <v>4</v>
@@ -3190,56 +3451,60 @@
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="X10" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="Y10" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>36637</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>3012</v>
+      </c>
+      <c r="C11" t="s">
+        <v>136</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="J11" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="K11" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="L11" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="M11" t="n">
         <v>4</v>
       </c>
       <c r="N11" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="O11" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
@@ -3251,56 +3516,60 @@
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="X11" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="Y11" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>36637</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>48452</v>
+      </c>
+      <c r="C12" t="s">
+        <v>146</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="J12" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="K12" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="L12" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="M12" t="n">
         <v>4</v>
       </c>
       <c r="N12" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="O12" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P12" t="n">
         <v>4</v>
@@ -3316,56 +3585,60 @@
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="X12" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="Y12" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>36637</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>146294</v>
+      </c>
+      <c r="C13" t="s">
+        <v>156</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>146</v>
+        <v>158</v>
       </c>
       <c r="J13" t="s">
-        <v>147</v>
+        <v>159</v>
       </c>
       <c r="K13" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="L13" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="M13" t="n">
         <v>5</v>
       </c>
       <c r="N13" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="O13" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="n">
@@ -3383,56 +3656,60 @@
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
       <c r="X13" t="s">
-        <v>152</v>
+        <v>164</v>
       </c>
       <c r="Y13" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>36637</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>146295</v>
+      </c>
+      <c r="C14" t="s">
+        <v>166</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>154</v>
+        <v>167</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="J14" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
       <c r="K14" t="s">
-        <v>157</v>
+        <v>170</v>
       </c>
       <c r="L14" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="M14" t="n">
         <v>3</v>
       </c>
       <c r="N14" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="O14" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P14" t="n">
         <v>3</v>
@@ -3452,41 +3729,45 @@
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>36637</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>146296</v>
+      </c>
+      <c r="C15" t="s">
+        <v>172</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>159</v>
+        <v>173</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>160</v>
+        <v>174</v>
       </c>
       <c r="J15" t="s">
-        <v>161</v>
+        <v>175</v>
       </c>
       <c r="K15" t="s">
-        <v>162</v>
+        <v>176</v>
       </c>
       <c r="L15" t="s">
-        <v>163</v>
+        <v>177</v>
       </c>
       <c r="M15" t="n">
         <v>5</v>
@@ -3503,56 +3784,60 @@
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>164</v>
+        <v>178</v>
       </c>
       <c r="X15" t="s">
-        <v>165</v>
+        <v>179</v>
       </c>
       <c r="Y15" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>36637</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>146297</v>
+      </c>
+      <c r="C16" t="s">
+        <v>181</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>167</v>
+        <v>182</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>168</v>
+        <v>183</v>
       </c>
       <c r="J16" t="s">
-        <v>169</v>
+        <v>184</v>
       </c>
       <c r="K16" t="s">
-        <v>170</v>
+        <v>185</v>
       </c>
       <c r="L16" t="s">
-        <v>171</v>
+        <v>186</v>
       </c>
       <c r="M16" t="n">
         <v>5</v>
       </c>
       <c r="N16" t="s">
-        <v>172</v>
+        <v>187</v>
       </c>
       <c r="O16" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
@@ -3570,56 +3855,60 @@
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>173</v>
+        <v>188</v>
       </c>
       <c r="X16" t="s">
-        <v>174</v>
+        <v>189</v>
       </c>
       <c r="Y16" t="s">
-        <v>175</v>
+        <v>190</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>36637</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>61648</v>
+      </c>
+      <c r="C17" t="s">
+        <v>191</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>176</v>
+        <v>192</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s">
-        <v>177</v>
+        <v>193</v>
       </c>
       <c r="J17" t="s">
-        <v>178</v>
+        <v>194</v>
       </c>
       <c r="K17" t="s">
-        <v>179</v>
+        <v>195</v>
       </c>
       <c r="L17" t="s">
-        <v>180</v>
+        <v>196</v>
       </c>
       <c r="M17" t="n">
         <v>5</v>
       </c>
       <c r="N17" t="s">
-        <v>181</v>
+        <v>197</v>
       </c>
       <c r="O17" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P17" t="n">
         <v>5</v>
@@ -3637,56 +3926,60 @@
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>182</v>
+        <v>198</v>
       </c>
       <c r="X17" t="s">
-        <v>183</v>
+        <v>199</v>
       </c>
       <c r="Y17" t="s">
-        <v>184</v>
+        <v>200</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>36637</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>40221</v>
+      </c>
+      <c r="C18" t="s">
+        <v>201</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s">
-        <v>186</v>
+        <v>203</v>
       </c>
       <c r="J18" t="s">
-        <v>187</v>
+        <v>204</v>
       </c>
       <c r="K18" t="s">
-        <v>188</v>
+        <v>205</v>
       </c>
       <c r="L18" t="s">
-        <v>189</v>
+        <v>206</v>
       </c>
       <c r="M18" t="n">
         <v>3</v>
       </c>
       <c r="N18" t="s">
-        <v>190</v>
+        <v>207</v>
       </c>
       <c r="O18" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P18" t="s"/>
       <c r="Q18" t="s"/>
@@ -3700,41 +3993,45 @@
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>191</v>
+        <v>208</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>36637</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>15969</v>
+      </c>
+      <c r="C19" t="s">
+        <v>209</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>192</v>
+        <v>210</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s">
-        <v>193</v>
+        <v>211</v>
       </c>
       <c r="J19" t="s">
-        <v>187</v>
+        <v>204</v>
       </c>
       <c r="K19" t="s">
-        <v>194</v>
+        <v>212</v>
       </c>
       <c r="L19" t="s">
-        <v>195</v>
+        <v>213</v>
       </c>
       <c r="M19" t="n">
         <v>4</v>
@@ -3751,56 +4048,60 @@
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>196</v>
+        <v>214</v>
       </c>
       <c r="X19" t="s">
-        <v>197</v>
+        <v>215</v>
       </c>
       <c r="Y19" t="s">
-        <v>198</v>
+        <v>216</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>36637</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>146298</v>
+      </c>
+      <c r="C20" t="s">
+        <v>217</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>199</v>
+        <v>218</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s">
-        <v>200</v>
+        <v>219</v>
       </c>
       <c r="J20" t="s">
-        <v>201</v>
+        <v>220</v>
       </c>
       <c r="K20" t="s">
-        <v>202</v>
+        <v>221</v>
       </c>
       <c r="L20" t="s">
-        <v>203</v>
+        <v>222</v>
       </c>
       <c r="M20" t="n">
         <v>5</v>
       </c>
       <c r="N20" t="s">
-        <v>204</v>
+        <v>223</v>
       </c>
       <c r="O20" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="P20" t="n">
         <v>5</v>
@@ -3818,56 +4119,60 @@
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>205</v>
+        <v>224</v>
       </c>
       <c r="X20" t="s">
-        <v>206</v>
+        <v>225</v>
       </c>
       <c r="Y20" t="s">
-        <v>207</v>
+        <v>226</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>36637</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>3432</v>
+      </c>
+      <c r="C21" t="s">
+        <v>227</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>208</v>
+        <v>228</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I21" t="s">
-        <v>209</v>
+        <v>229</v>
       </c>
       <c r="J21" t="s">
-        <v>210</v>
+        <v>230</v>
       </c>
       <c r="K21" t="s">
-        <v>211</v>
+        <v>231</v>
       </c>
       <c r="L21" t="s">
-        <v>212</v>
+        <v>232</v>
       </c>
       <c r="M21" t="n">
         <v>4</v>
       </c>
       <c r="N21" t="s">
-        <v>190</v>
+        <v>207</v>
       </c>
       <c r="O21" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P21" t="s"/>
       <c r="Q21" t="s"/>
@@ -3883,56 +4188,60 @@
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>205</v>
+        <v>224</v>
       </c>
       <c r="X21" t="s">
-        <v>206</v>
+        <v>225</v>
       </c>
       <c r="Y21" t="s">
-        <v>213</v>
+        <v>233</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>36637</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>146299</v>
+      </c>
+      <c r="C22" t="s">
+        <v>234</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>214</v>
+        <v>235</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I22" t="s">
-        <v>215</v>
+        <v>236</v>
       </c>
       <c r="J22" t="s">
-        <v>216</v>
+        <v>237</v>
       </c>
       <c r="K22" t="s">
-        <v>217</v>
+        <v>238</v>
       </c>
       <c r="L22" t="s">
-        <v>218</v>
+        <v>239</v>
       </c>
       <c r="M22" t="n">
         <v>3</v>
       </c>
       <c r="N22" t="s">
-        <v>219</v>
+        <v>240</v>
       </c>
       <c r="O22" t="s">
-        <v>220</v>
+        <v>241</v>
       </c>
       <c r="P22" t="s"/>
       <c r="Q22" t="s"/>
@@ -3950,56 +4259,60 @@
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>221</v>
+        <v>242</v>
       </c>
       <c r="X22" t="s">
-        <v>222</v>
+        <v>243</v>
       </c>
       <c r="Y22" t="s">
-        <v>223</v>
+        <v>244</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>36637</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>146300</v>
+      </c>
+      <c r="C23" t="s">
+        <v>245</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>224</v>
+        <v>246</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I23" t="s">
-        <v>225</v>
+        <v>247</v>
       </c>
       <c r="J23" t="s">
-        <v>226</v>
+        <v>248</v>
       </c>
       <c r="K23" t="s">
-        <v>227</v>
+        <v>249</v>
       </c>
       <c r="L23" t="s">
-        <v>228</v>
+        <v>250</v>
       </c>
       <c r="M23" t="n">
         <v>5</v>
       </c>
       <c r="N23" t="s">
-        <v>229</v>
+        <v>251</v>
       </c>
       <c r="O23" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="P23" t="s"/>
       <c r="Q23" t="n">
@@ -4017,56 +4330,60 @@
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>230</v>
+        <v>252</v>
       </c>
       <c r="X23" t="s">
-        <v>231</v>
+        <v>253</v>
       </c>
       <c r="Y23" t="s">
-        <v>232</v>
+        <v>254</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>36637</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>146301</v>
+      </c>
+      <c r="C24" t="s">
+        <v>255</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>233</v>
+        <v>256</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I24" t="s">
-        <v>234</v>
+        <v>257</v>
       </c>
       <c r="J24" t="s">
-        <v>235</v>
+        <v>258</v>
       </c>
       <c r="K24" t="s">
-        <v>236</v>
+        <v>259</v>
       </c>
       <c r="L24" t="s">
-        <v>237</v>
+        <v>260</v>
       </c>
       <c r="M24" t="n">
         <v>5</v>
       </c>
       <c r="N24" t="s">
-        <v>238</v>
+        <v>261</v>
       </c>
       <c r="O24" t="s">
-        <v>220</v>
+        <v>241</v>
       </c>
       <c r="P24" t="s"/>
       <c r="Q24" t="s"/>
@@ -4078,56 +4395,60 @@
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>239</v>
+        <v>262</v>
       </c>
       <c r="X24" t="s">
-        <v>240</v>
+        <v>263</v>
       </c>
       <c r="Y24" t="s">
-        <v>241</v>
+        <v>264</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>36637</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>15798</v>
+      </c>
+      <c r="C25" t="s">
+        <v>265</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>242</v>
+        <v>266</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I25" t="s">
-        <v>243</v>
+        <v>267</v>
       </c>
       <c r="J25" t="s">
-        <v>244</v>
+        <v>268</v>
       </c>
       <c r="K25" t="s">
-        <v>245</v>
+        <v>269</v>
       </c>
       <c r="L25" t="s">
-        <v>246</v>
+        <v>270</v>
       </c>
       <c r="M25" t="n">
         <v>5</v>
       </c>
       <c r="N25" t="s">
-        <v>238</v>
+        <v>261</v>
       </c>
       <c r="O25" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="P25" t="n">
         <v>4</v>
@@ -4145,56 +4466,60 @@
         <v>0</v>
       </c>
       <c r="W25" t="s">
-        <v>239</v>
+        <v>262</v>
       </c>
       <c r="X25" t="s">
-        <v>240</v>
+        <v>263</v>
       </c>
       <c r="Y25" t="s">
-        <v>247</v>
+        <v>271</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>36637</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>146302</v>
+      </c>
+      <c r="C26" t="s">
+        <v>272</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F26" t="s">
-        <v>248</v>
+        <v>273</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I26" t="s">
-        <v>249</v>
+        <v>274</v>
       </c>
       <c r="J26" t="s">
-        <v>250</v>
+        <v>275</v>
       </c>
       <c r="K26" t="s">
-        <v>251</v>
+        <v>276</v>
       </c>
       <c r="L26" t="s">
-        <v>252</v>
+        <v>277</v>
       </c>
       <c r="M26" t="n">
         <v>4</v>
       </c>
       <c r="N26" t="s">
-        <v>253</v>
+        <v>278</v>
       </c>
       <c r="O26" t="s">
-        <v>220</v>
+        <v>241</v>
       </c>
       <c r="P26" t="s"/>
       <c r="Q26" t="s"/>
@@ -4206,56 +4531,60 @@
         <v>0</v>
       </c>
       <c r="W26" t="s">
-        <v>254</v>
+        <v>279</v>
       </c>
       <c r="X26" t="s">
-        <v>255</v>
+        <v>280</v>
       </c>
       <c r="Y26" t="s">
-        <v>256</v>
+        <v>281</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>36637</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>146303</v>
+      </c>
+      <c r="C27" t="s">
+        <v>282</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F27" t="s">
-        <v>257</v>
+        <v>283</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I27" t="s">
-        <v>258</v>
+        <v>284</v>
       </c>
       <c r="J27" t="s">
-        <v>259</v>
+        <v>285</v>
       </c>
       <c r="K27" t="s">
-        <v>260</v>
+        <v>286</v>
       </c>
       <c r="L27" t="s">
-        <v>261</v>
+        <v>287</v>
       </c>
       <c r="M27" t="n">
         <v>3</v>
       </c>
       <c r="N27" t="s">
-        <v>262</v>
+        <v>288</v>
       </c>
       <c r="O27" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P27" t="s"/>
       <c r="Q27" t="s"/>
@@ -4273,50 +4602,54 @@
       <c r="W27" t="s"/>
       <c r="X27" t="s"/>
       <c r="Y27" t="s">
-        <v>261</v>
+        <v>287</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>36637</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>146300</v>
+      </c>
+      <c r="C28" t="s">
+        <v>255</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F28" t="s">
-        <v>263</v>
+        <v>289</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I28" t="s">
-        <v>264</v>
+        <v>290</v>
       </c>
       <c r="J28" t="s">
-        <v>265</v>
+        <v>291</v>
       </c>
       <c r="K28" t="s">
-        <v>266</v>
+        <v>292</v>
       </c>
       <c r="L28" t="s">
-        <v>267</v>
+        <v>293</v>
       </c>
       <c r="M28" t="n">
         <v>5</v>
       </c>
       <c r="N28" t="s">
-        <v>262</v>
+        <v>288</v>
       </c>
       <c r="O28" t="s">
-        <v>220</v>
+        <v>241</v>
       </c>
       <c r="P28" t="s"/>
       <c r="Q28" t="s"/>
@@ -4328,56 +4661,60 @@
         <v>0</v>
       </c>
       <c r="W28" t="s">
-        <v>268</v>
+        <v>294</v>
       </c>
       <c r="X28" t="s">
-        <v>269</v>
+        <v>295</v>
       </c>
       <c r="Y28" t="s">
-        <v>270</v>
+        <v>296</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>36637</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>146304</v>
+      </c>
+      <c r="C29" t="s">
+        <v>297</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F29" t="s">
-        <v>271</v>
+        <v>298</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I29" t="s">
-        <v>272</v>
+        <v>299</v>
       </c>
       <c r="J29" t="s">
-        <v>273</v>
+        <v>300</v>
       </c>
       <c r="K29" t="s">
-        <v>274</v>
+        <v>301</v>
       </c>
       <c r="L29" t="s">
-        <v>275</v>
+        <v>302</v>
       </c>
       <c r="M29" t="n">
         <v>1</v>
       </c>
       <c r="N29" t="s">
-        <v>262</v>
+        <v>288</v>
       </c>
       <c r="O29" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P29" t="s"/>
       <c r="Q29" t="s"/>
@@ -4389,56 +4726,60 @@
         <v>0</v>
       </c>
       <c r="W29" t="s">
-        <v>276</v>
+        <v>303</v>
       </c>
       <c r="X29" t="s">
-        <v>277</v>
+        <v>304</v>
       </c>
       <c r="Y29" t="s">
-        <v>278</v>
+        <v>305</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>36637</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>146305</v>
+      </c>
+      <c r="C30" t="s">
+        <v>306</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F30" t="s">
-        <v>279</v>
+        <v>307</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I30" t="s">
-        <v>280</v>
+        <v>308</v>
       </c>
       <c r="J30" t="s">
-        <v>281</v>
+        <v>309</v>
       </c>
       <c r="K30" t="s">
-        <v>282</v>
+        <v>310</v>
       </c>
       <c r="L30" t="s">
-        <v>283</v>
+        <v>311</v>
       </c>
       <c r="M30" t="n">
         <v>4</v>
       </c>
       <c r="N30" t="s">
-        <v>284</v>
+        <v>312</v>
       </c>
       <c r="O30" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P30" t="n">
         <v>4</v>
@@ -4456,56 +4797,60 @@
         <v>0</v>
       </c>
       <c r="W30" t="s">
-        <v>285</v>
+        <v>313</v>
       </c>
       <c r="X30" t="s">
-        <v>286</v>
+        <v>314</v>
       </c>
       <c r="Y30" t="s">
-        <v>287</v>
+        <v>315</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>36637</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>146306</v>
+      </c>
+      <c r="C31" t="s">
+        <v>316</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F31" t="s">
-        <v>288</v>
+        <v>317</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I31" t="s">
-        <v>289</v>
+        <v>318</v>
       </c>
       <c r="J31" t="s">
-        <v>290</v>
+        <v>319</v>
       </c>
       <c r="K31" t="s">
-        <v>291</v>
+        <v>320</v>
       </c>
       <c r="L31" t="s">
-        <v>292</v>
+        <v>321</v>
       </c>
       <c r="M31" t="n">
         <v>4</v>
       </c>
       <c r="N31" t="s">
-        <v>293</v>
+        <v>322</v>
       </c>
       <c r="O31" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P31" t="s"/>
       <c r="Q31" t="s"/>
@@ -4517,56 +4862,60 @@
         <v>0</v>
       </c>
       <c r="W31" t="s">
-        <v>285</v>
+        <v>313</v>
       </c>
       <c r="X31" t="s">
-        <v>286</v>
+        <v>314</v>
       </c>
       <c r="Y31" t="s">
-        <v>294</v>
+        <v>323</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>36637</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>6747</v>
+      </c>
+      <c r="C32" t="s">
+        <v>324</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F32" t="s">
-        <v>295</v>
+        <v>325</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I32" t="s">
-        <v>296</v>
+        <v>326</v>
       </c>
       <c r="J32" t="s">
-        <v>297</v>
+        <v>327</v>
       </c>
       <c r="K32" t="s">
-        <v>298</v>
+        <v>328</v>
       </c>
       <c r="L32" t="s">
-        <v>299</v>
+        <v>329</v>
       </c>
       <c r="M32" t="n">
         <v>4</v>
       </c>
       <c r="N32" t="s">
-        <v>300</v>
+        <v>330</v>
       </c>
       <c r="O32" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="P32" t="n">
         <v>4</v>
@@ -4584,50 +4933,54 @@
       <c r="W32" t="s"/>
       <c r="X32" t="s"/>
       <c r="Y32" t="s">
-        <v>299</v>
+        <v>329</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>36637</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>146307</v>
+      </c>
+      <c r="C33" t="s">
+        <v>331</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F33" t="s">
-        <v>301</v>
+        <v>332</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I33" t="s">
-        <v>302</v>
+        <v>333</v>
       </c>
       <c r="J33" t="s">
-        <v>303</v>
+        <v>334</v>
       </c>
       <c r="K33" t="s">
-        <v>304</v>
+        <v>335</v>
       </c>
       <c r="L33" t="s">
-        <v>305</v>
+        <v>336</v>
       </c>
       <c r="M33" t="n">
         <v>4</v>
       </c>
       <c r="N33" t="s">
-        <v>300</v>
+        <v>330</v>
       </c>
       <c r="O33" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P33" t="n">
         <v>5</v>
@@ -4643,56 +4996,60 @@
         <v>0</v>
       </c>
       <c r="W33" t="s">
-        <v>306</v>
+        <v>337</v>
       </c>
       <c r="X33" t="s">
-        <v>307</v>
+        <v>338</v>
       </c>
       <c r="Y33" t="s">
-        <v>308</v>
+        <v>339</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>36637</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>146308</v>
+      </c>
+      <c r="C34" t="s">
+        <v>340</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F34" t="s">
-        <v>309</v>
+        <v>341</v>
       </c>
       <c r="G34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I34" t="s">
-        <v>310</v>
+        <v>342</v>
       </c>
       <c r="J34" t="s">
-        <v>311</v>
+        <v>343</v>
       </c>
       <c r="K34" t="s">
-        <v>312</v>
+        <v>344</v>
       </c>
       <c r="L34" t="s">
-        <v>313</v>
+        <v>345</v>
       </c>
       <c r="M34" t="n">
         <v>5</v>
       </c>
       <c r="N34" t="s">
-        <v>314</v>
+        <v>346</v>
       </c>
       <c r="O34" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P34" t="n">
         <v>5</v>
@@ -4708,56 +5065,60 @@
         <v>0</v>
       </c>
       <c r="W34" t="s">
-        <v>315</v>
+        <v>347</v>
       </c>
       <c r="X34" t="s">
-        <v>316</v>
+        <v>348</v>
       </c>
       <c r="Y34" t="s">
-        <v>317</v>
+        <v>349</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>36637</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>8350</v>
+      </c>
+      <c r="C35" t="s">
+        <v>350</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F35" t="s">
-        <v>318</v>
+        <v>351</v>
       </c>
       <c r="G35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I35" t="s">
-        <v>319</v>
+        <v>352</v>
       </c>
       <c r="J35" t="s">
-        <v>320</v>
+        <v>353</v>
       </c>
       <c r="K35" t="s">
-        <v>321</v>
+        <v>354</v>
       </c>
       <c r="L35" t="s">
-        <v>322</v>
+        <v>355</v>
       </c>
       <c r="M35" t="n">
         <v>3</v>
       </c>
       <c r="N35" t="s">
-        <v>323</v>
+        <v>356</v>
       </c>
       <c r="O35" t="s">
-        <v>220</v>
+        <v>241</v>
       </c>
       <c r="P35" t="s"/>
       <c r="Q35" t="s"/>
@@ -4773,56 +5134,60 @@
         <v>0</v>
       </c>
       <c r="W35" t="s">
-        <v>324</v>
+        <v>357</v>
       </c>
       <c r="X35" t="s">
-        <v>325</v>
+        <v>358</v>
       </c>
       <c r="Y35" t="s">
-        <v>326</v>
+        <v>359</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>36637</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>146309</v>
+      </c>
+      <c r="C36" t="s">
+        <v>360</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F36" t="s">
-        <v>327</v>
+        <v>361</v>
       </c>
       <c r="G36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I36" t="s">
-        <v>328</v>
+        <v>362</v>
       </c>
       <c r="J36" t="s">
-        <v>329</v>
+        <v>363</v>
       </c>
       <c r="K36" t="s">
-        <v>330</v>
+        <v>364</v>
       </c>
       <c r="L36" t="s">
-        <v>331</v>
+        <v>365</v>
       </c>
       <c r="M36" t="n">
         <v>3</v>
       </c>
       <c r="N36" t="s">
-        <v>323</v>
+        <v>356</v>
       </c>
       <c r="O36" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P36" t="s"/>
       <c r="Q36" t="s"/>
@@ -4834,56 +5199,60 @@
         <v>0</v>
       </c>
       <c r="W36" t="s">
-        <v>332</v>
+        <v>366</v>
       </c>
       <c r="X36" t="s">
-        <v>333</v>
+        <v>367</v>
       </c>
       <c r="Y36" t="s">
-        <v>334</v>
+        <v>368</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>36637</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>146310</v>
+      </c>
+      <c r="C37" t="s">
+        <v>369</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F37" t="s">
-        <v>335</v>
+        <v>370</v>
       </c>
       <c r="G37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I37" t="s">
-        <v>336</v>
+        <v>371</v>
       </c>
       <c r="J37" t="s">
-        <v>337</v>
+        <v>372</v>
       </c>
       <c r="K37" t="s">
-        <v>338</v>
+        <v>373</v>
       </c>
       <c r="L37" t="s">
-        <v>339</v>
+        <v>374</v>
       </c>
       <c r="M37" t="n">
         <v>2</v>
       </c>
       <c r="N37" t="s">
-        <v>340</v>
+        <v>375</v>
       </c>
       <c r="O37" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P37" t="s"/>
       <c r="Q37" t="s"/>
@@ -4895,56 +5264,60 @@
         <v>0</v>
       </c>
       <c r="W37" t="s">
-        <v>332</v>
+        <v>366</v>
       </c>
       <c r="X37" t="s">
-        <v>333</v>
+        <v>367</v>
       </c>
       <c r="Y37" t="s">
-        <v>341</v>
+        <v>376</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>36637</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>6436</v>
+      </c>
+      <c r="C38" t="s">
+        <v>377</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F38" t="s">
-        <v>342</v>
+        <v>378</v>
       </c>
       <c r="G38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I38" t="s">
-        <v>343</v>
+        <v>379</v>
       </c>
       <c r="J38" t="s">
-        <v>344</v>
+        <v>380</v>
       </c>
       <c r="K38" t="s">
-        <v>345</v>
+        <v>381</v>
       </c>
       <c r="L38" t="s">
-        <v>346</v>
+        <v>382</v>
       </c>
       <c r="M38" t="n">
         <v>5</v>
       </c>
       <c r="N38" t="s">
-        <v>347</v>
+        <v>383</v>
       </c>
       <c r="O38" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P38" t="n">
         <v>1</v>
@@ -4962,56 +5335,60 @@
         <v>0</v>
       </c>
       <c r="W38" t="s">
-        <v>348</v>
+        <v>384</v>
       </c>
       <c r="X38" t="s">
-        <v>349</v>
+        <v>385</v>
       </c>
       <c r="Y38" t="s">
-        <v>350</v>
+        <v>386</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>36637</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
+      <c r="B39" t="n">
+        <v>79254</v>
+      </c>
+      <c r="C39" t="s">
+        <v>387</v>
+      </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F39" t="s">
-        <v>351</v>
+        <v>388</v>
       </c>
       <c r="G39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I39" t="s">
-        <v>352</v>
+        <v>389</v>
       </c>
       <c r="J39" t="s">
-        <v>353</v>
+        <v>390</v>
       </c>
       <c r="K39" t="s">
-        <v>354</v>
+        <v>391</v>
       </c>
       <c r="L39" t="s">
-        <v>355</v>
+        <v>392</v>
       </c>
       <c r="M39" t="n">
         <v>4</v>
       </c>
       <c r="N39" t="s">
-        <v>356</v>
+        <v>393</v>
       </c>
       <c r="O39" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P39" t="s"/>
       <c r="Q39" t="s"/>
@@ -5029,56 +5406,60 @@
         <v>0</v>
       </c>
       <c r="W39" t="s">
-        <v>357</v>
+        <v>394</v>
       </c>
       <c r="X39" t="s">
-        <v>358</v>
+        <v>395</v>
       </c>
       <c r="Y39" t="s">
-        <v>359</v>
+        <v>396</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>36637</v>
       </c>
-      <c r="B40" t="s"/>
-      <c r="C40" t="s"/>
+      <c r="B40" t="n">
+        <v>146311</v>
+      </c>
+      <c r="C40" t="s">
+        <v>397</v>
+      </c>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F40" t="s">
-        <v>360</v>
+        <v>398</v>
       </c>
       <c r="G40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I40" t="s">
-        <v>361</v>
+        <v>399</v>
       </c>
       <c r="J40" t="s">
-        <v>362</v>
+        <v>400</v>
       </c>
       <c r="K40" t="s">
-        <v>363</v>
+        <v>401</v>
       </c>
       <c r="L40" t="s">
-        <v>364</v>
+        <v>402</v>
       </c>
       <c r="M40" t="n">
         <v>5</v>
       </c>
       <c r="N40" t="s">
-        <v>365</v>
+        <v>403</v>
       </c>
       <c r="O40" t="s">
-        <v>220</v>
+        <v>241</v>
       </c>
       <c r="P40" t="s"/>
       <c r="Q40" t="n">
@@ -5096,47 +5477,51 @@
         <v>0</v>
       </c>
       <c r="W40" t="s">
-        <v>366</v>
+        <v>404</v>
       </c>
       <c r="X40" t="s">
-        <v>367</v>
+        <v>405</v>
       </c>
       <c r="Y40" t="s">
-        <v>368</v>
+        <v>406</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>36637</v>
       </c>
-      <c r="B41" t="s"/>
-      <c r="C41" t="s"/>
+      <c r="B41" t="n">
+        <v>146312</v>
+      </c>
+      <c r="C41" t="s">
+        <v>407</v>
+      </c>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F41" t="s">
-        <v>369</v>
+        <v>408</v>
       </c>
       <c r="G41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I41" t="s">
-        <v>370</v>
+        <v>409</v>
       </c>
       <c r="J41" t="s">
-        <v>371</v>
+        <v>410</v>
       </c>
       <c r="K41" t="s">
-        <v>372</v>
+        <v>411</v>
       </c>
       <c r="L41" t="s">
-        <v>373</v>
+        <v>412</v>
       </c>
       <c r="M41" t="n">
         <v>5</v>
@@ -5163,56 +5548,60 @@
         <v>0</v>
       </c>
       <c r="W41" t="s">
-        <v>374</v>
+        <v>413</v>
       </c>
       <c r="X41" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="Y41" t="s">
-        <v>376</v>
+        <v>415</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>36637</v>
       </c>
-      <c r="B42" t="s"/>
-      <c r="C42" t="s"/>
+      <c r="B42" t="n">
+        <v>146313</v>
+      </c>
+      <c r="C42" t="s">
+        <v>416</v>
+      </c>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F42" t="s">
-        <v>377</v>
+        <v>417</v>
       </c>
       <c r="G42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H42" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I42" t="s">
-        <v>378</v>
+        <v>418</v>
       </c>
       <c r="J42" t="s">
-        <v>379</v>
+        <v>419</v>
       </c>
       <c r="K42" t="s">
-        <v>380</v>
+        <v>420</v>
       </c>
       <c r="L42" t="s">
-        <v>381</v>
+        <v>421</v>
       </c>
       <c r="M42" t="n">
         <v>3</v>
       </c>
       <c r="N42" t="s">
-        <v>284</v>
+        <v>312</v>
       </c>
       <c r="O42" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="P42" t="s"/>
       <c r="Q42" t="s"/>
@@ -5230,56 +5619,60 @@
         <v>0</v>
       </c>
       <c r="W42" t="s">
-        <v>382</v>
+        <v>422</v>
       </c>
       <c r="X42" t="s">
-        <v>383</v>
+        <v>423</v>
       </c>
       <c r="Y42" t="s">
-        <v>384</v>
+        <v>424</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>36637</v>
       </c>
-      <c r="B43" t="s"/>
-      <c r="C43" t="s"/>
+      <c r="B43" t="n">
+        <v>146314</v>
+      </c>
+      <c r="C43" t="s">
+        <v>425</v>
+      </c>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F43" t="s">
-        <v>385</v>
+        <v>426</v>
       </c>
       <c r="G43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H43" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I43" t="s">
-        <v>386</v>
+        <v>427</v>
       </c>
       <c r="J43" t="s">
-        <v>387</v>
+        <v>428</v>
       </c>
       <c r="K43" t="s">
-        <v>388</v>
+        <v>429</v>
       </c>
       <c r="L43" t="s">
-        <v>389</v>
+        <v>430</v>
       </c>
       <c r="M43" t="n">
         <v>5</v>
       </c>
       <c r="N43" t="s">
-        <v>390</v>
+        <v>431</v>
       </c>
       <c r="O43" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P43" t="s"/>
       <c r="Q43" t="s"/>
@@ -5295,56 +5688,60 @@
         <v>0</v>
       </c>
       <c r="W43" t="s">
-        <v>391</v>
+        <v>432</v>
       </c>
       <c r="X43" t="s">
-        <v>392</v>
+        <v>433</v>
       </c>
       <c r="Y43" t="s">
-        <v>393</v>
+        <v>434</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>36637</v>
       </c>
-      <c r="B44" t="s"/>
-      <c r="C44" t="s"/>
+      <c r="B44" t="n">
+        <v>146315</v>
+      </c>
+      <c r="C44" t="s">
+        <v>435</v>
+      </c>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F44" t="s">
-        <v>394</v>
+        <v>436</v>
       </c>
       <c r="G44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H44" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I44" t="s">
-        <v>395</v>
+        <v>437</v>
       </c>
       <c r="J44" t="s">
-        <v>396</v>
+        <v>438</v>
       </c>
       <c r="K44" t="s">
-        <v>397</v>
+        <v>439</v>
       </c>
       <c r="L44" t="s">
-        <v>398</v>
+        <v>440</v>
       </c>
       <c r="M44" t="n">
         <v>5</v>
       </c>
       <c r="N44" t="s">
-        <v>399</v>
+        <v>441</v>
       </c>
       <c r="O44" t="s">
-        <v>220</v>
+        <v>241</v>
       </c>
       <c r="P44" t="s"/>
       <c r="Q44" t="n">
@@ -5360,56 +5757,60 @@
         <v>0</v>
       </c>
       <c r="W44" t="s">
-        <v>400</v>
+        <v>442</v>
       </c>
       <c r="X44" t="s">
-        <v>401</v>
+        <v>443</v>
       </c>
       <c r="Y44" t="s">
-        <v>402</v>
+        <v>444</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>36637</v>
       </c>
-      <c r="B45" t="s"/>
-      <c r="C45" t="s"/>
+      <c r="B45" t="n">
+        <v>146316</v>
+      </c>
+      <c r="C45" t="s">
+        <v>445</v>
+      </c>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F45" t="s">
-        <v>403</v>
+        <v>446</v>
       </c>
       <c r="G45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H45" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I45" t="s">
-        <v>404</v>
+        <v>447</v>
       </c>
       <c r="J45" t="s">
-        <v>405</v>
+        <v>448</v>
       </c>
       <c r="K45" t="s">
-        <v>406</v>
+        <v>449</v>
       </c>
       <c r="L45" t="s">
-        <v>407</v>
+        <v>450</v>
       </c>
       <c r="M45" t="n">
         <v>4</v>
       </c>
       <c r="N45" t="s">
-        <v>390</v>
+        <v>431</v>
       </c>
       <c r="O45" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P45" t="n">
         <v>5</v>
@@ -5431,56 +5832,60 @@
         <v>0</v>
       </c>
       <c r="W45" t="s">
-        <v>408</v>
+        <v>451</v>
       </c>
       <c r="X45" t="s">
-        <v>409</v>
+        <v>452</v>
       </c>
       <c r="Y45" t="s">
-        <v>410</v>
+        <v>453</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>36637</v>
       </c>
-      <c r="B46" t="s"/>
-      <c r="C46" t="s"/>
+      <c r="B46" t="n">
+        <v>146317</v>
+      </c>
+      <c r="C46" t="s">
+        <v>454</v>
+      </c>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F46" t="s">
-        <v>411</v>
+        <v>455</v>
       </c>
       <c r="G46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H46" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I46" t="s">
-        <v>412</v>
+        <v>456</v>
       </c>
       <c r="J46" t="s">
-        <v>413</v>
+        <v>457</v>
       </c>
       <c r="K46" t="s">
-        <v>414</v>
+        <v>458</v>
       </c>
       <c r="L46" t="s">
-        <v>415</v>
+        <v>459</v>
       </c>
       <c r="M46" t="n">
         <v>3</v>
       </c>
       <c r="N46" t="s">
-        <v>390</v>
+        <v>431</v>
       </c>
       <c r="O46" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P46" t="n">
         <v>4</v>
@@ -5502,56 +5907,60 @@
         <v>0</v>
       </c>
       <c r="W46" t="s">
-        <v>416</v>
+        <v>460</v>
       </c>
       <c r="X46" t="s">
-        <v>417</v>
+        <v>461</v>
       </c>
       <c r="Y46" t="s">
-        <v>418</v>
+        <v>462</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>36637</v>
       </c>
-      <c r="B47" t="s"/>
-      <c r="C47" t="s"/>
+      <c r="B47" t="n">
+        <v>146318</v>
+      </c>
+      <c r="C47" t="s">
+        <v>463</v>
+      </c>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F47" t="s">
-        <v>419</v>
+        <v>464</v>
       </c>
       <c r="G47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H47" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I47" t="s">
-        <v>420</v>
+        <v>465</v>
       </c>
       <c r="J47" t="s">
-        <v>421</v>
+        <v>466</v>
       </c>
       <c r="K47" t="s">
-        <v>422</v>
+        <v>467</v>
       </c>
       <c r="L47" t="s">
-        <v>423</v>
+        <v>468</v>
       </c>
       <c r="M47" t="n">
         <v>3</v>
       </c>
       <c r="N47" t="s">
-        <v>424</v>
+        <v>469</v>
       </c>
       <c r="O47" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P47" t="n">
         <v>3</v>
@@ -5573,56 +5982,60 @@
         <v>0</v>
       </c>
       <c r="W47" t="s">
-        <v>425</v>
+        <v>470</v>
       </c>
       <c r="X47" t="s">
-        <v>426</v>
+        <v>471</v>
       </c>
       <c r="Y47" t="s">
-        <v>427</v>
+        <v>472</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>36637</v>
       </c>
-      <c r="B48" t="s"/>
-      <c r="C48" t="s"/>
+      <c r="B48" t="n">
+        <v>146319</v>
+      </c>
+      <c r="C48" t="s">
+        <v>473</v>
+      </c>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F48" t="s">
-        <v>428</v>
+        <v>474</v>
       </c>
       <c r="G48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H48" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I48" t="s">
-        <v>429</v>
+        <v>475</v>
       </c>
       <c r="J48" t="s">
-        <v>430</v>
+        <v>476</v>
       </c>
       <c r="K48" t="s">
-        <v>431</v>
+        <v>477</v>
       </c>
       <c r="L48" t="s">
-        <v>432</v>
+        <v>478</v>
       </c>
       <c r="M48" t="n">
         <v>5</v>
       </c>
       <c r="N48" t="s">
-        <v>424</v>
+        <v>469</v>
       </c>
       <c r="O48" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P48" t="n">
         <v>4</v>
@@ -5644,47 +6057,51 @@
         <v>0</v>
       </c>
       <c r="W48" t="s">
-        <v>433</v>
+        <v>479</v>
       </c>
       <c r="X48" t="s">
-        <v>434</v>
+        <v>480</v>
       </c>
       <c r="Y48" t="s">
-        <v>435</v>
+        <v>481</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>36637</v>
       </c>
-      <c r="B49" t="s"/>
-      <c r="C49" t="s"/>
+      <c r="B49" t="n">
+        <v>146320</v>
+      </c>
+      <c r="C49" t="s">
+        <v>482</v>
+      </c>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F49" t="s">
-        <v>436</v>
+        <v>483</v>
       </c>
       <c r="G49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H49" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I49" t="s">
-        <v>437</v>
+        <v>484</v>
       </c>
       <c r="J49" t="s">
-        <v>438</v>
+        <v>485</v>
       </c>
       <c r="K49" t="s">
-        <v>439</v>
+        <v>486</v>
       </c>
       <c r="L49" t="s">
-        <v>440</v>
+        <v>487</v>
       </c>
       <c r="M49" t="n">
         <v>5</v>
@@ -5711,47 +6128,51 @@
         <v>0</v>
       </c>
       <c r="W49" t="s">
-        <v>441</v>
+        <v>488</v>
       </c>
       <c r="X49" t="s">
-        <v>442</v>
+        <v>489</v>
       </c>
       <c r="Y49" t="s">
-        <v>443</v>
+        <v>490</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>36637</v>
       </c>
-      <c r="B50" t="s"/>
-      <c r="C50" t="s"/>
+      <c r="B50" t="n">
+        <v>146321</v>
+      </c>
+      <c r="C50" t="s">
+        <v>491</v>
+      </c>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F50" t="s">
-        <v>444</v>
+        <v>492</v>
       </c>
       <c r="G50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H50" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I50" t="s">
-        <v>445</v>
+        <v>493</v>
       </c>
       <c r="J50" t="s">
-        <v>446</v>
+        <v>494</v>
       </c>
       <c r="K50" t="s">
-        <v>447</v>
+        <v>495</v>
       </c>
       <c r="L50" t="s">
-        <v>448</v>
+        <v>496</v>
       </c>
       <c r="M50" t="n">
         <v>3</v>
@@ -5780,50 +6201,54 @@
       <c r="W50" t="s"/>
       <c r="X50" t="s"/>
       <c r="Y50" t="s">
-        <v>448</v>
+        <v>496</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>36637</v>
       </c>
-      <c r="B51" t="s"/>
-      <c r="C51" t="s"/>
+      <c r="B51" t="n">
+        <v>146322</v>
+      </c>
+      <c r="C51" t="s">
+        <v>497</v>
+      </c>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F51" t="s">
-        <v>449</v>
+        <v>498</v>
       </c>
       <c r="G51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H51" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I51" t="s">
-        <v>450</v>
+        <v>499</v>
       </c>
       <c r="J51" t="s">
-        <v>451</v>
+        <v>500</v>
       </c>
       <c r="K51" t="s">
-        <v>452</v>
+        <v>501</v>
       </c>
       <c r="L51" t="s">
-        <v>453</v>
+        <v>502</v>
       </c>
       <c r="M51" t="n">
         <v>4</v>
       </c>
       <c r="N51" t="s">
-        <v>454</v>
+        <v>503</v>
       </c>
       <c r="O51" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="P51" t="n">
         <v>4</v>
@@ -5847,50 +6272,54 @@
       <c r="W51" t="s"/>
       <c r="X51" t="s"/>
       <c r="Y51" t="s">
-        <v>455</v>
+        <v>504</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>36637</v>
       </c>
-      <c r="B52" t="s"/>
-      <c r="C52" t="s"/>
+      <c r="B52" t="n">
+        <v>6436</v>
+      </c>
+      <c r="C52" t="s">
+        <v>377</v>
+      </c>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F52" t="s">
-        <v>456</v>
+        <v>505</v>
       </c>
       <c r="G52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H52" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I52" t="s">
-        <v>457</v>
+        <v>506</v>
       </c>
       <c r="J52" t="s">
-        <v>458</v>
+        <v>507</v>
       </c>
       <c r="K52" t="s">
-        <v>459</v>
+        <v>508</v>
       </c>
       <c r="L52" t="s">
-        <v>460</v>
+        <v>509</v>
       </c>
       <c r="M52" t="n">
         <v>5</v>
       </c>
       <c r="N52" t="s">
-        <v>461</v>
+        <v>510</v>
       </c>
       <c r="O52" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P52" t="n">
         <v>5</v>
@@ -5914,41 +6343,45 @@
       <c r="W52" t="s"/>
       <c r="X52" t="s"/>
       <c r="Y52" t="s">
-        <v>460</v>
+        <v>509</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>36637</v>
       </c>
-      <c r="B53" t="s"/>
-      <c r="C53" t="s"/>
+      <c r="B53" t="n">
+        <v>146323</v>
+      </c>
+      <c r="C53" t="s">
+        <v>511</v>
+      </c>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F53" t="s">
-        <v>462</v>
+        <v>512</v>
       </c>
       <c r="G53" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H53" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I53" t="s">
-        <v>463</v>
+        <v>513</v>
       </c>
       <c r="J53" t="s">
-        <v>464</v>
+        <v>514</v>
       </c>
       <c r="K53" t="s">
-        <v>465</v>
+        <v>515</v>
       </c>
       <c r="L53" t="s">
-        <v>466</v>
+        <v>516</v>
       </c>
       <c r="M53" t="n">
         <v>5</v>
@@ -5975,47 +6408,51 @@
         <v>0</v>
       </c>
       <c r="W53" t="s">
-        <v>467</v>
+        <v>517</v>
       </c>
       <c r="X53" t="s">
-        <v>468</v>
+        <v>518</v>
       </c>
       <c r="Y53" t="s">
-        <v>469</v>
+        <v>519</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>36637</v>
       </c>
-      <c r="B54" t="s"/>
-      <c r="C54" t="s"/>
+      <c r="B54" t="n">
+        <v>146324</v>
+      </c>
+      <c r="C54" t="s">
+        <v>520</v>
+      </c>
       <c r="D54" t="n">
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F54" t="s">
-        <v>470</v>
+        <v>521</v>
       </c>
       <c r="G54" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H54" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I54" t="s">
-        <v>471</v>
+        <v>522</v>
       </c>
       <c r="J54" t="s">
-        <v>472</v>
+        <v>523</v>
       </c>
       <c r="K54" t="s">
-        <v>473</v>
+        <v>524</v>
       </c>
       <c r="L54" t="s">
-        <v>474</v>
+        <v>525</v>
       </c>
       <c r="M54" t="n">
         <v>2</v>
@@ -6042,47 +6479,51 @@
         <v>0</v>
       </c>
       <c r="W54" t="s">
-        <v>467</v>
+        <v>517</v>
       </c>
       <c r="X54" t="s">
-        <v>468</v>
+        <v>518</v>
       </c>
       <c r="Y54" t="s">
-        <v>475</v>
+        <v>526</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>36637</v>
       </c>
-      <c r="B55" t="s"/>
-      <c r="C55" t="s"/>
+      <c r="B55" t="n">
+        <v>6841</v>
+      </c>
+      <c r="C55" t="s">
+        <v>527</v>
+      </c>
       <c r="D55" t="n">
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F55" t="s">
-        <v>476</v>
+        <v>528</v>
       </c>
       <c r="G55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H55" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I55" t="s">
-        <v>477</v>
+        <v>529</v>
       </c>
       <c r="J55" t="s">
-        <v>478</v>
+        <v>530</v>
       </c>
       <c r="K55" t="s">
-        <v>479</v>
+        <v>531</v>
       </c>
       <c r="L55" t="s">
-        <v>480</v>
+        <v>532</v>
       </c>
       <c r="M55" t="n">
         <v>5</v>
@@ -6109,47 +6550,51 @@
         <v>0</v>
       </c>
       <c r="W55" t="s">
-        <v>481</v>
+        <v>533</v>
       </c>
       <c r="X55" t="s">
-        <v>482</v>
+        <v>534</v>
       </c>
       <c r="Y55" t="s">
-        <v>483</v>
+        <v>535</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>36637</v>
       </c>
-      <c r="B56" t="s"/>
-      <c r="C56" t="s"/>
+      <c r="B56" t="n">
+        <v>146325</v>
+      </c>
+      <c r="C56" t="s">
+        <v>536</v>
+      </c>
       <c r="D56" t="n">
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F56" t="s">
-        <v>484</v>
+        <v>537</v>
       </c>
       <c r="G56" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H56" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I56" t="s">
-        <v>485</v>
+        <v>538</v>
       </c>
       <c r="J56" t="s">
-        <v>486</v>
+        <v>539</v>
       </c>
       <c r="K56" t="s">
-        <v>487</v>
+        <v>540</v>
       </c>
       <c r="L56" t="s">
-        <v>488</v>
+        <v>541</v>
       </c>
       <c r="M56" t="n">
         <v>1</v>
@@ -6176,47 +6621,51 @@
         <v>0</v>
       </c>
       <c r="W56" t="s">
-        <v>489</v>
+        <v>542</v>
       </c>
       <c r="X56" t="s">
-        <v>490</v>
+        <v>543</v>
       </c>
       <c r="Y56" t="s">
-        <v>491</v>
+        <v>544</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>36637</v>
       </c>
-      <c r="B57" t="s"/>
-      <c r="C57" t="s"/>
+      <c r="B57" t="n">
+        <v>146326</v>
+      </c>
+      <c r="C57" t="s">
+        <v>545</v>
+      </c>
       <c r="D57" t="n">
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F57" t="s">
-        <v>492</v>
+        <v>546</v>
       </c>
       <c r="G57" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H57" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I57" t="s">
-        <v>493</v>
+        <v>547</v>
       </c>
       <c r="J57" t="s">
-        <v>494</v>
+        <v>548</v>
       </c>
       <c r="K57" t="s">
-        <v>495</v>
+        <v>549</v>
       </c>
       <c r="L57" t="s">
-        <v>496</v>
+        <v>550</v>
       </c>
       <c r="M57" t="n">
         <v>5</v>
@@ -6243,56 +6692,60 @@
         <v>0</v>
       </c>
       <c r="W57" t="s">
-        <v>497</v>
+        <v>551</v>
       </c>
       <c r="X57" t="s">
-        <v>498</v>
+        <v>552</v>
       </c>
       <c r="Y57" t="s">
-        <v>499</v>
+        <v>553</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
         <v>36637</v>
       </c>
-      <c r="B58" t="s"/>
-      <c r="C58" t="s"/>
+      <c r="B58" t="n">
+        <v>146327</v>
+      </c>
+      <c r="C58" t="s">
+        <v>554</v>
+      </c>
       <c r="D58" t="n">
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F58" t="s">
-        <v>500</v>
+        <v>555</v>
       </c>
       <c r="G58" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H58" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I58" t="s">
-        <v>501</v>
+        <v>556</v>
       </c>
       <c r="J58" t="s">
-        <v>502</v>
+        <v>557</v>
       </c>
       <c r="K58" t="s">
-        <v>503</v>
+        <v>558</v>
       </c>
       <c r="L58" t="s">
-        <v>504</v>
+        <v>559</v>
       </c>
       <c r="M58" t="n">
         <v>5</v>
       </c>
       <c r="N58" t="s">
-        <v>505</v>
+        <v>560</v>
       </c>
       <c r="O58" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P58" t="n">
         <v>3</v>
@@ -6314,56 +6767,60 @@
         <v>0</v>
       </c>
       <c r="W58" t="s">
-        <v>506</v>
+        <v>561</v>
       </c>
       <c r="X58" t="s">
-        <v>507</v>
+        <v>562</v>
       </c>
       <c r="Y58" t="s">
-        <v>508</v>
+        <v>563</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
         <v>36637</v>
       </c>
-      <c r="B59" t="s"/>
-      <c r="C59" t="s"/>
+      <c r="B59" t="n">
+        <v>146328</v>
+      </c>
+      <c r="C59" t="s">
+        <v>564</v>
+      </c>
       <c r="D59" t="n">
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F59" t="s">
-        <v>509</v>
+        <v>565</v>
       </c>
       <c r="G59" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H59" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I59" t="s">
-        <v>510</v>
+        <v>566</v>
       </c>
       <c r="J59" t="s">
-        <v>511</v>
+        <v>567</v>
       </c>
       <c r="K59" t="s">
-        <v>512</v>
+        <v>568</v>
       </c>
       <c r="L59" t="s">
-        <v>513</v>
+        <v>569</v>
       </c>
       <c r="M59" t="n">
         <v>5</v>
       </c>
       <c r="N59" t="s">
-        <v>514</v>
+        <v>570</v>
       </c>
       <c r="O59" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P59" t="n">
         <v>5</v>
@@ -6385,56 +6842,60 @@
         <v>0</v>
       </c>
       <c r="W59" t="s">
-        <v>515</v>
+        <v>571</v>
       </c>
       <c r="X59" t="s">
-        <v>516</v>
+        <v>572</v>
       </c>
       <c r="Y59" t="s">
-        <v>517</v>
+        <v>573</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
         <v>36637</v>
       </c>
-      <c r="B60" t="s"/>
-      <c r="C60" t="s"/>
+      <c r="B60" t="n">
+        <v>146329</v>
+      </c>
+      <c r="C60" t="s">
+        <v>574</v>
+      </c>
       <c r="D60" t="n">
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F60" t="s">
-        <v>518</v>
+        <v>575</v>
       </c>
       <c r="G60" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H60" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I60" t="s">
-        <v>519</v>
+        <v>576</v>
       </c>
       <c r="J60" t="s">
-        <v>511</v>
+        <v>567</v>
       </c>
       <c r="K60" t="s">
-        <v>520</v>
+        <v>577</v>
       </c>
       <c r="L60" t="s">
-        <v>521</v>
+        <v>578</v>
       </c>
       <c r="M60" t="n">
         <v>5</v>
       </c>
       <c r="N60" t="s">
-        <v>514</v>
+        <v>570</v>
       </c>
       <c r="O60" t="s">
-        <v>220</v>
+        <v>241</v>
       </c>
       <c r="P60" t="n">
         <v>5</v>
@@ -6456,56 +6917,60 @@
         <v>0</v>
       </c>
       <c r="W60" t="s">
-        <v>522</v>
+        <v>579</v>
       </c>
       <c r="X60" t="s">
-        <v>516</v>
+        <v>572</v>
       </c>
       <c r="Y60" t="s">
-        <v>523</v>
+        <v>580</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
         <v>36637</v>
       </c>
-      <c r="B61" t="s"/>
-      <c r="C61" t="s"/>
+      <c r="B61" t="n">
+        <v>619</v>
+      </c>
+      <c r="C61" t="s">
+        <v>581</v>
+      </c>
       <c r="D61" t="n">
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F61" t="s">
-        <v>524</v>
+        <v>582</v>
       </c>
       <c r="G61" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H61" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I61" t="s">
-        <v>525</v>
+        <v>583</v>
       </c>
       <c r="J61" t="s">
-        <v>526</v>
+        <v>584</v>
       </c>
       <c r="K61" t="s">
-        <v>527</v>
+        <v>585</v>
       </c>
       <c r="L61" t="s">
-        <v>528</v>
+        <v>586</v>
       </c>
       <c r="M61" t="n">
         <v>5</v>
       </c>
       <c r="N61" t="s">
-        <v>529</v>
+        <v>587</v>
       </c>
       <c r="O61" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P61" t="n">
         <v>5</v>
@@ -6527,56 +6992,60 @@
         <v>0</v>
       </c>
       <c r="W61" t="s">
-        <v>530</v>
+        <v>588</v>
       </c>
       <c r="X61" t="s">
-        <v>531</v>
+        <v>589</v>
       </c>
       <c r="Y61" t="s">
-        <v>532</v>
+        <v>590</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
         <v>36637</v>
       </c>
-      <c r="B62" t="s"/>
-      <c r="C62" t="s"/>
+      <c r="B62" t="n">
+        <v>146330</v>
+      </c>
+      <c r="C62" t="s">
+        <v>591</v>
+      </c>
       <c r="D62" t="n">
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F62" t="s">
-        <v>533</v>
+        <v>592</v>
       </c>
       <c r="G62" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H62" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I62" t="s">
-        <v>534</v>
+        <v>593</v>
       </c>
       <c r="J62" t="s">
-        <v>535</v>
+        <v>594</v>
       </c>
       <c r="K62" t="s">
-        <v>536</v>
+        <v>595</v>
       </c>
       <c r="L62" t="s">
-        <v>537</v>
+        <v>596</v>
       </c>
       <c r="M62" t="n">
         <v>2</v>
       </c>
       <c r="N62" t="s">
-        <v>538</v>
+        <v>597</v>
       </c>
       <c r="O62" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P62" t="n">
         <v>2</v>
@@ -6598,56 +7067,60 @@
         <v>0</v>
       </c>
       <c r="W62" t="s">
-        <v>539</v>
+        <v>598</v>
       </c>
       <c r="X62" t="s">
-        <v>540</v>
+        <v>599</v>
       </c>
       <c r="Y62" t="s">
-        <v>541</v>
+        <v>600</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
         <v>36637</v>
       </c>
-      <c r="B63" t="s"/>
-      <c r="C63" t="s"/>
+      <c r="B63" t="n">
+        <v>3767</v>
+      </c>
+      <c r="C63" t="s">
+        <v>601</v>
+      </c>
       <c r="D63" t="n">
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F63" t="s">
-        <v>542</v>
+        <v>602</v>
       </c>
       <c r="G63" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H63" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I63" t="s">
-        <v>543</v>
+        <v>603</v>
       </c>
       <c r="J63" t="s">
-        <v>544</v>
+        <v>604</v>
       </c>
       <c r="K63" t="s">
-        <v>545</v>
+        <v>605</v>
       </c>
       <c r="L63" t="s">
-        <v>546</v>
+        <v>606</v>
       </c>
       <c r="M63" t="n">
         <v>4</v>
       </c>
       <c r="N63" t="s">
-        <v>547</v>
+        <v>607</v>
       </c>
       <c r="O63" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P63" t="n">
         <v>4</v>
@@ -6669,56 +7142,60 @@
         <v>0</v>
       </c>
       <c r="W63" t="s">
-        <v>548</v>
+        <v>608</v>
       </c>
       <c r="X63" t="s">
-        <v>549</v>
+        <v>609</v>
       </c>
       <c r="Y63" t="s">
-        <v>550</v>
+        <v>610</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
         <v>36637</v>
       </c>
-      <c r="B64" t="s"/>
-      <c r="C64" t="s"/>
+      <c r="B64" t="n">
+        <v>146331</v>
+      </c>
+      <c r="C64" t="s">
+        <v>611</v>
+      </c>
       <c r="D64" t="n">
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F64" t="s">
-        <v>551</v>
+        <v>612</v>
       </c>
       <c r="G64" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H64" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I64" t="s">
-        <v>552</v>
+        <v>613</v>
       </c>
       <c r="J64" t="s">
-        <v>553</v>
+        <v>614</v>
       </c>
       <c r="K64" t="s">
-        <v>554</v>
+        <v>615</v>
       </c>
       <c r="L64" t="s">
-        <v>555</v>
+        <v>616</v>
       </c>
       <c r="M64" t="n">
         <v>4</v>
       </c>
       <c r="N64" t="s">
-        <v>556</v>
+        <v>617</v>
       </c>
       <c r="O64" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P64" t="n">
         <v>5</v>
@@ -6740,56 +7217,60 @@
         <v>0</v>
       </c>
       <c r="W64" t="s">
-        <v>557</v>
+        <v>618</v>
       </c>
       <c r="X64" t="s">
-        <v>558</v>
+        <v>619</v>
       </c>
       <c r="Y64" t="s">
-        <v>559</v>
+        <v>620</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
         <v>36637</v>
       </c>
-      <c r="B65" t="s"/>
-      <c r="C65" t="s"/>
+      <c r="B65" t="n">
+        <v>146332</v>
+      </c>
+      <c r="C65" t="s">
+        <v>621</v>
+      </c>
       <c r="D65" t="n">
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F65" t="s">
-        <v>560</v>
+        <v>622</v>
       </c>
       <c r="G65" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H65" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I65" t="s">
-        <v>561</v>
+        <v>623</v>
       </c>
       <c r="J65" t="s">
-        <v>562</v>
+        <v>624</v>
       </c>
       <c r="K65" t="s">
-        <v>563</v>
+        <v>625</v>
       </c>
       <c r="L65" t="s">
-        <v>564</v>
+        <v>626</v>
       </c>
       <c r="M65" t="n">
         <v>5</v>
       </c>
       <c r="N65" t="s">
-        <v>565</v>
+        <v>627</v>
       </c>
       <c r="O65" t="s">
-        <v>220</v>
+        <v>241</v>
       </c>
       <c r="P65" t="n">
         <v>5</v>
@@ -6811,56 +7292,60 @@
         <v>0</v>
       </c>
       <c r="W65" t="s">
-        <v>566</v>
+        <v>628</v>
       </c>
       <c r="X65" t="s">
-        <v>567</v>
+        <v>629</v>
       </c>
       <c r="Y65" t="s">
-        <v>568</v>
+        <v>630</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
         <v>36637</v>
       </c>
-      <c r="B66" t="s"/>
-      <c r="C66" t="s"/>
+      <c r="B66" t="n">
+        <v>146333</v>
+      </c>
+      <c r="C66" t="s">
+        <v>631</v>
+      </c>
       <c r="D66" t="n">
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F66" t="s">
-        <v>569</v>
+        <v>632</v>
       </c>
       <c r="G66" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H66" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I66" t="s">
-        <v>570</v>
+        <v>633</v>
       </c>
       <c r="J66" t="s">
-        <v>571</v>
+        <v>634</v>
       </c>
       <c r="K66" t="s">
-        <v>572</v>
+        <v>635</v>
       </c>
       <c r="L66" t="s">
-        <v>573</v>
+        <v>636</v>
       </c>
       <c r="M66" t="n">
         <v>5</v>
       </c>
       <c r="N66" t="s">
-        <v>574</v>
+        <v>637</v>
       </c>
       <c r="O66" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P66" t="n">
         <v>5</v>
@@ -6882,56 +7367,60 @@
         <v>0</v>
       </c>
       <c r="W66" t="s">
-        <v>566</v>
+        <v>628</v>
       </c>
       <c r="X66" t="s">
-        <v>567</v>
+        <v>629</v>
       </c>
       <c r="Y66" t="s">
-        <v>575</v>
+        <v>638</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
         <v>36637</v>
       </c>
-      <c r="B67" t="s"/>
-      <c r="C67" t="s"/>
+      <c r="B67" t="n">
+        <v>1579</v>
+      </c>
+      <c r="C67" t="s">
+        <v>639</v>
+      </c>
       <c r="D67" t="n">
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F67" t="s">
-        <v>576</v>
+        <v>640</v>
       </c>
       <c r="G67" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H67" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I67" t="s">
-        <v>577</v>
+        <v>641</v>
       </c>
       <c r="J67" t="s">
-        <v>571</v>
+        <v>634</v>
       </c>
       <c r="K67" t="s">
-        <v>578</v>
+        <v>642</v>
       </c>
       <c r="L67" t="s">
-        <v>579</v>
+        <v>643</v>
       </c>
       <c r="M67" t="n">
         <v>5</v>
       </c>
       <c r="N67" t="s">
-        <v>565</v>
+        <v>627</v>
       </c>
       <c r="O67" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P67" t="n">
         <v>5</v>
@@ -6953,47 +7442,51 @@
         <v>0</v>
       </c>
       <c r="W67" t="s">
-        <v>566</v>
+        <v>628</v>
       </c>
       <c r="X67" t="s">
-        <v>567</v>
+        <v>629</v>
       </c>
       <c r="Y67" t="s">
-        <v>580</v>
+        <v>644</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
         <v>36637</v>
       </c>
-      <c r="B68" t="s"/>
-      <c r="C68" t="s"/>
+      <c r="B68" t="n">
+        <v>146334</v>
+      </c>
+      <c r="C68" t="s">
+        <v>645</v>
+      </c>
       <c r="D68" t="n">
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F68" t="s">
-        <v>581</v>
+        <v>646</v>
       </c>
       <c r="G68" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H68" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I68" t="s">
-        <v>582</v>
+        <v>647</v>
       </c>
       <c r="J68" t="s">
-        <v>583</v>
+        <v>648</v>
       </c>
       <c r="K68" t="s">
-        <v>584</v>
+        <v>649</v>
       </c>
       <c r="L68" t="s">
-        <v>585</v>
+        <v>650</v>
       </c>
       <c r="M68" t="n">
         <v>5</v>
@@ -7020,56 +7513,60 @@
         <v>0</v>
       </c>
       <c r="W68" t="s">
-        <v>586</v>
+        <v>651</v>
       </c>
       <c r="X68" t="s">
-        <v>587</v>
+        <v>652</v>
       </c>
       <c r="Y68" t="s">
-        <v>588</v>
+        <v>653</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
         <v>36637</v>
       </c>
-      <c r="B69" t="s"/>
-      <c r="C69" t="s"/>
+      <c r="B69" t="n">
+        <v>146335</v>
+      </c>
+      <c r="C69" t="s">
+        <v>654</v>
+      </c>
       <c r="D69" t="n">
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F69" t="s">
-        <v>589</v>
+        <v>655</v>
       </c>
       <c r="G69" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H69" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I69" t="s">
-        <v>590</v>
+        <v>656</v>
       </c>
       <c r="J69" t="s">
-        <v>591</v>
+        <v>657</v>
       </c>
       <c r="K69" t="s">
-        <v>592</v>
+        <v>658</v>
       </c>
       <c r="L69" t="s">
-        <v>593</v>
+        <v>659</v>
       </c>
       <c r="M69" t="n">
         <v>4</v>
       </c>
       <c r="N69" t="s">
-        <v>574</v>
+        <v>637</v>
       </c>
       <c r="O69" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P69" t="n">
         <v>5</v>
@@ -7091,56 +7588,60 @@
         <v>0</v>
       </c>
       <c r="W69" t="s">
-        <v>594</v>
+        <v>660</v>
       </c>
       <c r="X69" t="s">
-        <v>595</v>
+        <v>661</v>
       </c>
       <c r="Y69" t="s">
-        <v>596</v>
+        <v>662</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
         <v>36637</v>
       </c>
-      <c r="B70" t="s"/>
-      <c r="C70" t="s"/>
+      <c r="B70" t="n">
+        <v>146336</v>
+      </c>
+      <c r="C70" t="s">
+        <v>663</v>
+      </c>
       <c r="D70" t="n">
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F70" t="s">
-        <v>597</v>
+        <v>664</v>
       </c>
       <c r="G70" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H70" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I70" t="s">
-        <v>598</v>
+        <v>665</v>
       </c>
       <c r="J70" t="s">
-        <v>599</v>
+        <v>666</v>
       </c>
       <c r="K70" t="s">
-        <v>600</v>
+        <v>667</v>
       </c>
       <c r="L70" t="s">
-        <v>601</v>
+        <v>668</v>
       </c>
       <c r="M70" t="n">
         <v>5</v>
       </c>
       <c r="N70" t="s">
-        <v>602</v>
+        <v>669</v>
       </c>
       <c r="O70" t="s">
-        <v>220</v>
+        <v>241</v>
       </c>
       <c r="P70" t="n">
         <v>5</v>
@@ -7162,56 +7663,60 @@
         <v>0</v>
       </c>
       <c r="W70" t="s">
-        <v>603</v>
+        <v>670</v>
       </c>
       <c r="X70" t="s">
-        <v>604</v>
+        <v>671</v>
       </c>
       <c r="Y70" t="s">
-        <v>605</v>
+        <v>672</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
         <v>36637</v>
       </c>
-      <c r="B71" t="s"/>
-      <c r="C71" t="s"/>
+      <c r="B71" t="n">
+        <v>146337</v>
+      </c>
+      <c r="C71" t="s">
+        <v>673</v>
+      </c>
       <c r="D71" t="n">
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F71" t="s">
-        <v>606</v>
+        <v>674</v>
       </c>
       <c r="G71" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H71" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I71" t="s">
+        <v>675</v>
+      </c>
+      <c r="J71" t="s">
+        <v>676</v>
+      </c>
+      <c r="K71" t="s">
+        <v>677</v>
+      </c>
+      <c r="L71" t="s">
+        <v>678</v>
+      </c>
+      <c r="M71" t="n">
+        <v>5</v>
+      </c>
+      <c r="N71" t="s">
         <v>607</v>
       </c>
-      <c r="J71" t="s">
-        <v>608</v>
-      </c>
-      <c r="K71" t="s">
-        <v>609</v>
-      </c>
-      <c r="L71" t="s">
-        <v>610</v>
-      </c>
-      <c r="M71" t="n">
-        <v>5</v>
-      </c>
-      <c r="N71" t="s">
-        <v>547</v>
-      </c>
       <c r="O71" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="P71" t="n">
         <v>4</v>
@@ -7233,47 +7738,51 @@
         <v>0</v>
       </c>
       <c r="W71" t="s">
-        <v>611</v>
+        <v>679</v>
       </c>
       <c r="X71" t="s">
-        <v>612</v>
+        <v>680</v>
       </c>
       <c r="Y71" t="s">
-        <v>613</v>
+        <v>681</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
         <v>36637</v>
       </c>
-      <c r="B72" t="s"/>
-      <c r="C72" t="s"/>
+      <c r="B72" t="n">
+        <v>146338</v>
+      </c>
+      <c r="C72" t="s">
+        <v>682</v>
+      </c>
       <c r="D72" t="n">
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F72" t="s">
-        <v>614</v>
+        <v>683</v>
       </c>
       <c r="G72" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H72" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I72" t="s">
-        <v>615</v>
+        <v>684</v>
       </c>
       <c r="J72" t="s">
-        <v>616</v>
+        <v>685</v>
       </c>
       <c r="K72" t="s">
-        <v>617</v>
+        <v>686</v>
       </c>
       <c r="L72" t="s">
-        <v>618</v>
+        <v>687</v>
       </c>
       <c r="M72" t="n">
         <v>5</v>
@@ -7300,47 +7809,51 @@
         <v>0</v>
       </c>
       <c r="W72" t="s">
-        <v>619</v>
+        <v>688</v>
       </c>
       <c r="X72" t="s">
-        <v>620</v>
+        <v>689</v>
       </c>
       <c r="Y72" t="s">
-        <v>621</v>
+        <v>690</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
         <v>36637</v>
       </c>
-      <c r="B73" t="s"/>
-      <c r="C73" t="s"/>
+      <c r="B73" t="n">
+        <v>146339</v>
+      </c>
+      <c r="C73" t="s">
+        <v>691</v>
+      </c>
       <c r="D73" t="n">
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F73" t="s">
-        <v>622</v>
+        <v>692</v>
       </c>
       <c r="G73" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H73" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I73" t="s">
-        <v>623</v>
+        <v>693</v>
       </c>
       <c r="J73" t="s">
-        <v>624</v>
+        <v>694</v>
       </c>
       <c r="K73" t="s">
-        <v>625</v>
+        <v>695</v>
       </c>
       <c r="L73" t="s">
-        <v>626</v>
+        <v>696</v>
       </c>
       <c r="M73" t="n">
         <v>5</v>
@@ -7367,56 +7880,60 @@
         <v>0</v>
       </c>
       <c r="W73" t="s">
-        <v>627</v>
+        <v>697</v>
       </c>
       <c r="X73" t="s">
-        <v>628</v>
+        <v>698</v>
       </c>
       <c r="Y73" t="s">
-        <v>629</v>
+        <v>699</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
         <v>36637</v>
       </c>
-      <c r="B74" t="s"/>
-      <c r="C74" t="s"/>
+      <c r="B74" t="n">
+        <v>146340</v>
+      </c>
+      <c r="C74" t="s">
+        <v>700</v>
+      </c>
       <c r="D74" t="n">
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F74" t="s">
-        <v>630</v>
+        <v>701</v>
       </c>
       <c r="G74" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H74" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I74" t="s">
-        <v>631</v>
+        <v>702</v>
       </c>
       <c r="J74" t="s">
-        <v>632</v>
+        <v>703</v>
       </c>
       <c r="K74" t="s">
-        <v>633</v>
+        <v>704</v>
       </c>
       <c r="L74" t="s">
-        <v>634</v>
+        <v>705</v>
       </c>
       <c r="M74" t="n">
         <v>5</v>
       </c>
       <c r="N74" t="s">
-        <v>635</v>
+        <v>706</v>
       </c>
       <c r="O74" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P74" t="n">
         <v>5</v>
@@ -7438,56 +7955,60 @@
         <v>0</v>
       </c>
       <c r="W74" t="s">
-        <v>636</v>
+        <v>707</v>
       </c>
       <c r="X74" t="s">
-        <v>637</v>
+        <v>708</v>
       </c>
       <c r="Y74" t="s">
-        <v>638</v>
+        <v>709</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
         <v>36637</v>
       </c>
-      <c r="B75" t="s"/>
-      <c r="C75" t="s"/>
+      <c r="B75" t="n">
+        <v>146335</v>
+      </c>
+      <c r="C75" t="s">
+        <v>663</v>
+      </c>
       <c r="D75" t="n">
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F75" t="s">
-        <v>639</v>
+        <v>710</v>
       </c>
       <c r="G75" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H75" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I75" t="s">
-        <v>640</v>
+        <v>711</v>
       </c>
       <c r="J75" t="s">
-        <v>632</v>
+        <v>703</v>
       </c>
       <c r="K75" t="s">
-        <v>641</v>
+        <v>712</v>
       </c>
       <c r="L75" t="s">
-        <v>642</v>
+        <v>713</v>
       </c>
       <c r="M75" t="n">
         <v>5</v>
       </c>
       <c r="N75" t="s">
-        <v>643</v>
+        <v>714</v>
       </c>
       <c r="O75" t="s">
-        <v>220</v>
+        <v>241</v>
       </c>
       <c r="P75" t="n">
         <v>5</v>
@@ -7509,56 +8030,60 @@
         <v>0</v>
       </c>
       <c r="W75" t="s">
-        <v>636</v>
+        <v>707</v>
       </c>
       <c r="X75" t="s">
-        <v>637</v>
+        <v>708</v>
       </c>
       <c r="Y75" t="s">
-        <v>644</v>
+        <v>715</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
         <v>36637</v>
       </c>
-      <c r="B76" t="s"/>
-      <c r="C76" t="s"/>
+      <c r="B76" t="n">
+        <v>146341</v>
+      </c>
+      <c r="C76" t="s">
+        <v>716</v>
+      </c>
       <c r="D76" t="n">
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F76" t="s">
-        <v>645</v>
+        <v>717</v>
       </c>
       <c r="G76" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H76" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I76" t="s">
-        <v>646</v>
+        <v>718</v>
       </c>
       <c r="J76" t="s">
-        <v>647</v>
+        <v>719</v>
       </c>
       <c r="K76" t="s">
-        <v>648</v>
+        <v>720</v>
       </c>
       <c r="L76" t="s">
-        <v>649</v>
+        <v>721</v>
       </c>
       <c r="M76" t="n">
         <v>5</v>
       </c>
       <c r="N76" t="s">
-        <v>643</v>
+        <v>714</v>
       </c>
       <c r="O76" t="s">
-        <v>220</v>
+        <v>241</v>
       </c>
       <c r="P76" t="n">
         <v>5</v>
@@ -7580,56 +8105,60 @@
         <v>0</v>
       </c>
       <c r="W76" t="s">
-        <v>636</v>
+        <v>707</v>
       </c>
       <c r="X76" t="s">
-        <v>637</v>
+        <v>708</v>
       </c>
       <c r="Y76" t="s">
-        <v>650</v>
+        <v>722</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
         <v>36637</v>
       </c>
-      <c r="B77" t="s"/>
-      <c r="C77" t="s"/>
+      <c r="B77" t="n">
+        <v>146342</v>
+      </c>
+      <c r="C77" t="s">
+        <v>723</v>
+      </c>
       <c r="D77" t="n">
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F77" t="s">
-        <v>651</v>
+        <v>724</v>
       </c>
       <c r="G77" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H77" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I77" t="s">
-        <v>652</v>
+        <v>725</v>
       </c>
       <c r="J77" t="s">
-        <v>653</v>
+        <v>726</v>
       </c>
       <c r="K77" t="s">
-        <v>654</v>
+        <v>727</v>
       </c>
       <c r="L77" t="s">
-        <v>655</v>
+        <v>728</v>
       </c>
       <c r="M77" t="n">
         <v>5</v>
       </c>
       <c r="N77" t="s">
-        <v>656</v>
+        <v>729</v>
       </c>
       <c r="O77" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P77" t="n">
         <v>5</v>
@@ -7651,56 +8180,60 @@
         <v>0</v>
       </c>
       <c r="W77" t="s">
-        <v>636</v>
+        <v>707</v>
       </c>
       <c r="X77" t="s">
-        <v>637</v>
+        <v>708</v>
       </c>
       <c r="Y77" t="s">
-        <v>657</v>
+        <v>730</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
         <v>36637</v>
       </c>
-      <c r="B78" t="s"/>
-      <c r="C78" t="s"/>
+      <c r="B78" t="n">
+        <v>146343</v>
+      </c>
+      <c r="C78" t="s">
+        <v>731</v>
+      </c>
       <c r="D78" t="n">
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F78" t="s">
-        <v>658</v>
+        <v>732</v>
       </c>
       <c r="G78" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H78" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I78" t="s">
-        <v>659</v>
+        <v>733</v>
       </c>
       <c r="J78" t="s">
-        <v>660</v>
+        <v>734</v>
       </c>
       <c r="K78" t="s">
-        <v>661</v>
+        <v>735</v>
       </c>
       <c r="L78" t="s">
-        <v>662</v>
+        <v>736</v>
       </c>
       <c r="M78" t="n">
         <v>5</v>
       </c>
       <c r="N78" t="s">
-        <v>656</v>
+        <v>729</v>
       </c>
       <c r="O78" t="s">
-        <v>220</v>
+        <v>241</v>
       </c>
       <c r="P78" t="n">
         <v>5</v>
@@ -7722,56 +8255,60 @@
         <v>0</v>
       </c>
       <c r="W78" t="s">
-        <v>636</v>
+        <v>707</v>
       </c>
       <c r="X78" t="s">
-        <v>637</v>
+        <v>708</v>
       </c>
       <c r="Y78" t="s">
-        <v>663</v>
+        <v>737</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
         <v>36637</v>
       </c>
-      <c r="B79" t="s"/>
-      <c r="C79" t="s"/>
+      <c r="B79" t="n">
+        <v>146344</v>
+      </c>
+      <c r="C79" t="s">
+        <v>738</v>
+      </c>
       <c r="D79" t="n">
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F79" t="s">
-        <v>664</v>
+        <v>739</v>
       </c>
       <c r="G79" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H79" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I79" t="s">
-        <v>665</v>
+        <v>740</v>
       </c>
       <c r="J79" t="s">
-        <v>666</v>
+        <v>741</v>
       </c>
       <c r="K79" t="s">
-        <v>667</v>
+        <v>742</v>
       </c>
       <c r="L79" t="s">
-        <v>668</v>
+        <v>743</v>
       </c>
       <c r="M79" t="n">
         <v>4</v>
       </c>
       <c r="N79" t="s">
-        <v>656</v>
+        <v>729</v>
       </c>
       <c r="O79" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="P79" t="n">
         <v>4</v>
@@ -7793,13 +8330,13 @@
         <v>0</v>
       </c>
       <c r="W79" t="s">
-        <v>636</v>
+        <v>707</v>
       </c>
       <c r="X79" t="s">
-        <v>637</v>
+        <v>708</v>
       </c>
       <c r="Y79" t="s">
-        <v>669</v>
+        <v>744</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_255.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_255.xlsx
@@ -2802,7 +2802,7 @@
         <v>36637</v>
       </c>
       <c r="B2" t="n">
-        <v>146287</v>
+        <v>177616</v>
       </c>
       <c r="C2" t="s">
         <v>44</v>
@@ -2877,7 +2877,7 @@
         <v>36637</v>
       </c>
       <c r="B3" t="n">
-        <v>146288</v>
+        <v>177617</v>
       </c>
       <c r="C3" t="s">
         <v>58</v>
@@ -2952,7 +2952,7 @@
         <v>36637</v>
       </c>
       <c r="B4" t="n">
-        <v>146289</v>
+        <v>177618</v>
       </c>
       <c r="C4" t="s">
         <v>68</v>
@@ -3027,7 +3027,7 @@
         <v>36637</v>
       </c>
       <c r="B5" t="n">
-        <v>146290</v>
+        <v>177619</v>
       </c>
       <c r="C5" t="s">
         <v>79</v>
@@ -3102,7 +3102,7 @@
         <v>36637</v>
       </c>
       <c r="B6" t="n">
-        <v>146291</v>
+        <v>177620</v>
       </c>
       <c r="C6" t="s">
         <v>89</v>
@@ -3173,7 +3173,7 @@
         <v>36637</v>
       </c>
       <c r="B7" t="n">
-        <v>146292</v>
+        <v>177621</v>
       </c>
       <c r="C7" t="s">
         <v>99</v>
@@ -3248,7 +3248,7 @@
         <v>36637</v>
       </c>
       <c r="B8" t="n">
-        <v>146293</v>
+        <v>177622</v>
       </c>
       <c r="C8" t="s">
         <v>108</v>
@@ -3599,7 +3599,7 @@
         <v>36637</v>
       </c>
       <c r="B13" t="n">
-        <v>146294</v>
+        <v>177623</v>
       </c>
       <c r="C13" t="s">
         <v>156</v>
@@ -3670,7 +3670,7 @@
         <v>36637</v>
       </c>
       <c r="B14" t="n">
-        <v>146295</v>
+        <v>177624</v>
       </c>
       <c r="C14" t="s">
         <v>166</v>
@@ -3737,7 +3737,7 @@
         <v>36637</v>
       </c>
       <c r="B15" t="n">
-        <v>146296</v>
+        <v>177625</v>
       </c>
       <c r="C15" t="s">
         <v>172</v>
@@ -3798,7 +3798,7 @@
         <v>36637</v>
       </c>
       <c r="B16" t="n">
-        <v>146297</v>
+        <v>177626</v>
       </c>
       <c r="C16" t="s">
         <v>181</v>
@@ -4062,7 +4062,7 @@
         <v>36637</v>
       </c>
       <c r="B20" t="n">
-        <v>146298</v>
+        <v>177627</v>
       </c>
       <c r="C20" t="s">
         <v>217</v>
@@ -4202,7 +4202,7 @@
         <v>36637</v>
       </c>
       <c r="B22" t="n">
-        <v>146299</v>
+        <v>177628</v>
       </c>
       <c r="C22" t="s">
         <v>234</v>
@@ -4273,7 +4273,7 @@
         <v>36637</v>
       </c>
       <c r="B23" t="n">
-        <v>146300</v>
+        <v>177629</v>
       </c>
       <c r="C23" t="s">
         <v>245</v>
@@ -4344,7 +4344,7 @@
         <v>36637</v>
       </c>
       <c r="B24" t="n">
-        <v>146301</v>
+        <v>146295</v>
       </c>
       <c r="C24" t="s">
         <v>255</v>
@@ -4480,7 +4480,7 @@
         <v>36637</v>
       </c>
       <c r="B26" t="n">
-        <v>146302</v>
+        <v>177630</v>
       </c>
       <c r="C26" t="s">
         <v>272</v>
@@ -4545,7 +4545,7 @@
         <v>36637</v>
       </c>
       <c r="B27" t="n">
-        <v>146303</v>
+        <v>177631</v>
       </c>
       <c r="C27" t="s">
         <v>282</v>
@@ -4610,7 +4610,7 @@
         <v>36637</v>
       </c>
       <c r="B28" t="n">
-        <v>146300</v>
+        <v>146295</v>
       </c>
       <c r="C28" t="s">
         <v>255</v>
@@ -4675,7 +4675,7 @@
         <v>36637</v>
       </c>
       <c r="B29" t="n">
-        <v>146304</v>
+        <v>177632</v>
       </c>
       <c r="C29" t="s">
         <v>297</v>
@@ -4740,7 +4740,7 @@
         <v>36637</v>
       </c>
       <c r="B30" t="n">
-        <v>146305</v>
+        <v>177633</v>
       </c>
       <c r="C30" t="s">
         <v>306</v>
@@ -4811,7 +4811,7 @@
         <v>36637</v>
       </c>
       <c r="B31" t="n">
-        <v>146306</v>
+        <v>177634</v>
       </c>
       <c r="C31" t="s">
         <v>316</v>
@@ -4941,7 +4941,7 @@
         <v>36637</v>
       </c>
       <c r="B33" t="n">
-        <v>146307</v>
+        <v>177635</v>
       </c>
       <c r="C33" t="s">
         <v>331</v>
@@ -5010,7 +5010,7 @@
         <v>36637</v>
       </c>
       <c r="B34" t="n">
-        <v>146308</v>
+        <v>177636</v>
       </c>
       <c r="C34" t="s">
         <v>340</v>
@@ -5148,7 +5148,7 @@
         <v>36637</v>
       </c>
       <c r="B36" t="n">
-        <v>146309</v>
+        <v>177637</v>
       </c>
       <c r="C36" t="s">
         <v>360</v>
@@ -5213,7 +5213,7 @@
         <v>36637</v>
       </c>
       <c r="B37" t="n">
-        <v>146310</v>
+        <v>177638</v>
       </c>
       <c r="C37" t="s">
         <v>369</v>
@@ -5420,7 +5420,7 @@
         <v>36637</v>
       </c>
       <c r="B40" t="n">
-        <v>146311</v>
+        <v>177639</v>
       </c>
       <c r="C40" t="s">
         <v>397</v>
@@ -5491,7 +5491,7 @@
         <v>36637</v>
       </c>
       <c r="B41" t="n">
-        <v>146312</v>
+        <v>177640</v>
       </c>
       <c r="C41" t="s">
         <v>407</v>
@@ -5562,7 +5562,7 @@
         <v>36637</v>
       </c>
       <c r="B42" t="n">
-        <v>146313</v>
+        <v>177641</v>
       </c>
       <c r="C42" t="s">
         <v>416</v>
@@ -5633,7 +5633,7 @@
         <v>36637</v>
       </c>
       <c r="B43" t="n">
-        <v>146314</v>
+        <v>177642</v>
       </c>
       <c r="C43" t="s">
         <v>425</v>
@@ -5702,7 +5702,7 @@
         <v>36637</v>
       </c>
       <c r="B44" t="n">
-        <v>146315</v>
+        <v>177643</v>
       </c>
       <c r="C44" t="s">
         <v>435</v>
@@ -5771,7 +5771,7 @@
         <v>36637</v>
       </c>
       <c r="B45" t="n">
-        <v>146316</v>
+        <v>177644</v>
       </c>
       <c r="C45" t="s">
         <v>445</v>
@@ -5846,7 +5846,7 @@
         <v>36637</v>
       </c>
       <c r="B46" t="n">
-        <v>146317</v>
+        <v>146826</v>
       </c>
       <c r="C46" t="s">
         <v>454</v>
@@ -5921,7 +5921,7 @@
         <v>36637</v>
       </c>
       <c r="B47" t="n">
-        <v>146318</v>
+        <v>177645</v>
       </c>
       <c r="C47" t="s">
         <v>463</v>
@@ -5996,7 +5996,7 @@
         <v>36637</v>
       </c>
       <c r="B48" t="n">
-        <v>146319</v>
+        <v>177646</v>
       </c>
       <c r="C48" t="s">
         <v>473</v>
@@ -6071,7 +6071,7 @@
         <v>36637</v>
       </c>
       <c r="B49" t="n">
-        <v>146320</v>
+        <v>177647</v>
       </c>
       <c r="C49" t="s">
         <v>482</v>
@@ -6142,7 +6142,7 @@
         <v>36637</v>
       </c>
       <c r="B50" t="n">
-        <v>146321</v>
+        <v>177648</v>
       </c>
       <c r="C50" t="s">
         <v>491</v>
@@ -6209,7 +6209,7 @@
         <v>36637</v>
       </c>
       <c r="B51" t="n">
-        <v>146322</v>
+        <v>177649</v>
       </c>
       <c r="C51" t="s">
         <v>497</v>
@@ -6351,7 +6351,7 @@
         <v>36637</v>
       </c>
       <c r="B53" t="n">
-        <v>146323</v>
+        <v>177650</v>
       </c>
       <c r="C53" t="s">
         <v>511</v>
@@ -6422,7 +6422,7 @@
         <v>36637</v>
       </c>
       <c r="B54" t="n">
-        <v>146324</v>
+        <v>177651</v>
       </c>
       <c r="C54" t="s">
         <v>520</v>
@@ -6564,7 +6564,7 @@
         <v>36637</v>
       </c>
       <c r="B56" t="n">
-        <v>146325</v>
+        <v>177652</v>
       </c>
       <c r="C56" t="s">
         <v>536</v>
@@ -6635,7 +6635,7 @@
         <v>36637</v>
       </c>
       <c r="B57" t="n">
-        <v>146326</v>
+        <v>177653</v>
       </c>
       <c r="C57" t="s">
         <v>545</v>
@@ -6706,7 +6706,7 @@
         <v>36637</v>
       </c>
       <c r="B58" t="n">
-        <v>146327</v>
+        <v>177654</v>
       </c>
       <c r="C58" t="s">
         <v>554</v>
@@ -6781,7 +6781,7 @@
         <v>36637</v>
       </c>
       <c r="B59" t="n">
-        <v>146328</v>
+        <v>177655</v>
       </c>
       <c r="C59" t="s">
         <v>564</v>
@@ -6856,7 +6856,7 @@
         <v>36637</v>
       </c>
       <c r="B60" t="n">
-        <v>146329</v>
+        <v>177656</v>
       </c>
       <c r="C60" t="s">
         <v>574</v>
@@ -7006,7 +7006,7 @@
         <v>36637</v>
       </c>
       <c r="B62" t="n">
-        <v>146330</v>
+        <v>177657</v>
       </c>
       <c r="C62" t="s">
         <v>591</v>
@@ -7156,7 +7156,7 @@
         <v>36637</v>
       </c>
       <c r="B64" t="n">
-        <v>146331</v>
+        <v>177658</v>
       </c>
       <c r="C64" t="s">
         <v>611</v>
@@ -7231,7 +7231,7 @@
         <v>36637</v>
       </c>
       <c r="B65" t="n">
-        <v>146332</v>
+        <v>177659</v>
       </c>
       <c r="C65" t="s">
         <v>621</v>
@@ -7306,7 +7306,7 @@
         <v>36637</v>
       </c>
       <c r="B66" t="n">
-        <v>146333</v>
+        <v>177660</v>
       </c>
       <c r="C66" t="s">
         <v>631</v>
@@ -7456,7 +7456,7 @@
         <v>36637</v>
       </c>
       <c r="B68" t="n">
-        <v>146334</v>
+        <v>177661</v>
       </c>
       <c r="C68" t="s">
         <v>645</v>
@@ -7527,7 +7527,7 @@
         <v>36637</v>
       </c>
       <c r="B69" t="n">
-        <v>146335</v>
+        <v>177662</v>
       </c>
       <c r="C69" t="s">
         <v>654</v>
@@ -7602,7 +7602,7 @@
         <v>36637</v>
       </c>
       <c r="B70" t="n">
-        <v>146336</v>
+        <v>146305</v>
       </c>
       <c r="C70" t="s">
         <v>663</v>
@@ -7677,7 +7677,7 @@
         <v>36637</v>
       </c>
       <c r="B71" t="n">
-        <v>146337</v>
+        <v>177663</v>
       </c>
       <c r="C71" t="s">
         <v>673</v>
@@ -7752,7 +7752,7 @@
         <v>36637</v>
       </c>
       <c r="B72" t="n">
-        <v>146338</v>
+        <v>177664</v>
       </c>
       <c r="C72" t="s">
         <v>682</v>
@@ -7823,7 +7823,7 @@
         <v>36637</v>
       </c>
       <c r="B73" t="n">
-        <v>146339</v>
+        <v>177665</v>
       </c>
       <c r="C73" t="s">
         <v>691</v>
@@ -7894,7 +7894,7 @@
         <v>36637</v>
       </c>
       <c r="B74" t="n">
-        <v>146340</v>
+        <v>177666</v>
       </c>
       <c r="C74" t="s">
         <v>700</v>
@@ -7969,7 +7969,7 @@
         <v>36637</v>
       </c>
       <c r="B75" t="n">
-        <v>146335</v>
+        <v>146305</v>
       </c>
       <c r="C75" t="s">
         <v>663</v>
@@ -8044,7 +8044,7 @@
         <v>36637</v>
       </c>
       <c r="B76" t="n">
-        <v>146341</v>
+        <v>177667</v>
       </c>
       <c r="C76" t="s">
         <v>716</v>
@@ -8119,7 +8119,7 @@
         <v>36637</v>
       </c>
       <c r="B77" t="n">
-        <v>146342</v>
+        <v>177668</v>
       </c>
       <c r="C77" t="s">
         <v>723</v>
@@ -8194,7 +8194,7 @@
         <v>36637</v>
       </c>
       <c r="B78" t="n">
-        <v>146343</v>
+        <v>177669</v>
       </c>
       <c r="C78" t="s">
         <v>731</v>
@@ -8269,7 +8269,7 @@
         <v>36637</v>
       </c>
       <c r="B79" t="n">
-        <v>146344</v>
+        <v>177670</v>
       </c>
       <c r="C79" t="s">
         <v>738</v>
